--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,18 @@
     <t>['2', '4']</t>
   </si>
   <si>
+    <t>['23', '42', '68']</t>
+  </si>
+  <si>
+    <t>['1', '13', '24', '90+4']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -949,9 +961,6 @@
     <t>['18', '31', '86']</t>
   </si>
   <si>
-    <t>['86']</t>
-  </si>
-  <si>
     <t>['16', '45+2', '90+4']</t>
   </si>
   <si>
@@ -992,6 +1001,15 @@
   </si>
   <si>
     <t>['36', '49']</t>
+  </si>
+  <si>
+    <t>['13', '54']</t>
+  </si>
+  <si>
+    <t>['6', '90', '90+2']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -2105,7 +2123,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2308,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ5">
         <v>0.6899999999999999</v>
@@ -2436,7 +2454,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2514,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ6">
         <v>0.92</v>
@@ -2848,7 +2866,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2929,7 +2947,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ8">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3466,7 +3484,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3544,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ11">
         <v>2.38</v>
@@ -3672,7 +3690,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3750,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1.85</v>
@@ -3959,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4084,7 +4102,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4165,7 +4183,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4290,7 +4308,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4368,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ15">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4496,7 +4514,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4577,7 +4595,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4702,7 +4720,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5192,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5320,7 +5338,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5732,7 +5750,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5813,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5938,7 +5956,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6019,7 +6037,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ23">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -6222,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ24">
         <v>0.6899999999999999</v>
@@ -6428,10 +6446,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ25">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6556,7 +6574,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6634,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6840,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ27">
         <v>1.15</v>
@@ -7458,10 +7476,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ30">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7664,10 +7682,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR31">
         <v>0.9399999999999999</v>
@@ -7792,7 +7810,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7873,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -7998,7 +8016,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8076,7 +8094,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ33">
         <v>1.38</v>
@@ -8285,7 +8303,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8410,7 +8428,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8488,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ35">
         <v>1.15</v>
@@ -8616,7 +8634,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8822,7 +8840,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8900,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>0.92</v>
@@ -9028,7 +9046,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9106,7 +9124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -9234,7 +9252,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9312,10 +9330,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR39">
         <v>1.23</v>
@@ -9646,7 +9664,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9727,7 +9745,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR41">
         <v>1.32</v>
@@ -10136,10 +10154,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ43">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -10264,7 +10282,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10345,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR44">
         <v>1.46</v>
@@ -10470,7 +10488,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10754,7 +10772,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -11166,7 +11184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ48">
         <v>1.08</v>
@@ -11294,7 +11312,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11500,7 +11518,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11581,7 +11599,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11706,7 +11724,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11990,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ52">
         <v>0.6899999999999999</v>
@@ -12324,7 +12342,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12402,7 +12420,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12530,7 +12548,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12608,7 +12626,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ55">
         <v>2.38</v>
@@ -12736,7 +12754,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12817,7 +12835,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ56">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13023,7 +13041,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13148,7 +13166,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13226,10 +13244,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ58">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13354,7 +13372,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13432,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ59">
         <v>0.92</v>
@@ -13560,7 +13578,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13638,10 +13656,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13766,7 +13784,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13847,7 +13865,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -14050,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14668,10 +14686,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR65">
         <v>1.61</v>
@@ -14796,7 +14814,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14874,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66">
         <v>1.85</v>
@@ -15002,7 +15020,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15080,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15414,7 +15432,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15620,7 +15638,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15701,7 +15719,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ70">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR70">
         <v>1.57</v>
@@ -15907,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR71">
         <v>1.04</v>
@@ -16032,7 +16050,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16238,7 +16256,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16444,7 +16462,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16522,10 +16540,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR74">
         <v>1.68</v>
@@ -16650,7 +16668,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16728,10 +16746,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16934,7 +16952,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ76">
         <v>0.92</v>
@@ -17062,7 +17080,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17140,7 +17158,7 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17268,7 +17286,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17349,7 +17367,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17474,7 +17492,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17552,10 +17570,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR79">
         <v>1.11</v>
@@ -17758,10 +17776,10 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR80">
         <v>2.06</v>
@@ -17964,10 +17982,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18504,7 +18522,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19328,7 +19346,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19534,7 +19552,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19740,7 +19758,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19818,10 +19836,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ90">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -19946,7 +19964,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20024,10 +20042,10 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR91">
         <v>1.52</v>
@@ -20152,7 +20170,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20230,7 +20248,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ92">
         <v>2.38</v>
@@ -20358,7 +20376,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20436,10 +20454,10 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20564,7 +20582,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20645,7 +20663,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ94">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -20976,7 +20994,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21054,10 +21072,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21263,7 +21281,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ97">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR97">
         <v>1.64</v>
@@ -21388,7 +21406,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21800,7 +21818,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21878,7 +21896,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100">
         <v>0.6899999999999999</v>
@@ -22702,7 +22720,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22911,7 +22929,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR105">
         <v>1.18</v>
@@ -23036,7 +23054,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23114,10 +23132,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR106">
         <v>1.24</v>
@@ -23320,7 +23338,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ107">
         <v>0.6899999999999999</v>
@@ -23654,7 +23672,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23735,7 +23753,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.28</v>
@@ -23938,7 +23956,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110">
         <v>1.08</v>
@@ -24066,7 +24084,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24144,10 +24162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ111">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -24350,10 +24368,10 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24478,7 +24496,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24890,7 +24908,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25096,7 +25114,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25174,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25302,7 +25320,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25383,7 +25401,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25508,7 +25526,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25714,7 +25732,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25792,7 +25810,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ119">
         <v>1.15</v>
@@ -25920,7 +25938,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26126,7 +26144,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26204,10 +26222,10 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26413,7 +26431,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26538,7 +26556,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26744,7 +26762,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26950,7 +26968,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27028,7 +27046,7 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ125">
         <v>1.85</v>
@@ -27156,7 +27174,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27237,7 +27255,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ126">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -27362,7 +27380,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27440,7 +27458,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ127">
         <v>1.38</v>
@@ -27568,7 +27586,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27646,7 +27664,7 @@
         <v>2.38</v>
       </c>
       <c r="AP128">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ128">
         <v>2.38</v>
@@ -27774,7 +27792,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27855,7 +27873,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ129">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28058,7 +28076,7 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -28267,7 +28285,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28470,7 +28488,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ132">
         <v>0.92</v>
@@ -28679,7 +28697,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ133">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28804,7 +28822,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29088,7 +29106,7 @@
         <v>0.57</v>
       </c>
       <c r="AP135">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ135">
         <v>1.08</v>
@@ -29216,7 +29234,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29422,7 +29440,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29706,7 +29724,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ138">
         <v>1.85</v>
@@ -30121,7 +30139,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ140">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30246,7 +30264,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30324,7 +30342,7 @@
         <v>1.56</v>
       </c>
       <c r="AP141">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ141">
         <v>1.15</v>
@@ -30452,7 +30470,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30533,7 +30551,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30658,7 +30676,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30736,10 +30754,10 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ143">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR143">
         <v>1.5</v>
@@ -30864,7 +30882,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30942,7 +30960,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ144">
         <v>0.92</v>
@@ -31148,10 +31166,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR145">
         <v>1.41</v>
@@ -31357,7 +31375,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR146">
         <v>1.54</v>
@@ -31482,7 +31500,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31563,7 +31581,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ147">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31894,7 +31912,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32100,7 +32118,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32178,7 +32196,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ150">
         <v>0.6899999999999999</v>
@@ -32384,7 +32402,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ151">
         <v>1.5</v>
@@ -33130,7 +33148,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33208,10 +33226,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR155">
         <v>1.39</v>
@@ -33336,7 +33354,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33620,7 +33638,7 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ157">
         <v>0.92</v>
@@ -33826,7 +33844,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34035,7 +34053,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ159">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR159">
         <v>1.59</v>
@@ -34160,7 +34178,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34241,7 +34259,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34366,7 +34384,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34572,7 +34590,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34856,10 +34874,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR163">
         <v>1.57</v>
@@ -35268,7 +35286,7 @@
         <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ165">
         <v>0.92</v>
@@ -35477,7 +35495,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ166">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35602,7 +35620,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35680,7 +35698,7 @@
         <v>1.5</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
         <v>1.15</v>
@@ -35808,7 +35826,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35889,7 +35907,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR168">
         <v>1.17</v>
@@ -36092,10 +36110,10 @@
         <v>1.67</v>
       </c>
       <c r="AP169">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ169">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR169">
         <v>1.51</v>
@@ -36220,7 +36238,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36298,7 +36316,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170">
         <v>1.38</v>
@@ -36426,7 +36444,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36507,7 +36525,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ171">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36632,7 +36650,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36710,7 +36728,7 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ172">
         <v>0.92</v>
@@ -36838,7 +36856,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -37044,7 +37062,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37122,7 +37140,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ174">
         <v>1.85</v>
@@ -37250,7 +37268,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37328,7 +37346,7 @@
         <v>0.7</v>
       </c>
       <c r="AP175">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ175">
         <v>1.08</v>
@@ -37456,7 +37474,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37537,7 +37555,7 @@
         <v>1</v>
       </c>
       <c r="AQ176">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR176">
         <v>1.28</v>
@@ -37743,7 +37761,7 @@
         <v>2</v>
       </c>
       <c r="AQ177">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR177">
         <v>1.52</v>
@@ -37946,7 +37964,7 @@
         <v>2.55</v>
       </c>
       <c r="AP178">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ178">
         <v>2.38</v>
@@ -38074,7 +38092,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38280,7 +38298,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38361,7 +38379,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR180">
         <v>1.65</v>
@@ -38564,7 +38582,7 @@
         <v>1.36</v>
       </c>
       <c r="AP181">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ181">
         <v>1.15</v>
@@ -38692,7 +38710,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -38979,7 +38997,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ183">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR183">
         <v>1.72</v>
@@ -39104,7 +39122,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39516,7 +39534,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39594,7 +39612,7 @@
         <v>1.27</v>
       </c>
       <c r="AP186">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ186">
         <v>1.38</v>
@@ -39803,7 +39821,7 @@
         <v>2</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -39928,7 +39946,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40006,10 +40024,10 @@
         <v>0.64</v>
       </c>
       <c r="AP188">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="AQ188">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR188">
         <v>1.47</v>
@@ -40340,7 +40358,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40418,7 +40436,7 @@
         <v>1.36</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ190">
         <v>1.5</v>
@@ -40546,7 +40564,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40627,7 +40645,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR191">
         <v>1.32</v>
@@ -40752,7 +40770,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40830,7 +40848,7 @@
         <v>0.91</v>
       </c>
       <c r="AP192">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ192">
         <v>1.08</v>
@@ -40958,7 +40976,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41036,10 +41054,10 @@
         <v>1.55</v>
       </c>
       <c r="AP193">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ193">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR193">
         <v>1.8</v>
@@ -41164,7 +41182,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41370,7 +41388,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41988,7 +42006,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42194,7 +42212,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42606,7 +42624,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42763,6 +42781,1448 @@
       </c>
       <c r="BP201">
         <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>6676149</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45415.54861111111</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>83</v>
+      </c>
+      <c r="H202" t="s">
+        <v>77</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202" t="s">
+        <v>222</v>
+      </c>
+      <c r="P202" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q202">
+        <v>3.75</v>
+      </c>
+      <c r="R202">
+        <v>2.1</v>
+      </c>
+      <c r="S202">
+        <v>2.63</v>
+      </c>
+      <c r="T202">
+        <v>1.36</v>
+      </c>
+      <c r="U202">
+        <v>3.04</v>
+      </c>
+      <c r="V202">
+        <v>2.84</v>
+      </c>
+      <c r="W202">
+        <v>1.41</v>
+      </c>
+      <c r="X202">
+        <v>6.5</v>
+      </c>
+      <c r="Y202">
+        <v>1.08</v>
+      </c>
+      <c r="Z202">
+        <v>3.4</v>
+      </c>
+      <c r="AA202">
+        <v>3.4</v>
+      </c>
+      <c r="AB202">
+        <v>2.1</v>
+      </c>
+      <c r="AC202">
+        <v>1.02</v>
+      </c>
+      <c r="AD202">
+        <v>10</v>
+      </c>
+      <c r="AE202">
+        <v>1.29</v>
+      </c>
+      <c r="AF202">
+        <v>3.3</v>
+      </c>
+      <c r="AG202">
+        <v>1.9</v>
+      </c>
+      <c r="AH202">
+        <v>1.9</v>
+      </c>
+      <c r="AI202">
+        <v>1.73</v>
+      </c>
+      <c r="AJ202">
+        <v>2</v>
+      </c>
+      <c r="AK202">
+        <v>1.63</v>
+      </c>
+      <c r="AL202">
+        <v>1.25</v>
+      </c>
+      <c r="AM202">
+        <v>1.24</v>
+      </c>
+      <c r="AN202">
+        <v>0.17</v>
+      </c>
+      <c r="AO202">
+        <v>1.58</v>
+      </c>
+      <c r="AP202">
+        <v>0.38</v>
+      </c>
+      <c r="AQ202">
+        <v>1.46</v>
+      </c>
+      <c r="AR202">
+        <v>1.5</v>
+      </c>
+      <c r="AS202">
+        <v>1.38</v>
+      </c>
+      <c r="AT202">
+        <v>2.88</v>
+      </c>
+      <c r="AU202">
+        <v>7</v>
+      </c>
+      <c r="AV202">
+        <v>6</v>
+      </c>
+      <c r="AW202">
+        <v>8</v>
+      </c>
+      <c r="AX202">
+        <v>7</v>
+      </c>
+      <c r="AY202">
+        <v>15</v>
+      </c>
+      <c r="AZ202">
+        <v>13</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>9</v>
+      </c>
+      <c r="BC202">
+        <v>11</v>
+      </c>
+      <c r="BD202">
+        <v>2.17</v>
+      </c>
+      <c r="BE202">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF202">
+        <v>1.86</v>
+      </c>
+      <c r="BG202">
+        <v>0</v>
+      </c>
+      <c r="BH202">
+        <v>0</v>
+      </c>
+      <c r="BI202">
+        <v>1.25</v>
+      </c>
+      <c r="BJ202">
+        <v>3.42</v>
+      </c>
+      <c r="BK202">
+        <v>1.91</v>
+      </c>
+      <c r="BL202">
+        <v>2.47</v>
+      </c>
+      <c r="BM202">
+        <v>1.83</v>
+      </c>
+      <c r="BN202">
+        <v>1.96</v>
+      </c>
+      <c r="BO202">
+        <v>2.26</v>
+      </c>
+      <c r="BP202">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>6676152</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45415.54861111111</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>79</v>
+      </c>
+      <c r="H203" t="s">
+        <v>81</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>3</v>
+      </c>
+      <c r="N203">
+        <v>4</v>
+      </c>
+      <c r="O203" t="s">
+        <v>154</v>
+      </c>
+      <c r="P203" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q203">
+        <v>2.75</v>
+      </c>
+      <c r="R203">
+        <v>2.3</v>
+      </c>
+      <c r="S203">
+        <v>3.25</v>
+      </c>
+      <c r="T203">
+        <v>1.33</v>
+      </c>
+      <c r="U203">
+        <v>3</v>
+      </c>
+      <c r="V203">
+        <v>2.62</v>
+      </c>
+      <c r="W203">
+        <v>1.42</v>
+      </c>
+      <c r="X203">
+        <v>6</v>
+      </c>
+      <c r="Y203">
+        <v>1.09</v>
+      </c>
+      <c r="Z203">
+        <v>2.2</v>
+      </c>
+      <c r="AA203">
+        <v>3.6</v>
+      </c>
+      <c r="AB203">
+        <v>3.1</v>
+      </c>
+      <c r="AC203">
+        <v>1.02</v>
+      </c>
+      <c r="AD203">
+        <v>10</v>
+      </c>
+      <c r="AE203">
+        <v>1.25</v>
+      </c>
+      <c r="AF203">
+        <v>3.6</v>
+      </c>
+      <c r="AG203">
+        <v>1.7</v>
+      </c>
+      <c r="AH203">
+        <v>2.1</v>
+      </c>
+      <c r="AI203">
+        <v>1.57</v>
+      </c>
+      <c r="AJ203">
+        <v>2.25</v>
+      </c>
+      <c r="AK203">
+        <v>1.37</v>
+      </c>
+      <c r="AL203">
+        <v>1.25</v>
+      </c>
+      <c r="AM203">
+        <v>1.45</v>
+      </c>
+      <c r="AN203">
+        <v>1</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>0.92</v>
+      </c>
+      <c r="AQ203">
+        <v>1.46</v>
+      </c>
+      <c r="AR203">
+        <v>1.38</v>
+      </c>
+      <c r="AS203">
+        <v>1.13</v>
+      </c>
+      <c r="AT203">
+        <v>2.51</v>
+      </c>
+      <c r="AU203">
+        <v>6</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>3</v>
+      </c>
+      <c r="AX203">
+        <v>6</v>
+      </c>
+      <c r="AY203">
+        <v>9</v>
+      </c>
+      <c r="AZ203">
+        <v>10</v>
+      </c>
+      <c r="BA203">
+        <v>11</v>
+      </c>
+      <c r="BB203">
+        <v>6</v>
+      </c>
+      <c r="BC203">
+        <v>17</v>
+      </c>
+      <c r="BD203">
+        <v>1.71</v>
+      </c>
+      <c r="BE203">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF203">
+        <v>2.43</v>
+      </c>
+      <c r="BG203">
+        <v>0</v>
+      </c>
+      <c r="BH203">
+        <v>0</v>
+      </c>
+      <c r="BI203">
+        <v>1.3</v>
+      </c>
+      <c r="BJ203">
+        <v>3.08</v>
+      </c>
+      <c r="BK203">
+        <v>1.91</v>
+      </c>
+      <c r="BL203">
+        <v>2.29</v>
+      </c>
+      <c r="BM203">
+        <v>1.97</v>
+      </c>
+      <c r="BN203">
+        <v>1.83</v>
+      </c>
+      <c r="BO203">
+        <v>2.49</v>
+      </c>
+      <c r="BP203">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>6676153</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45415.54861111111</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>70</v>
+      </c>
+      <c r="H204" t="s">
+        <v>76</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>3</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>5</v>
+      </c>
+      <c r="O204" t="s">
+        <v>223</v>
+      </c>
+      <c r="P204" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q204">
+        <v>1.8</v>
+      </c>
+      <c r="R204">
+        <v>2.88</v>
+      </c>
+      <c r="S204">
+        <v>5</v>
+      </c>
+      <c r="T204">
+        <v>1.21</v>
+      </c>
+      <c r="U204">
+        <v>4.15</v>
+      </c>
+      <c r="V204">
+        <v>1.98</v>
+      </c>
+      <c r="W204">
+        <v>1.77</v>
+      </c>
+      <c r="X204">
+        <v>4.15</v>
+      </c>
+      <c r="Y204">
+        <v>1.21</v>
+      </c>
+      <c r="Z204">
+        <v>1.4</v>
+      </c>
+      <c r="AA204">
+        <v>5.5</v>
+      </c>
+      <c r="AB204">
+        <v>6</v>
+      </c>
+      <c r="AC204">
+        <v>1.02</v>
+      </c>
+      <c r="AD204">
+        <v>15</v>
+      </c>
+      <c r="AE204">
+        <v>1.08</v>
+      </c>
+      <c r="AF204">
+        <v>6.05</v>
+      </c>
+      <c r="AG204">
+        <v>1.25</v>
+      </c>
+      <c r="AH204">
+        <v>3.75</v>
+      </c>
+      <c r="AI204">
+        <v>1.44</v>
+      </c>
+      <c r="AJ204">
+        <v>2.63</v>
+      </c>
+      <c r="AK204">
+        <v>1.12</v>
+      </c>
+      <c r="AL204">
+        <v>1.14</v>
+      </c>
+      <c r="AM204">
+        <v>2.23</v>
+      </c>
+      <c r="AN204">
+        <v>1.58</v>
+      </c>
+      <c r="AO204">
+        <v>0.83</v>
+      </c>
+      <c r="AP204">
+        <v>1.69</v>
+      </c>
+      <c r="AQ204">
+        <v>0.77</v>
+      </c>
+      <c r="AR204">
+        <v>1.53</v>
+      </c>
+      <c r="AS204">
+        <v>1.52</v>
+      </c>
+      <c r="AT204">
+        <v>3.05</v>
+      </c>
+      <c r="AU204">
+        <v>12</v>
+      </c>
+      <c r="AV204">
+        <v>6</v>
+      </c>
+      <c r="AW204">
+        <v>6</v>
+      </c>
+      <c r="AX204">
+        <v>7</v>
+      </c>
+      <c r="AY204">
+        <v>18</v>
+      </c>
+      <c r="AZ204">
+        <v>13</v>
+      </c>
+      <c r="BA204">
+        <v>7</v>
+      </c>
+      <c r="BB204">
+        <v>4</v>
+      </c>
+      <c r="BC204">
+        <v>11</v>
+      </c>
+      <c r="BD204">
+        <v>1.31</v>
+      </c>
+      <c r="BE204">
+        <v>10.5</v>
+      </c>
+      <c r="BF204">
+        <v>4.05</v>
+      </c>
+      <c r="BG204">
+        <v>0</v>
+      </c>
+      <c r="BH204">
+        <v>0</v>
+      </c>
+      <c r="BI204">
+        <v>1.26</v>
+      </c>
+      <c r="BJ204">
+        <v>3.34</v>
+      </c>
+      <c r="BK204">
+        <v>1.83</v>
+      </c>
+      <c r="BL204">
+        <v>2.48</v>
+      </c>
+      <c r="BM204">
+        <v>1.85</v>
+      </c>
+      <c r="BN204">
+        <v>1.93</v>
+      </c>
+      <c r="BO204">
+        <v>2.33</v>
+      </c>
+      <c r="BP204">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>6676154</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45415.54861111111</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>74</v>
+      </c>
+      <c r="H205" t="s">
+        <v>78</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205" t="s">
+        <v>86</v>
+      </c>
+      <c r="P205" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q205">
+        <v>2.63</v>
+      </c>
+      <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
+        <v>4</v>
+      </c>
+      <c r="T205">
+        <v>1.37</v>
+      </c>
+      <c r="U205">
+        <v>2.95</v>
+      </c>
+      <c r="V205">
+        <v>2.74</v>
+      </c>
+      <c r="W205">
+        <v>1.42</v>
+      </c>
+      <c r="X205">
+        <v>6.8</v>
+      </c>
+      <c r="Y205">
+        <v>1.08</v>
+      </c>
+      <c r="Z205">
+        <v>2</v>
+      </c>
+      <c r="AA205">
+        <v>3.4</v>
+      </c>
+      <c r="AB205">
+        <v>3.75</v>
+      </c>
+      <c r="AC205">
+        <v>1.01</v>
+      </c>
+      <c r="AD205">
+        <v>9.5</v>
+      </c>
+      <c r="AE205">
+        <v>1.25</v>
+      </c>
+      <c r="AF205">
+        <v>3.42</v>
+      </c>
+      <c r="AG205">
+        <v>2.05</v>
+      </c>
+      <c r="AH205">
+        <v>1.75</v>
+      </c>
+      <c r="AI205">
+        <v>1.83</v>
+      </c>
+      <c r="AJ205">
+        <v>1.83</v>
+      </c>
+      <c r="AK205">
+        <v>1.28</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.76</v>
+      </c>
+      <c r="AN205">
+        <v>1.67</v>
+      </c>
+      <c r="AO205">
+        <v>1.42</v>
+      </c>
+      <c r="AP205">
+        <v>1.62</v>
+      </c>
+      <c r="AQ205">
+        <v>1.38</v>
+      </c>
+      <c r="AR205">
+        <v>1.57</v>
+      </c>
+      <c r="AS205">
+        <v>1.57</v>
+      </c>
+      <c r="AT205">
+        <v>3.14</v>
+      </c>
+      <c r="AU205">
+        <v>5</v>
+      </c>
+      <c r="AV205">
+        <v>3</v>
+      </c>
+      <c r="AW205">
+        <v>8</v>
+      </c>
+      <c r="AX205">
+        <v>2</v>
+      </c>
+      <c r="AY205">
+        <v>13</v>
+      </c>
+      <c r="AZ205">
+        <v>5</v>
+      </c>
+      <c r="BA205">
+        <v>10</v>
+      </c>
+      <c r="BB205">
+        <v>2</v>
+      </c>
+      <c r="BC205">
+        <v>12</v>
+      </c>
+      <c r="BD205">
+        <v>1.66</v>
+      </c>
+      <c r="BE205">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF205">
+        <v>2.57</v>
+      </c>
+      <c r="BG205">
+        <v>1.26</v>
+      </c>
+      <c r="BH205">
+        <v>3.34</v>
+      </c>
+      <c r="BI205">
+        <v>1.54</v>
+      </c>
+      <c r="BJ205">
+        <v>2.42</v>
+      </c>
+      <c r="BK205">
+        <v>1.9</v>
+      </c>
+      <c r="BL205">
+        <v>1.9</v>
+      </c>
+      <c r="BM205">
+        <v>2.41</v>
+      </c>
+      <c r="BN205">
+        <v>1.54</v>
+      </c>
+      <c r="BO205">
+        <v>3.2</v>
+      </c>
+      <c r="BP205">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>6676155</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45415.54861111111</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>80</v>
+      </c>
+      <c r="H206" t="s">
+        <v>72</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>224</v>
+      </c>
+      <c r="P206" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q206">
+        <v>2.88</v>
+      </c>
+      <c r="R206">
+        <v>2.4</v>
+      </c>
+      <c r="S206">
+        <v>2.88</v>
+      </c>
+      <c r="T206">
+        <v>1.3</v>
+      </c>
+      <c r="U206">
+        <v>3.2</v>
+      </c>
+      <c r="V206">
+        <v>2.48</v>
+      </c>
+      <c r="W206">
+        <v>1.52</v>
+      </c>
+      <c r="X206">
+        <v>5.5</v>
+      </c>
+      <c r="Y206">
+        <v>1.11</v>
+      </c>
+      <c r="Z206">
+        <v>2.63</v>
+      </c>
+      <c r="AA206">
+        <v>3.6</v>
+      </c>
+      <c r="AB206">
+        <v>2.5</v>
+      </c>
+      <c r="AC206">
+        <v>1.01</v>
+      </c>
+      <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.2</v>
+      </c>
+      <c r="AF206">
+        <v>4</v>
+      </c>
+      <c r="AG206">
+        <v>1.5</v>
+      </c>
+      <c r="AH206">
+        <v>2.5</v>
+      </c>
+      <c r="AI206">
+        <v>1.44</v>
+      </c>
+      <c r="AJ206">
+        <v>2.63</v>
+      </c>
+      <c r="AK206">
+        <v>1.44</v>
+      </c>
+      <c r="AL206">
+        <v>1.29</v>
+      </c>
+      <c r="AM206">
+        <v>1.6</v>
+      </c>
+      <c r="AN206">
+        <v>1.42</v>
+      </c>
+      <c r="AO206">
+        <v>0.92</v>
+      </c>
+      <c r="AP206">
+        <v>1.38</v>
+      </c>
+      <c r="AQ206">
+        <v>0.92</v>
+      </c>
+      <c r="AR206">
+        <v>1.22</v>
+      </c>
+      <c r="AS206">
+        <v>1.28</v>
+      </c>
+      <c r="AT206">
+        <v>2.5</v>
+      </c>
+      <c r="AU206">
+        <v>4</v>
+      </c>
+      <c r="AV206">
+        <v>3</v>
+      </c>
+      <c r="AW206">
+        <v>5</v>
+      </c>
+      <c r="AX206">
+        <v>4</v>
+      </c>
+      <c r="AY206">
+        <v>9</v>
+      </c>
+      <c r="AZ206">
+        <v>7</v>
+      </c>
+      <c r="BA206">
+        <v>10</v>
+      </c>
+      <c r="BB206">
+        <v>1</v>
+      </c>
+      <c r="BC206">
+        <v>11</v>
+      </c>
+      <c r="BD206">
+        <v>1.77</v>
+      </c>
+      <c r="BE206">
+        <v>9</v>
+      </c>
+      <c r="BF206">
+        <v>2.33</v>
+      </c>
+      <c r="BG206">
+        <v>1.19</v>
+      </c>
+      <c r="BH206">
+        <v>3.94</v>
+      </c>
+      <c r="BI206">
+        <v>1.38</v>
+      </c>
+      <c r="BJ206">
+        <v>2.71</v>
+      </c>
+      <c r="BK206">
+        <v>2.38</v>
+      </c>
+      <c r="BL206">
+        <v>2.1</v>
+      </c>
+      <c r="BM206">
+        <v>2.13</v>
+      </c>
+      <c r="BN206">
+        <v>1.69</v>
+      </c>
+      <c r="BO206">
+        <v>2.79</v>
+      </c>
+      <c r="BP206">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>6676150</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45415.64583333334</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s">
+        <v>75</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>155</v>
+      </c>
+      <c r="P207" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q207">
+        <v>2.75</v>
+      </c>
+      <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>3.75</v>
+      </c>
+      <c r="T207">
+        <v>1.38</v>
+      </c>
+      <c r="U207">
+        <v>2.8</v>
+      </c>
+      <c r="V207">
+        <v>2.8</v>
+      </c>
+      <c r="W207">
+        <v>1.38</v>
+      </c>
+      <c r="X207">
+        <v>6.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.08</v>
+      </c>
+      <c r="Z207">
+        <v>2.15</v>
+      </c>
+      <c r="AA207">
+        <v>3.4</v>
+      </c>
+      <c r="AB207">
+        <v>3.4</v>
+      </c>
+      <c r="AC207">
+        <v>1.03</v>
+      </c>
+      <c r="AD207">
+        <v>9</v>
+      </c>
+      <c r="AE207">
+        <v>1.29</v>
+      </c>
+      <c r="AF207">
+        <v>3.3</v>
+      </c>
+      <c r="AG207">
+        <v>1.95</v>
+      </c>
+      <c r="AH207">
+        <v>1.85</v>
+      </c>
+      <c r="AI207">
+        <v>1.8</v>
+      </c>
+      <c r="AJ207">
+        <v>1.91</v>
+      </c>
+      <c r="AK207">
+        <v>1.28</v>
+      </c>
+      <c r="AL207">
+        <v>1.22</v>
+      </c>
+      <c r="AM207">
+        <v>1.8</v>
+      </c>
+      <c r="AN207">
+        <v>2.25</v>
+      </c>
+      <c r="AO207">
+        <v>1.25</v>
+      </c>
+      <c r="AP207">
+        <v>2.31</v>
+      </c>
+      <c r="AQ207">
+        <v>1.15</v>
+      </c>
+      <c r="AR207">
+        <v>1.78</v>
+      </c>
+      <c r="AS207">
+        <v>1.55</v>
+      </c>
+      <c r="AT207">
+        <v>3.33</v>
+      </c>
+      <c r="AU207">
+        <v>4</v>
+      </c>
+      <c r="AV207">
+        <v>3</v>
+      </c>
+      <c r="AW207">
+        <v>4</v>
+      </c>
+      <c r="AX207">
+        <v>5</v>
+      </c>
+      <c r="AY207">
+        <v>8</v>
+      </c>
+      <c r="AZ207">
+        <v>8</v>
+      </c>
+      <c r="BA207">
+        <v>6</v>
+      </c>
+      <c r="BB207">
+        <v>3</v>
+      </c>
+      <c r="BC207">
+        <v>9</v>
+      </c>
+      <c r="BD207">
+        <v>1.62</v>
+      </c>
+      <c r="BE207">
+        <v>9.1</v>
+      </c>
+      <c r="BF207">
+        <v>2.66</v>
+      </c>
+      <c r="BG207">
+        <v>1.23</v>
+      </c>
+      <c r="BH207">
+        <v>3.69</v>
+      </c>
+      <c r="BI207">
+        <v>1.47</v>
+      </c>
+      <c r="BJ207">
+        <v>2.6</v>
+      </c>
+      <c r="BK207">
+        <v>2.38</v>
+      </c>
+      <c r="BL207">
+        <v>2</v>
+      </c>
+      <c r="BM207">
+        <v>2.25</v>
+      </c>
+      <c r="BN207">
+        <v>1.62</v>
+      </c>
+      <c r="BO207">
+        <v>3</v>
+      </c>
+      <c r="BP207">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>6676157</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45416.39583333334</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>85</v>
+      </c>
+      <c r="H208" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>225</v>
+      </c>
+      <c r="P208" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q208">
+        <v>2.5</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>3.75</v>
+      </c>
+      <c r="T208">
+        <v>1.35</v>
+      </c>
+      <c r="U208">
+        <v>2.95</v>
+      </c>
+      <c r="V208">
+        <v>2.6</v>
+      </c>
+      <c r="W208">
+        <v>1.44</v>
+      </c>
+      <c r="X208">
+        <v>6</v>
+      </c>
+      <c r="Y208">
+        <v>1.1</v>
+      </c>
+      <c r="Z208">
+        <v>1.91</v>
+      </c>
+      <c r="AA208">
+        <v>3.6</v>
+      </c>
+      <c r="AB208">
+        <v>4</v>
+      </c>
+      <c r="AC208">
+        <v>1.01</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.25</v>
+      </c>
+      <c r="AF208">
+        <v>3.75</v>
+      </c>
+      <c r="AG208">
+        <v>1.7</v>
+      </c>
+      <c r="AH208">
+        <v>2.1</v>
+      </c>
+      <c r="AI208">
+        <v>1.67</v>
+      </c>
+      <c r="AJ208">
+        <v>2.1</v>
+      </c>
+      <c r="AK208">
+        <v>1.3</v>
+      </c>
+      <c r="AL208">
+        <v>1.22</v>
+      </c>
+      <c r="AM208">
+        <v>1.78</v>
+      </c>
+      <c r="AN208">
+        <v>2</v>
+      </c>
+      <c r="AO208">
+        <v>1.83</v>
+      </c>
+      <c r="AP208">
+        <v>2.08</v>
+      </c>
+      <c r="AQ208">
+        <v>1.69</v>
+      </c>
+      <c r="AR208">
+        <v>1.31</v>
+      </c>
+      <c r="AS208">
+        <v>1.17</v>
+      </c>
+      <c r="AT208">
+        <v>2.48</v>
+      </c>
+      <c r="AU208">
+        <v>5</v>
+      </c>
+      <c r="AV208">
+        <v>3</v>
+      </c>
+      <c r="AW208">
+        <v>3</v>
+      </c>
+      <c r="AX208">
+        <v>4</v>
+      </c>
+      <c r="AY208">
+        <v>8</v>
+      </c>
+      <c r="AZ208">
+        <v>7</v>
+      </c>
+      <c r="BA208">
+        <v>8</v>
+      </c>
+      <c r="BB208">
+        <v>4</v>
+      </c>
+      <c r="BC208">
+        <v>12</v>
+      </c>
+      <c r="BD208">
+        <v>1.62</v>
+      </c>
+      <c r="BE208">
+        <v>7.22</v>
+      </c>
+      <c r="BF208">
+        <v>3.08</v>
+      </c>
+      <c r="BG208">
+        <v>1.32</v>
+      </c>
+      <c r="BH208">
+        <v>3.1</v>
+      </c>
+      <c r="BI208">
+        <v>1.59</v>
+      </c>
+      <c r="BJ208">
+        <v>2.31</v>
+      </c>
+      <c r="BK208">
+        <v>1.98</v>
+      </c>
+      <c r="BL208">
+        <v>1.82</v>
+      </c>
+      <c r="BM208">
+        <v>2.53</v>
+      </c>
+      <c r="BN208">
+        <v>1.49</v>
+      </c>
+      <c r="BO208">
+        <v>3.2</v>
+      </c>
+      <c r="BP208">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['13', '27']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -1010,6 +1013,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2454,7 +2460,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2866,7 +2872,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3153,7 +3159,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3484,7 +3490,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3690,7 +3696,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4102,7 +4108,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4308,7 +4314,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4514,7 +4520,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4592,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ16">
         <v>0.77</v>
@@ -4720,7 +4726,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5213,7 +5219,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>1.61</v>
@@ -5338,7 +5344,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5416,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ20">
         <v>2.38</v>
@@ -5750,7 +5756,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5956,7 +5962,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6574,7 +6580,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7810,7 +7816,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8016,7 +8022,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8428,7 +8434,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8634,7 +8640,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8840,7 +8846,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9046,7 +9052,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9127,7 +9133,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>1.36</v>
@@ -9252,7 +9258,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9664,7 +9670,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9948,7 +9954,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10282,7 +10288,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10488,7 +10494,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10775,7 +10781,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>2.25</v>
@@ -11312,7 +11318,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11518,7 +11524,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11724,7 +11730,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12342,7 +12348,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12548,7 +12554,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12754,7 +12760,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13166,7 +13172,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13372,7 +13378,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13578,7 +13584,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13784,7 +13790,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14274,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ63">
         <v>1.08</v>
@@ -14483,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14814,7 +14820,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15020,7 +15026,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15432,7 +15438,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15638,7 +15644,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -16050,7 +16056,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16256,7 +16262,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16462,7 +16468,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16668,7 +16674,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17080,7 +17086,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17161,7 +17167,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17286,7 +17292,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17364,7 +17370,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ78">
         <v>1.46</v>
@@ -17492,7 +17498,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18522,7 +18528,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19346,7 +19352,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19552,7 +19558,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19758,7 +19764,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19964,7 +19970,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20170,7 +20176,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20376,7 +20382,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20582,7 +20588,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20866,7 +20872,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -20994,7 +21000,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21406,7 +21412,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21818,7 +21824,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22926,7 +22932,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ105">
         <v>1.15</v>
@@ -23054,7 +23060,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23672,7 +23678,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -24084,7 +24090,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24496,7 +24502,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24908,7 +24914,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25114,7 +25120,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25195,7 +25201,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25320,7 +25326,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25526,7 +25532,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25732,7 +25738,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25938,7 +25944,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26144,7 +26150,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26556,7 +26562,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26762,7 +26768,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26843,7 +26849,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -26968,7 +26974,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27174,7 +27180,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27380,7 +27386,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27586,7 +27592,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27792,7 +27798,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27870,7 +27876,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ129">
         <v>1.69</v>
@@ -28822,7 +28828,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29234,7 +29240,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29440,7 +29446,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29521,7 +29527,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -30264,7 +30270,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30470,7 +30476,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30676,7 +30682,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30882,7 +30888,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31500,7 +31506,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31912,7 +31918,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -31990,7 +31996,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ149">
         <v>0.92</v>
@@ -32118,7 +32124,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32405,7 +32411,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR151">
         <v>1.62</v>
@@ -33020,7 +33026,7 @@
         <v>1.89</v>
       </c>
       <c r="AP154">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ154">
         <v>1.85</v>
@@ -33148,7 +33154,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33354,7 +33360,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -34178,7 +34184,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34384,7 +34390,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34590,7 +34596,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35620,7 +35626,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35826,7 +35832,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36238,7 +36244,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36444,7 +36450,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36522,7 +36528,7 @@
         <v>1.7</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ171">
         <v>1.38</v>
@@ -36650,7 +36656,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36856,7 +36862,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36937,7 +36943,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR173">
         <v>1.24</v>
@@ -37268,7 +37274,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37474,7 +37480,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -38092,7 +38098,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38298,7 +38304,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38710,7 +38716,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39122,7 +39128,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39534,7 +39540,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39946,7 +39952,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40230,7 +40236,7 @@
         <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ189">
         <v>0.92</v>
@@ -40358,7 +40364,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40439,7 +40445,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ190">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR190">
         <v>1.37</v>
@@ -40564,7 +40570,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40770,7 +40776,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40976,7 +40982,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41182,7 +41188,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41388,7 +41394,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -42006,7 +42012,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42212,7 +42218,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42624,7 +42630,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42830,7 +42836,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43036,7 +43042,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43242,7 +43248,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -44223,6 +44229,212 @@
       </c>
       <c r="BP208">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>6676156</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45417.22916666666</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>84</v>
+      </c>
+      <c r="H209" t="s">
+        <v>82</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>3</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>226</v>
+      </c>
+      <c r="P209" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q209">
+        <v>4.5</v>
+      </c>
+      <c r="R209">
+        <v>2.3</v>
+      </c>
+      <c r="S209">
+        <v>2.2</v>
+      </c>
+      <c r="T209">
+        <v>1.3</v>
+      </c>
+      <c r="U209">
+        <v>3.25</v>
+      </c>
+      <c r="V209">
+        <v>2.4</v>
+      </c>
+      <c r="W209">
+        <v>1.51</v>
+      </c>
+      <c r="X209">
+        <v>5.45</v>
+      </c>
+      <c r="Y209">
+        <v>1.12</v>
+      </c>
+      <c r="Z209">
+        <v>4.69</v>
+      </c>
+      <c r="AA209">
+        <v>3.8</v>
+      </c>
+      <c r="AB209">
+        <v>1.67</v>
+      </c>
+      <c r="AC209">
+        <v>1.01</v>
+      </c>
+      <c r="AD209">
+        <v>11</v>
+      </c>
+      <c r="AE209">
+        <v>1.2</v>
+      </c>
+      <c r="AF209">
+        <v>4.2</v>
+      </c>
+      <c r="AG209">
+        <v>1.65</v>
+      </c>
+      <c r="AH209">
+        <v>2.11</v>
+      </c>
+      <c r="AI209">
+        <v>1.67</v>
+      </c>
+      <c r="AJ209">
+        <v>2.1</v>
+      </c>
+      <c r="AK209">
+        <v>2.15</v>
+      </c>
+      <c r="AL209">
+        <v>1.18</v>
+      </c>
+      <c r="AM209">
+        <v>1.15</v>
+      </c>
+      <c r="AN209">
+        <v>1.75</v>
+      </c>
+      <c r="AO209">
+        <v>1.5</v>
+      </c>
+      <c r="AP209">
+        <v>1.85</v>
+      </c>
+      <c r="AQ209">
+        <v>1.38</v>
+      </c>
+      <c r="AR209">
+        <v>1.35</v>
+      </c>
+      <c r="AS209">
+        <v>1.57</v>
+      </c>
+      <c r="AT209">
+        <v>2.92</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>7</v>
+      </c>
+      <c r="AW209">
+        <v>2</v>
+      </c>
+      <c r="AX209">
+        <v>4</v>
+      </c>
+      <c r="AY209">
+        <v>6</v>
+      </c>
+      <c r="AZ209">
+        <v>11</v>
+      </c>
+      <c r="BA209">
+        <v>3</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>3</v>
+      </c>
+      <c r="BD209">
+        <v>2.93</v>
+      </c>
+      <c r="BE209">
+        <v>7.5</v>
+      </c>
+      <c r="BF209">
+        <v>1.65</v>
+      </c>
+      <c r="BG209">
+        <v>1.26</v>
+      </c>
+      <c r="BH209">
+        <v>3.49</v>
+      </c>
+      <c r="BI209">
+        <v>1.5</v>
+      </c>
+      <c r="BJ209">
+        <v>2.52</v>
+      </c>
+      <c r="BK209">
+        <v>2.38</v>
+      </c>
+      <c r="BL209">
+        <v>1.97</v>
+      </c>
+      <c r="BM209">
+        <v>2.28</v>
+      </c>
+      <c r="BN209">
+        <v>1.61</v>
+      </c>
+      <c r="BO209">
+        <v>2.85</v>
+      </c>
+      <c r="BP209">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['13', '27']</t>
   </si>
   <si>
+    <t>['51', '65']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -1016,6 +1019,12 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['21', '40']</t>
+  </si>
+  <si>
+    <t>['7', '10', '17', '68']</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1714,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1920,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ3">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2460,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2744,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2872,7 +2881,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3159,7 +3168,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3362,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
         <v>0.92</v>
@@ -3490,7 +3499,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3696,7 +3705,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3777,7 +3786,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4108,7 +4117,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4314,7 +4323,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4520,7 +4529,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4726,7 +4735,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4804,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -5010,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ18">
         <v>0.92</v>
@@ -5219,7 +5228,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.61</v>
@@ -5344,7 +5353,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5756,7 +5765,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5834,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ22">
         <v>1.46</v>
@@ -5962,7 +5971,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6452,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>1.69</v>
@@ -6580,7 +6589,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6661,7 +6670,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6867,7 +6876,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ27">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7279,7 +7288,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ29">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR29">
         <v>1.62</v>
@@ -7816,7 +7825,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8022,7 +8031,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8306,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
         <v>1.46</v>
@@ -8434,7 +8443,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8515,7 +8524,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ35">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8640,7 +8649,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8718,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ36">
         <v>0.6899999999999999</v>
@@ -8846,7 +8855,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9052,7 +9061,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9130,10 +9139,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.36</v>
@@ -9258,7 +9267,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9670,7 +9679,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9957,7 +9966,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10288,7 +10297,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10366,7 +10375,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ44">
         <v>0.77</v>
@@ -10494,7 +10503,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10781,7 +10790,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>2.25</v>
@@ -10984,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ47">
         <v>0.92</v>
@@ -11318,7 +11327,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11399,7 +11408,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11524,7 +11533,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11730,7 +11739,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11808,10 +11817,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -12348,7 +12357,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12426,10 +12435,10 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>1.27</v>
@@ -12554,7 +12563,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12760,7 +12769,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13172,7 +13181,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13378,7 +13387,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13584,7 +13593,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13790,7 +13799,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13868,7 +13877,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -14486,10 +14495,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14820,7 +14829,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14898,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -15026,7 +15035,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15107,7 +15116,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15438,7 +15447,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15516,7 +15525,7 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ69">
         <v>2.38</v>
@@ -15644,7 +15653,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -16056,7 +16065,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16137,7 +16146,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ72">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.55</v>
@@ -16262,7 +16271,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16468,7 +16477,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16674,7 +16683,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17086,7 +17095,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17167,7 +17176,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17292,7 +17301,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17498,7 +17507,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17988,7 +17997,7 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ81">
         <v>1.15</v>
@@ -18403,7 +18412,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ83">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18528,7 +18537,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18609,7 +18618,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18812,7 +18821,7 @@
         <v>2.4</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ85">
         <v>2.38</v>
@@ -19224,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ87">
         <v>0.92</v>
@@ -19352,7 +19361,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19558,7 +19567,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19636,10 +19645,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19764,7 +19773,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19970,7 +19979,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20176,7 +20185,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20382,7 +20391,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20588,7 +20597,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -21000,7 +21009,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21412,7 +21421,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21696,7 +21705,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ99">
         <v>0.92</v>
@@ -21824,7 +21833,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21902,7 +21911,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
         <v>0.6899999999999999</v>
@@ -22111,7 +22120,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22314,7 +22323,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ102">
         <v>1.08</v>
@@ -22520,10 +22529,10 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ103">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22729,7 +22738,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23060,7 +23069,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23678,7 +23687,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23756,7 +23765,7 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ109">
         <v>1.38</v>
@@ -24090,7 +24099,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24374,7 +24383,7 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112">
         <v>1.46</v>
@@ -24502,7 +24511,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24580,7 +24589,7 @@
         <v>0.43</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
         <v>0.92</v>
@@ -24789,7 +24798,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR114">
         <v>1.61</v>
@@ -24914,7 +24923,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25120,7 +25129,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25201,7 +25210,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25326,7 +25335,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25404,7 +25413,7 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ117">
         <v>1.69</v>
@@ -25532,7 +25541,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25738,7 +25747,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25819,7 +25828,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ119">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -25944,7 +25953,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26025,7 +26034,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ120">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26150,7 +26159,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26434,7 +26443,7 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ122">
         <v>0.77</v>
@@ -26562,7 +26571,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26768,7 +26777,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26849,7 +26858,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -26974,7 +26983,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27055,7 +27064,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ125">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27180,7 +27189,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27386,7 +27395,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27592,7 +27601,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27798,7 +27807,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28085,7 +28094,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28494,7 +28503,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ132">
         <v>0.92</v>
@@ -28828,7 +28837,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28906,7 +28915,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ134">
         <v>0.6899999999999999</v>
@@ -29240,7 +29249,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29321,7 +29330,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ136">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29446,7 +29455,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29524,10 +29533,10 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ137">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29733,7 +29742,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ138">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29939,7 +29948,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30270,7 +30279,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30351,7 +30360,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ141">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR141">
         <v>1.9</v>
@@ -30476,7 +30485,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30682,7 +30691,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30760,7 +30769,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ143">
         <v>1.38</v>
@@ -30888,7 +30897,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31378,7 +31387,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ146">
         <v>1.46</v>
@@ -31506,7 +31515,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31790,7 +31799,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ148">
         <v>1.38</v>
@@ -31918,7 +31927,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32124,7 +32133,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32411,7 +32420,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ151">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
         <v>1.62</v>
@@ -32614,7 +32623,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ152">
         <v>1.08</v>
@@ -33029,7 +33038,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ154">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR154">
         <v>1.36</v>
@@ -33154,7 +33163,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33360,7 +33369,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33853,7 +33862,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34184,7 +34193,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34390,7 +34399,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34468,7 +34477,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ161">
         <v>1.08</v>
@@ -34596,7 +34605,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34674,7 +34683,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
         <v>0.6899999999999999</v>
@@ -35626,7 +35635,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35707,7 +35716,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR167">
         <v>1.18</v>
@@ -35832,7 +35841,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36116,7 +36125,7 @@
         <v>1.67</v>
       </c>
       <c r="AP169">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ169">
         <v>1.46</v>
@@ -36244,7 +36253,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36450,7 +36459,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36656,7 +36665,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36862,7 +36871,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36943,7 +36952,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.24</v>
@@ -37149,7 +37158,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ174">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR174">
         <v>1.88</v>
@@ -37274,7 +37283,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37480,7 +37489,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37558,7 +37567,7 @@
         <v>0.6</v>
       </c>
       <c r="AP176">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ176">
         <v>0.77</v>
@@ -37764,7 +37773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ177">
         <v>1.46</v>
@@ -37970,7 +37979,7 @@
         <v>2.55</v>
       </c>
       <c r="AP178">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ178">
         <v>2.38</v>
@@ -38098,7 +38107,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38179,7 +38188,7 @@
         <v>1</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38304,7 +38313,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38382,7 +38391,7 @@
         <v>1.09</v>
       </c>
       <c r="AP180">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ180">
         <v>1.15</v>
@@ -38591,7 +38600,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ181">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -38716,7 +38725,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -38797,7 +38806,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ182">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR182">
         <v>1.56</v>
@@ -39128,7 +39137,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39540,7 +39549,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39824,7 +39833,7 @@
         <v>1.45</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ187">
         <v>1.46</v>
@@ -39952,7 +39961,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40364,7 +40373,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40445,7 +40454,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ190">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR190">
         <v>1.37</v>
@@ -40570,7 +40579,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40648,7 +40657,7 @@
         <v>1.45</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ191">
         <v>1.46</v>
@@ -40776,7 +40785,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40982,7 +40991,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41188,7 +41197,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41269,7 +41278,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ194">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR194">
         <v>1.42</v>
@@ -41394,7 +41403,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41887,7 +41896,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ197">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42012,7 +42021,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42090,7 +42099,7 @@
         <v>2.33</v>
       </c>
       <c r="AP198">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ198">
         <v>2.38</v>
@@ -42218,7 +42227,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42502,7 +42511,7 @@
         <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ200">
         <v>1.38</v>
@@ -42630,7 +42639,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42708,10 +42717,10 @@
         <v>0.83</v>
       </c>
       <c r="AP201">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -42836,7 +42845,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43042,7 +43051,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43248,7 +43257,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -43326,7 +43335,7 @@
         <v>0.83</v>
       </c>
       <c r="AP204">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ204">
         <v>0.77</v>
@@ -44278,7 +44287,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44359,7 +44368,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ209">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>1.35</v>
@@ -44435,6 +44444,830 @@
       </c>
       <c r="BP209">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>6676158</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45422.54861111111</v>
+      </c>
+      <c r="F210">
+        <v>27</v>
+      </c>
+      <c r="G210" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" t="s">
+        <v>74</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>227</v>
+      </c>
+      <c r="P210" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q210">
+        <v>3.2</v>
+      </c>
+      <c r="R210">
+        <v>2.05</v>
+      </c>
+      <c r="S210">
+        <v>3.2</v>
+      </c>
+      <c r="T210">
+        <v>1.44</v>
+      </c>
+      <c r="U210">
+        <v>2.6</v>
+      </c>
+      <c r="V210">
+        <v>2.95</v>
+      </c>
+      <c r="W210">
+        <v>1.35</v>
+      </c>
+      <c r="X210">
+        <v>7.4</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.6</v>
+      </c>
+      <c r="AA210">
+        <v>3.3</v>
+      </c>
+      <c r="AB210">
+        <v>2.63</v>
+      </c>
+      <c r="AC210">
+        <v>1.03</v>
+      </c>
+      <c r="AD210">
+        <v>8.1</v>
+      </c>
+      <c r="AE210">
+        <v>1.33</v>
+      </c>
+      <c r="AF210">
+        <v>3.1</v>
+      </c>
+      <c r="AG210">
+        <v>2</v>
+      </c>
+      <c r="AH210">
+        <v>1.8</v>
+      </c>
+      <c r="AI210">
+        <v>1.8</v>
+      </c>
+      <c r="AJ210">
+        <v>1.91</v>
+      </c>
+      <c r="AK210">
+        <v>1.37</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.41</v>
+      </c>
+      <c r="AN210">
+        <v>2</v>
+      </c>
+      <c r="AO210">
+        <v>1.85</v>
+      </c>
+      <c r="AP210">
+        <v>2.07</v>
+      </c>
+      <c r="AQ210">
+        <v>1.71</v>
+      </c>
+      <c r="AR210">
+        <v>1.5</v>
+      </c>
+      <c r="AS210">
+        <v>1.43</v>
+      </c>
+      <c r="AT210">
+        <v>2.93</v>
+      </c>
+      <c r="AU210">
+        <v>5</v>
+      </c>
+      <c r="AV210">
+        <v>2</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>5</v>
+      </c>
+      <c r="AY210">
+        <v>9</v>
+      </c>
+      <c r="AZ210">
+        <v>7</v>
+      </c>
+      <c r="BA210">
+        <v>1</v>
+      </c>
+      <c r="BB210">
+        <v>6</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>2.22</v>
+      </c>
+      <c r="BE210">
+        <v>7</v>
+      </c>
+      <c r="BF210">
+        <v>1.95</v>
+      </c>
+      <c r="BG210">
+        <v>1.35</v>
+      </c>
+      <c r="BH210">
+        <v>2.9</v>
+      </c>
+      <c r="BI210">
+        <v>1.6</v>
+      </c>
+      <c r="BJ210">
+        <v>2.2</v>
+      </c>
+      <c r="BK210">
+        <v>2</v>
+      </c>
+      <c r="BL210">
+        <v>1.72</v>
+      </c>
+      <c r="BM210">
+        <v>2.55</v>
+      </c>
+      <c r="BN210">
+        <v>1.45</v>
+      </c>
+      <c r="BO210">
+        <v>3.4</v>
+      </c>
+      <c r="BP210">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>6676167</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45422.54861111111</v>
+      </c>
+      <c r="F211">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
+      </c>
+      <c r="H211" t="s">
+        <v>80</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>2</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>86</v>
+      </c>
+      <c r="P211" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q211">
+        <v>3.2</v>
+      </c>
+      <c r="R211">
+        <v>2.25</v>
+      </c>
+      <c r="S211">
+        <v>2.88</v>
+      </c>
+      <c r="T211">
+        <v>1.34</v>
+      </c>
+      <c r="U211">
+        <v>3.25</v>
+      </c>
+      <c r="V211">
+        <v>2.54</v>
+      </c>
+      <c r="W211">
+        <v>1.5</v>
+      </c>
+      <c r="X211">
+        <v>5.95</v>
+      </c>
+      <c r="Y211">
+        <v>1.11</v>
+      </c>
+      <c r="Z211">
+        <v>2.88</v>
+      </c>
+      <c r="AA211">
+        <v>3.4</v>
+      </c>
+      <c r="AB211">
+        <v>2.3</v>
+      </c>
+      <c r="AC211">
+        <v>1.02</v>
+      </c>
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211">
+        <v>1.19</v>
+      </c>
+      <c r="AF211">
+        <v>3.92</v>
+      </c>
+      <c r="AG211">
+        <v>1.73</v>
+      </c>
+      <c r="AH211">
+        <v>2.08</v>
+      </c>
+      <c r="AI211">
+        <v>1.62</v>
+      </c>
+      <c r="AJ211">
+        <v>2.2</v>
+      </c>
+      <c r="AK211">
+        <v>1.47</v>
+      </c>
+      <c r="AL211">
+        <v>1.28</v>
+      </c>
+      <c r="AM211">
+        <v>1.5</v>
+      </c>
+      <c r="AN211">
+        <v>1</v>
+      </c>
+      <c r="AO211">
+        <v>1</v>
+      </c>
+      <c r="AP211">
+        <v>0.93</v>
+      </c>
+      <c r="AQ211">
+        <v>1.14</v>
+      </c>
+      <c r="AR211">
+        <v>1.25</v>
+      </c>
+      <c r="AS211">
+        <v>1.24</v>
+      </c>
+      <c r="AT211">
+        <v>2.49</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>3</v>
+      </c>
+      <c r="AW211">
+        <v>8</v>
+      </c>
+      <c r="AX211">
+        <v>2</v>
+      </c>
+      <c r="AY211">
+        <v>14</v>
+      </c>
+      <c r="AZ211">
+        <v>5</v>
+      </c>
+      <c r="BA211">
+        <v>9</v>
+      </c>
+      <c r="BB211">
+        <v>5</v>
+      </c>
+      <c r="BC211">
+        <v>14</v>
+      </c>
+      <c r="BD211">
+        <v>1.92</v>
+      </c>
+      <c r="BE211">
+        <v>7.2</v>
+      </c>
+      <c r="BF211">
+        <v>2.24</v>
+      </c>
+      <c r="BG211">
+        <v>1.3</v>
+      </c>
+      <c r="BH211">
+        <v>3.2</v>
+      </c>
+      <c r="BI211">
+        <v>1.53</v>
+      </c>
+      <c r="BJ211">
+        <v>2.34</v>
+      </c>
+      <c r="BK211">
+        <v>1.88</v>
+      </c>
+      <c r="BL211">
+        <v>1.82</v>
+      </c>
+      <c r="BM211">
+        <v>2.38</v>
+      </c>
+      <c r="BN211">
+        <v>1.51</v>
+      </c>
+      <c r="BO211">
+        <v>3.1</v>
+      </c>
+      <c r="BP211">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>6676161</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45422.54861111111</v>
+      </c>
+      <c r="F212">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>70</v>
+      </c>
+      <c r="H212" t="s">
+        <v>84</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>86</v>
+      </c>
+      <c r="P212" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q212">
+        <v>2.3</v>
+      </c>
+      <c r="R212">
+        <v>2.4</v>
+      </c>
+      <c r="S212">
+        <v>3.75</v>
+      </c>
+      <c r="T212">
+        <v>1.28</v>
+      </c>
+      <c r="U212">
+        <v>3.48</v>
+      </c>
+      <c r="V212">
+        <v>2.34</v>
+      </c>
+      <c r="W212">
+        <v>1.58</v>
+      </c>
+      <c r="X212">
+        <v>5.25</v>
+      </c>
+      <c r="Y212">
+        <v>1.14</v>
+      </c>
+      <c r="Z212">
+        <v>1.83</v>
+      </c>
+      <c r="AA212">
+        <v>4</v>
+      </c>
+      <c r="AB212">
+        <v>3.5</v>
+      </c>
+      <c r="AC212">
+        <v>1.03</v>
+      </c>
+      <c r="AD212">
+        <v>9</v>
+      </c>
+      <c r="AE212">
+        <v>1.15</v>
+      </c>
+      <c r="AF212">
+        <v>4.55</v>
+      </c>
+      <c r="AG212">
+        <v>1.53</v>
+      </c>
+      <c r="AH212">
+        <v>2.38</v>
+      </c>
+      <c r="AI212">
+        <v>1.53</v>
+      </c>
+      <c r="AJ212">
+        <v>2.38</v>
+      </c>
+      <c r="AK212">
+        <v>1.26</v>
+      </c>
+      <c r="AL212">
+        <v>1.22</v>
+      </c>
+      <c r="AM212">
+        <v>1.66</v>
+      </c>
+      <c r="AN212">
+        <v>1.69</v>
+      </c>
+      <c r="AO212">
+        <v>1.15</v>
+      </c>
+      <c r="AP212">
+        <v>1.57</v>
+      </c>
+      <c r="AQ212">
+        <v>1.29</v>
+      </c>
+      <c r="AR212">
+        <v>1.6</v>
+      </c>
+      <c r="AS212">
+        <v>1.55</v>
+      </c>
+      <c r="AT212">
+        <v>3.15</v>
+      </c>
+      <c r="AU212">
+        <v>4</v>
+      </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
+      <c r="AW212">
+        <v>7</v>
+      </c>
+      <c r="AX212">
+        <v>3</v>
+      </c>
+      <c r="AY212">
+        <v>11</v>
+      </c>
+      <c r="AZ212">
+        <v>5</v>
+      </c>
+      <c r="BA212">
+        <v>13</v>
+      </c>
+      <c r="BB212">
+        <v>5</v>
+      </c>
+      <c r="BC212">
+        <v>18</v>
+      </c>
+      <c r="BD212">
+        <v>1.66</v>
+      </c>
+      <c r="BE212">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF212">
+        <v>2.58</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>0</v>
+      </c>
+      <c r="BI212">
+        <v>1.35</v>
+      </c>
+      <c r="BJ212">
+        <v>2.9</v>
+      </c>
+      <c r="BK212">
+        <v>1.91</v>
+      </c>
+      <c r="BL212">
+        <v>2.2</v>
+      </c>
+      <c r="BM212">
+        <v>1.95</v>
+      </c>
+      <c r="BN212">
+        <v>1.76</v>
+      </c>
+      <c r="BO212">
+        <v>2.45</v>
+      </c>
+      <c r="BP212">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>6676166</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45422.64583333334</v>
+      </c>
+      <c r="F213">
+        <v>27</v>
+      </c>
+      <c r="G213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H213" t="s">
+        <v>82</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>3</v>
+      </c>
+      <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>4</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>86</v>
+      </c>
+      <c r="P213" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q213">
+        <v>4.5</v>
+      </c>
+      <c r="R213">
+        <v>2.3</v>
+      </c>
+      <c r="S213">
+        <v>2.25</v>
+      </c>
+      <c r="T213">
+        <v>1.34</v>
+      </c>
+      <c r="U213">
+        <v>3.2</v>
+      </c>
+      <c r="V213">
+        <v>2.69</v>
+      </c>
+      <c r="W213">
+        <v>1.45</v>
+      </c>
+      <c r="X213">
+        <v>6.4</v>
+      </c>
+      <c r="Y213">
+        <v>1.1</v>
+      </c>
+      <c r="Z213">
+        <v>4.33</v>
+      </c>
+      <c r="AA213">
+        <v>3.8</v>
+      </c>
+      <c r="AB213">
+        <v>1.7</v>
+      </c>
+      <c r="AC213">
+        <v>1.01</v>
+      </c>
+      <c r="AD213">
+        <v>10</v>
+      </c>
+      <c r="AE213">
+        <v>1.22</v>
+      </c>
+      <c r="AF213">
+        <v>3.64</v>
+      </c>
+      <c r="AG213">
+        <v>1.7</v>
+      </c>
+      <c r="AH213">
+        <v>2.1</v>
+      </c>
+      <c r="AI213">
+        <v>1.73</v>
+      </c>
+      <c r="AJ213">
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <v>1.85</v>
+      </c>
+      <c r="AL213">
+        <v>1.26</v>
+      </c>
+      <c r="AM213">
+        <v>1.25</v>
+      </c>
+      <c r="AN213">
+        <v>1.38</v>
+      </c>
+      <c r="AO213">
+        <v>1.38</v>
+      </c>
+      <c r="AP213">
+        <v>1.29</v>
+      </c>
+      <c r="AQ213">
+        <v>1.5</v>
+      </c>
+      <c r="AR213">
+        <v>1.61</v>
+      </c>
+      <c r="AS213">
+        <v>1.57</v>
+      </c>
+      <c r="AT213">
+        <v>3.18</v>
+      </c>
+      <c r="AU213">
+        <v>2</v>
+      </c>
+      <c r="AV213">
+        <v>7</v>
+      </c>
+      <c r="AW213">
+        <v>6</v>
+      </c>
+      <c r="AX213">
+        <v>3</v>
+      </c>
+      <c r="AY213">
+        <v>8</v>
+      </c>
+      <c r="AZ213">
+        <v>10</v>
+      </c>
+      <c r="BA213">
+        <v>6</v>
+      </c>
+      <c r="BB213">
+        <v>3</v>
+      </c>
+      <c r="BC213">
+        <v>9</v>
+      </c>
+      <c r="BD213">
+        <v>2.26</v>
+      </c>
+      <c r="BE213">
+        <v>8.85</v>
+      </c>
+      <c r="BF213">
+        <v>2.02</v>
+      </c>
+      <c r="BG213">
+        <v>1.24</v>
+      </c>
+      <c r="BH213">
+        <v>3.6</v>
+      </c>
+      <c r="BI213">
+        <v>1.49</v>
+      </c>
+      <c r="BJ213">
+        <v>2.54</v>
+      </c>
+      <c r="BK213">
+        <v>1.82</v>
+      </c>
+      <c r="BL213">
+        <v>1.97</v>
+      </c>
+      <c r="BM213">
+        <v>2.28</v>
+      </c>
+      <c r="BN213">
+        <v>1.61</v>
+      </c>
+      <c r="BO213">
+        <v>3.07</v>
+      </c>
+      <c r="BP213">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,12 @@
     <t>['51', '65']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -848,9 +854,6 @@
   </si>
   <si>
     <t>['27']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['11', '22']</t>
@@ -1025,6 +1028,12 @@
   </si>
   <si>
     <t>['7', '10', '17', '68']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1735,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2341,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ5">
         <v>0.6899999999999999</v>
@@ -2469,7 +2478,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2550,7 +2559,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ6">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2881,7 +2890,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3165,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3499,7 +3508,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3705,7 +3714,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -4117,7 +4126,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4323,7 +4332,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4529,7 +4538,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4735,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5022,7 +5031,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ18">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5353,7 +5362,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5640,7 +5649,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5765,7 +5774,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5971,7 +5980,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6589,7 +6598,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7079,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
         <v>0.92</v>
@@ -7491,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ30">
         <v>0.77</v>
@@ -7825,7 +7834,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8031,7 +8040,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8443,7 +8452,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8649,7 +8658,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8855,7 +8864,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8936,7 +8945,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9061,7 +9070,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9267,7 +9276,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9679,7 +9688,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10297,7 +10306,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10503,7 +10512,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10581,7 +10590,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10787,7 +10796,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -11202,7 +11211,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ48">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11327,7 +11336,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11533,7 +11542,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11611,7 +11620,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ50">
         <v>1.15</v>
@@ -11739,7 +11748,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12232,7 +12241,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR53">
         <v>1.59</v>
@@ -12357,7 +12366,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12563,7 +12572,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12769,7 +12778,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13181,7 +13190,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13387,7 +13396,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13593,7 +13602,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13799,7 +13808,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14083,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14292,7 +14301,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ63">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14829,7 +14838,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15035,7 +15044,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15322,7 +15331,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ68">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15447,7 +15456,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15653,7 +15662,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15731,7 +15740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ70">
         <v>1.69</v>
@@ -16065,7 +16074,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16271,7 +16280,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16477,7 +16486,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16683,7 +16692,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17095,7 +17104,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17301,7 +17310,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17507,7 +17516,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17791,7 +17800,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ80">
         <v>1.69</v>
@@ -18203,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ82">
         <v>0.6899999999999999</v>
@@ -18537,7 +18546,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19236,7 +19245,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ87">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR87">
         <v>1.39</v>
@@ -19361,7 +19370,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19442,7 +19451,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19567,7 +19576,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19773,7 +19782,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19979,7 +19988,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20185,7 +20194,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20391,7 +20400,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20597,7 +20606,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -21009,7 +21018,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21421,7 +21430,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>1.95</v>
@@ -21499,10 +21508,10 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ98">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR98">
         <v>1.61</v>
@@ -21833,7 +21842,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22326,7 +22335,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ102">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22735,7 +22744,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ104">
         <v>1.14</v>
@@ -23069,7 +23078,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23687,7 +23696,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23974,7 +23983,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ110">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24099,7 +24108,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24177,7 +24186,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ111">
         <v>1.46</v>
@@ -24511,7 +24520,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24592,7 +24601,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -24795,7 +24804,7 @@
         <v>1.43</v>
       </c>
       <c r="AP114">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ114">
         <v>1.14</v>
@@ -24923,7 +24932,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25129,7 +25138,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25335,7 +25344,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25541,7 +25550,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25747,7 +25756,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25953,7 +25962,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26159,7 +26168,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26571,7 +26580,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26777,7 +26786,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26983,7 +26992,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27189,7 +27198,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27395,7 +27404,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27601,7 +27610,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27807,7 +27816,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28297,7 +28306,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ131">
         <v>1.46</v>
@@ -28506,7 +28515,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ132">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR132">
         <v>1.53</v>
@@ -28837,7 +28846,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29121,10 +29130,10 @@
         <v>0.57</v>
       </c>
       <c r="AP135">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ135">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29249,7 +29258,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29455,7 +29464,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30151,7 +30160,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ140">
         <v>0.77</v>
@@ -30279,7 +30288,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30357,7 +30366,7 @@
         <v>1.56</v>
       </c>
       <c r="AP141">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -30485,7 +30494,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30691,7 +30700,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30897,7 +30906,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31515,7 +31524,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31927,7 +31936,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32008,7 +32017,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ149">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR149">
         <v>1.3</v>
@@ -32133,7 +32142,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32626,7 +32635,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ152">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR152">
         <v>1.58</v>
@@ -33163,7 +33172,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33369,7 +33378,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33653,7 +33662,7 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ157">
         <v>0.92</v>
@@ -34065,7 +34074,7 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ159">
         <v>1.38</v>
@@ -34193,7 +34202,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34399,7 +34408,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34480,7 +34489,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34605,7 +34614,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -35304,7 +35313,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ165">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR165">
         <v>1.35</v>
@@ -35635,7 +35644,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35841,7 +35850,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36253,7 +36262,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36459,7 +36468,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36665,7 +36674,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36871,7 +36880,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -37155,7 +37164,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ174">
         <v>1.71</v>
@@ -37283,7 +37292,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37364,7 +37373,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ175">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR175">
         <v>1.4</v>
@@ -37489,7 +37498,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -38107,7 +38116,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38313,7 +38322,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38725,7 +38734,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -38803,7 +38812,7 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ182">
         <v>1.71</v>
@@ -39137,7 +39146,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39424,7 +39433,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ185">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR185">
         <v>1.2</v>
@@ -39549,7 +39558,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39961,7 +39970,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40373,7 +40382,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40579,7 +40588,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40785,7 +40794,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40866,7 +40875,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ192">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR192">
         <v>1.19</v>
@@ -40991,7 +41000,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41069,7 +41078,7 @@
         <v>1.55</v>
       </c>
       <c r="AP193">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ193">
         <v>1.38</v>
@@ -41197,7 +41206,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41403,7 +41412,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41484,7 +41493,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR195">
         <v>1.25</v>
@@ -41893,7 +41902,7 @@
         <v>1.25</v>
       </c>
       <c r="AP197">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ197">
         <v>1.29</v>
@@ -42021,7 +42030,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42227,7 +42236,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42308,7 +42317,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ199">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR199">
         <v>1.26</v>
@@ -42639,7 +42648,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42845,7 +42854,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43051,7 +43060,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43257,7 +43266,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -43953,7 +43962,7 @@
         <v>1.25</v>
       </c>
       <c r="AP207">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AQ207">
         <v>1.15</v>
@@ -44287,7 +44296,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44699,7 +44708,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -45111,7 +45120,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q213">
         <v>4.5</v>
@@ -45268,6 +45277,418 @@
       </c>
       <c r="BP213">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>6676160</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45423.39583333334</v>
+      </c>
+      <c r="F214">
+        <v>27</v>
+      </c>
+      <c r="G214" t="s">
+        <v>77</v>
+      </c>
+      <c r="H214" t="s">
+        <v>79</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>228</v>
+      </c>
+      <c r="P214" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q214">
+        <v>2.6</v>
+      </c>
+      <c r="R214">
+        <v>2.25</v>
+      </c>
+      <c r="S214">
+        <v>3.6</v>
+      </c>
+      <c r="T214">
+        <v>1.32</v>
+      </c>
+      <c r="U214">
+        <v>3.1</v>
+      </c>
+      <c r="V214">
+        <v>2.55</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>5.8</v>
+      </c>
+      <c r="Y214">
+        <v>1.1</v>
+      </c>
+      <c r="Z214">
+        <v>2.05</v>
+      </c>
+      <c r="AA214">
+        <v>3.6</v>
+      </c>
+      <c r="AB214">
+        <v>3.25</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>8.5</v>
+      </c>
+      <c r="AE214">
+        <v>1.2</v>
+      </c>
+      <c r="AF214">
+        <v>3.9</v>
+      </c>
+      <c r="AG214">
+        <v>1.73</v>
+      </c>
+      <c r="AH214">
+        <v>2.08</v>
+      </c>
+      <c r="AI214">
+        <v>1.67</v>
+      </c>
+      <c r="AJ214">
+        <v>2.1</v>
+      </c>
+      <c r="AK214">
+        <v>1.15</v>
+      </c>
+      <c r="AL214">
+        <v>1.22</v>
+      </c>
+      <c r="AM214">
+        <v>2.1</v>
+      </c>
+      <c r="AN214">
+        <v>1.85</v>
+      </c>
+      <c r="AO214">
+        <v>1.08</v>
+      </c>
+      <c r="AP214">
+        <v>1.79</v>
+      </c>
+      <c r="AQ214">
+        <v>1.07</v>
+      </c>
+      <c r="AR214">
+        <v>1.5</v>
+      </c>
+      <c r="AS214">
+        <v>1.06</v>
+      </c>
+      <c r="AT214">
+        <v>2.56</v>
+      </c>
+      <c r="AU214">
+        <v>6</v>
+      </c>
+      <c r="AV214">
+        <v>3</v>
+      </c>
+      <c r="AW214">
+        <v>5</v>
+      </c>
+      <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>11</v>
+      </c>
+      <c r="AZ214">
+        <v>6</v>
+      </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
+      <c r="BB214">
+        <v>1</v>
+      </c>
+      <c r="BC214">
+        <v>5</v>
+      </c>
+      <c r="BD214">
+        <v>1.51</v>
+      </c>
+      <c r="BE214">
+        <v>9.9</v>
+      </c>
+      <c r="BF214">
+        <v>2.92</v>
+      </c>
+      <c r="BG214">
+        <v>0</v>
+      </c>
+      <c r="BH214">
+        <v>0</v>
+      </c>
+      <c r="BI214">
+        <v>1.24</v>
+      </c>
+      <c r="BJ214">
+        <v>3.48</v>
+      </c>
+      <c r="BK214">
+        <v>1.48</v>
+      </c>
+      <c r="BL214">
+        <v>2.58</v>
+      </c>
+      <c r="BM214">
+        <v>1.79</v>
+      </c>
+      <c r="BN214">
+        <v>2</v>
+      </c>
+      <c r="BO214">
+        <v>2.24</v>
+      </c>
+      <c r="BP214">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6676163</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45423.39583333334</v>
+      </c>
+      <c r="F215">
+        <v>27</v>
+      </c>
+      <c r="G215" t="s">
+        <v>73</v>
+      </c>
+      <c r="H215" t="s">
+        <v>85</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>229</v>
+      </c>
+      <c r="P215" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>2.3</v>
+      </c>
+      <c r="S215">
+        <v>6</v>
+      </c>
+      <c r="T215">
+        <v>1.28</v>
+      </c>
+      <c r="U215">
+        <v>3.3</v>
+      </c>
+      <c r="V215">
+        <v>2.4</v>
+      </c>
+      <c r="W215">
+        <v>1.5</v>
+      </c>
+      <c r="X215">
+        <v>5.3</v>
+      </c>
+      <c r="Y215">
+        <v>1.12</v>
+      </c>
+      <c r="Z215">
+        <v>1.5</v>
+      </c>
+      <c r="AA215">
+        <v>4.2</v>
+      </c>
+      <c r="AB215">
+        <v>6.5</v>
+      </c>
+      <c r="AC215">
+        <v>1.02</v>
+      </c>
+      <c r="AD215">
+        <v>10</v>
+      </c>
+      <c r="AE215">
+        <v>1.15</v>
+      </c>
+      <c r="AF215">
+        <v>4.6</v>
+      </c>
+      <c r="AG215">
+        <v>1.8</v>
+      </c>
+      <c r="AH215">
+        <v>2</v>
+      </c>
+      <c r="AI215">
+        <v>1.91</v>
+      </c>
+      <c r="AJ215">
+        <v>1.8</v>
+      </c>
+      <c r="AK215">
+        <v>1.11</v>
+      </c>
+      <c r="AL215">
+        <v>1.15</v>
+      </c>
+      <c r="AM215">
+        <v>2.24</v>
+      </c>
+      <c r="AN215">
+        <v>2.31</v>
+      </c>
+      <c r="AO215">
+        <v>0.92</v>
+      </c>
+      <c r="AP215">
+        <v>2.21</v>
+      </c>
+      <c r="AQ215">
+        <v>0.93</v>
+      </c>
+      <c r="AR215">
+        <v>1.72</v>
+      </c>
+      <c r="AS215">
+        <v>1.38</v>
+      </c>
+      <c r="AT215">
+        <v>3.1</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>5</v>
+      </c>
+      <c r="AX215">
+        <v>1</v>
+      </c>
+      <c r="AY215">
+        <v>10</v>
+      </c>
+      <c r="AZ215">
+        <v>4</v>
+      </c>
+      <c r="BA215">
+        <v>7</v>
+      </c>
+      <c r="BB215">
+        <v>4</v>
+      </c>
+      <c r="BC215">
+        <v>11</v>
+      </c>
+      <c r="BD215">
+        <v>1.28</v>
+      </c>
+      <c r="BE215">
+        <v>10.25</v>
+      </c>
+      <c r="BF215">
+        <v>4.4</v>
+      </c>
+      <c r="BG215">
+        <v>1.21</v>
+      </c>
+      <c r="BH215">
+        <v>3.74</v>
+      </c>
+      <c r="BI215">
+        <v>1.4</v>
+      </c>
+      <c r="BJ215">
+        <v>2.64</v>
+      </c>
+      <c r="BK215">
+        <v>1.75</v>
+      </c>
+      <c r="BL215">
+        <v>2.04</v>
+      </c>
+      <c r="BM215">
+        <v>2.2</v>
+      </c>
+      <c r="BN215">
+        <v>1.63</v>
+      </c>
+      <c r="BO215">
+        <v>2.84</v>
+      </c>
+      <c r="BP215">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,12 @@
     <t>['64']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['45', '47', '80', '90+6']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -1034,6 +1040,12 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['14', '24', '27', '49']</t>
+  </si>
+  <si>
+    <t>['5', '13']</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2353,7 +2365,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ5">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2478,7 +2490,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2890,7 +2902,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2968,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -3383,7 +3395,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3508,7 +3520,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3714,7 +3726,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3998,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>1.46</v>
@@ -4126,7 +4138,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4332,7 +4344,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4538,7 +4550,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4744,7 +4756,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5362,7 +5374,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5774,7 +5786,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5980,7 +5992,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6058,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
         <v>1.46</v>
@@ -6267,7 +6279,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ24">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR24">
         <v>2.33</v>
@@ -6598,7 +6610,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -7091,7 +7103,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ28">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7834,7 +7846,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7912,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
         <v>1.38</v>
@@ -8040,7 +8052,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8452,7 +8464,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8658,7 +8670,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8739,7 +8751,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ36">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8864,7 +8876,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9070,7 +9082,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9276,7 +9288,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9688,7 +9700,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9766,7 +9778,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
         <v>1.46</v>
@@ -10306,7 +10318,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10512,7 +10524,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -11005,7 +11017,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ47">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11336,7 +11348,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11414,7 +11426,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
         <v>1.71</v>
@@ -11542,7 +11554,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11748,7 +11760,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12035,7 +12047,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12366,7 +12378,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12572,7 +12584,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12778,7 +12790,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12856,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ56">
         <v>1.69</v>
@@ -13190,7 +13202,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13396,7 +13408,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13477,7 +13489,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ59">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR59">
         <v>1.3</v>
@@ -13602,7 +13614,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13808,7 +13820,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -14838,7 +14850,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15044,7 +15056,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15456,7 +15468,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15662,7 +15674,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15946,7 +15958,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
         <v>1.15</v>
@@ -16074,7 +16086,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16280,7 +16292,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16358,10 +16370,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ73">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR73">
         <v>1.26</v>
@@ -16486,7 +16498,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16692,7 +16704,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16979,7 +16991,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ76">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17104,7 +17116,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17310,7 +17322,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17516,7 +17528,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -18215,7 +18227,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ82">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR82">
         <v>1.55</v>
@@ -18546,7 +18558,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19036,7 +19048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ86">
         <v>1.38</v>
@@ -19370,7 +19382,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19448,7 +19460,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ88">
         <v>1.07</v>
@@ -19576,7 +19588,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19782,7 +19794,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19988,7 +20000,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20194,7 +20206,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20400,7 +20412,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20606,7 +20618,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -21018,7 +21030,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21717,7 +21729,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ99">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR99">
         <v>1.57</v>
@@ -21842,7 +21854,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21923,7 +21935,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ100">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR100">
         <v>1.36</v>
@@ -22126,7 +22138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
         <v>1.29</v>
@@ -23078,7 +23090,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23365,7 +23377,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ107">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23571,7 +23583,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ108">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23696,7 +23708,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -24108,7 +24120,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24520,7 +24532,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24932,7 +24944,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25010,7 +25022,7 @@
         <v>2.29</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ115">
         <v>2.38</v>
@@ -25138,7 +25150,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25344,7 +25356,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25550,7 +25562,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25756,7 +25768,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25962,7 +25974,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26040,7 +26052,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ120">
         <v>1.71</v>
@@ -26168,7 +26180,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26580,7 +26592,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26658,10 +26670,10 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ123">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26786,7 +26798,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26864,7 +26876,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -26992,7 +27004,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27198,7 +27210,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27404,7 +27416,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27610,7 +27622,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27816,7 +27828,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -28846,7 +28858,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28927,7 +28939,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ134">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -29258,7 +29270,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29336,7 +29348,7 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ136">
         <v>1.29</v>
@@ -29464,7 +29476,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30288,7 +30300,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30494,7 +30506,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30572,7 +30584,7 @@
         <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ142">
         <v>1.69</v>
@@ -30700,7 +30712,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30906,7 +30918,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30987,7 +30999,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ144">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -31524,7 +31536,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31936,7 +31948,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32142,7 +32154,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32223,7 +32235,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR150">
         <v>1.19</v>
@@ -32838,7 +32850,7 @@
         <v>2.44</v>
       </c>
       <c r="AP153">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ153">
         <v>2.38</v>
@@ -33172,7 +33184,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33378,7 +33390,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33665,7 +33677,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ157">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR157">
         <v>1.88</v>
@@ -34202,7 +34214,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34280,7 +34292,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ160">
         <v>0.77</v>
@@ -34408,7 +34420,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34614,7 +34626,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34695,7 +34707,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR162">
         <v>1.67</v>
@@ -35644,7 +35656,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35850,7 +35862,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35928,7 +35940,7 @@
         <v>0.9</v>
       </c>
       <c r="AP168">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ168">
         <v>1.15</v>
@@ -36262,7 +36274,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36468,7 +36480,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36674,7 +36686,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36755,7 +36767,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ172">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR172">
         <v>1.41</v>
@@ -36880,7 +36892,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36958,7 +36970,7 @@
         <v>1.2</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -37292,7 +37304,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37498,7 +37510,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -38116,7 +38128,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38194,7 +38206,7 @@
         <v>0.91</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ179">
         <v>1.14</v>
@@ -38322,7 +38334,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38734,7 +38746,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39146,7 +39158,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39227,7 +39239,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ184">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39430,7 +39442,7 @@
         <v>0.82</v>
       </c>
       <c r="AP185">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ185">
         <v>0.93</v>
@@ -39558,7 +39570,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39970,7 +39982,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40257,7 +40269,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ189">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR189">
         <v>1.36</v>
@@ -40382,7 +40394,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40588,7 +40600,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40794,7 +40806,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -41000,7 +41012,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41206,7 +41218,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41412,7 +41424,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41490,7 +41502,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ195">
         <v>0.93</v>
@@ -41699,7 +41711,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ196">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR196">
         <v>1.78</v>
@@ -42030,7 +42042,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42236,7 +42248,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42314,7 +42326,7 @@
         <v>0.92</v>
       </c>
       <c r="AP199">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ199">
         <v>1.07</v>
@@ -42648,7 +42660,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42854,7 +42866,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43060,7 +43072,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43266,7 +43278,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -43759,7 +43771,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ206">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR206">
         <v>1.22</v>
@@ -44296,7 +44308,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44708,7 +44720,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -45120,7 +45132,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q213">
         <v>4.5</v>
@@ -45326,7 +45338,7 @@
         <v>228</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>2.6</v>
@@ -45532,7 +45544,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -45689,6 +45701,418 @@
       </c>
       <c r="BP215">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>6676164</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45424.22916666666</v>
+      </c>
+      <c r="F216">
+        <v>27</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>3</v>
+      </c>
+      <c r="K216">
+        <v>4</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>4</v>
+      </c>
+      <c r="N216">
+        <v>5</v>
+      </c>
+      <c r="O216" t="s">
+        <v>230</v>
+      </c>
+      <c r="P216" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q216">
+        <v>3.1</v>
+      </c>
+      <c r="R216">
+        <v>2.5</v>
+      </c>
+      <c r="S216">
+        <v>2.6</v>
+      </c>
+      <c r="T216">
+        <v>1.22</v>
+      </c>
+      <c r="U216">
+        <v>4</v>
+      </c>
+      <c r="V216">
+        <v>2.07</v>
+      </c>
+      <c r="W216">
+        <v>1.71</v>
+      </c>
+      <c r="X216">
+        <v>4.4</v>
+      </c>
+      <c r="Y216">
+        <v>1.19</v>
+      </c>
+      <c r="Z216">
+        <v>2.6</v>
+      </c>
+      <c r="AA216">
+        <v>4</v>
+      </c>
+      <c r="AB216">
+        <v>2.2</v>
+      </c>
+      <c r="AC216">
+        <v>1.01</v>
+      </c>
+      <c r="AD216">
+        <v>9.35</v>
+      </c>
+      <c r="AE216">
+        <v>1.09</v>
+      </c>
+      <c r="AF216">
+        <v>5.6</v>
+      </c>
+      <c r="AG216">
+        <v>1.42</v>
+      </c>
+      <c r="AH216">
+        <v>2.53</v>
+      </c>
+      <c r="AI216">
+        <v>1.4</v>
+      </c>
+      <c r="AJ216">
+        <v>2.75</v>
+      </c>
+      <c r="AK216">
+        <v>1.6</v>
+      </c>
+      <c r="AL216">
+        <v>1.24</v>
+      </c>
+      <c r="AM216">
+        <v>1.44</v>
+      </c>
+      <c r="AN216">
+        <v>0.77</v>
+      </c>
+      <c r="AO216">
+        <v>0.92</v>
+      </c>
+      <c r="AP216">
+        <v>0.71</v>
+      </c>
+      <c r="AQ216">
+        <v>1.07</v>
+      </c>
+      <c r="AR216">
+        <v>1.27</v>
+      </c>
+      <c r="AS216">
+        <v>1.25</v>
+      </c>
+      <c r="AT216">
+        <v>2.52</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>9</v>
+      </c>
+      <c r="AW216">
+        <v>4</v>
+      </c>
+      <c r="AX216">
+        <v>4</v>
+      </c>
+      <c r="AY216">
+        <v>9</v>
+      </c>
+      <c r="AZ216">
+        <v>13</v>
+      </c>
+      <c r="BA216">
+        <v>3</v>
+      </c>
+      <c r="BB216">
+        <v>4</v>
+      </c>
+      <c r="BC216">
+        <v>7</v>
+      </c>
+      <c r="BD216">
+        <v>1.9</v>
+      </c>
+      <c r="BE216">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF216">
+        <v>2.12</v>
+      </c>
+      <c r="BG216">
+        <v>0</v>
+      </c>
+      <c r="BH216">
+        <v>0</v>
+      </c>
+      <c r="BI216">
+        <v>1.26</v>
+      </c>
+      <c r="BJ216">
+        <v>3.34</v>
+      </c>
+      <c r="BK216">
+        <v>1.52</v>
+      </c>
+      <c r="BL216">
+        <v>2.46</v>
+      </c>
+      <c r="BM216">
+        <v>1.86</v>
+      </c>
+      <c r="BN216">
+        <v>1.93</v>
+      </c>
+      <c r="BO216">
+        <v>2.31</v>
+      </c>
+      <c r="BP216">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>6676162</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45424.22916666666</v>
+      </c>
+      <c r="F217">
+        <v>27</v>
+      </c>
+      <c r="G217" t="s">
+        <v>81</v>
+      </c>
+      <c r="H217" t="s">
+        <v>83</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>2</v>
+      </c>
+      <c r="K217">
+        <v>3</v>
+      </c>
+      <c r="L217">
+        <v>4</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>6</v>
+      </c>
+      <c r="O217" t="s">
+        <v>231</v>
+      </c>
+      <c r="P217" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q217">
+        <v>2.63</v>
+      </c>
+      <c r="R217">
+        <v>2.25</v>
+      </c>
+      <c r="S217">
+        <v>3.4</v>
+      </c>
+      <c r="T217">
+        <v>1.32</v>
+      </c>
+      <c r="U217">
+        <v>3.22</v>
+      </c>
+      <c r="V217">
+        <v>2.46</v>
+      </c>
+      <c r="W217">
+        <v>1.51</v>
+      </c>
+      <c r="X217">
+        <v>5.85</v>
+      </c>
+      <c r="Y217">
+        <v>1.11</v>
+      </c>
+      <c r="Z217">
+        <v>2.05</v>
+      </c>
+      <c r="AA217">
+        <v>3.9</v>
+      </c>
+      <c r="AB217">
+        <v>2.9</v>
+      </c>
+      <c r="AC217">
+        <v>1.01</v>
+      </c>
+      <c r="AD217">
+        <v>10.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.18</v>
+      </c>
+      <c r="AF217">
+        <v>4.05</v>
+      </c>
+      <c r="AG217">
+        <v>1.7</v>
+      </c>
+      <c r="AH217">
+        <v>2.1</v>
+      </c>
+      <c r="AI217">
+        <v>1.62</v>
+      </c>
+      <c r="AJ217">
+        <v>2.2</v>
+      </c>
+      <c r="AK217">
+        <v>1.35</v>
+      </c>
+      <c r="AL217">
+        <v>1.26</v>
+      </c>
+      <c r="AM217">
+        <v>1.67</v>
+      </c>
+      <c r="AN217">
+        <v>1</v>
+      </c>
+      <c r="AO217">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP217">
+        <v>1.14</v>
+      </c>
+      <c r="AQ217">
+        <v>0.64</v>
+      </c>
+      <c r="AR217">
+        <v>1.23</v>
+      </c>
+      <c r="AS217">
+        <v>1.17</v>
+      </c>
+      <c r="AT217">
+        <v>2.4</v>
+      </c>
+      <c r="AU217">
+        <v>5</v>
+      </c>
+      <c r="AV217">
+        <v>5</v>
+      </c>
+      <c r="AW217">
+        <v>4</v>
+      </c>
+      <c r="AX217">
+        <v>3</v>
+      </c>
+      <c r="AY217">
+        <v>9</v>
+      </c>
+      <c r="AZ217">
+        <v>8</v>
+      </c>
+      <c r="BA217">
+        <v>4</v>
+      </c>
+      <c r="BB217">
+        <v>3</v>
+      </c>
+      <c r="BC217">
+        <v>7</v>
+      </c>
+      <c r="BD217">
+        <v>2.13</v>
+      </c>
+      <c r="BE217">
+        <v>9.1</v>
+      </c>
+      <c r="BF217">
+        <v>1.9</v>
+      </c>
+      <c r="BG217">
+        <v>0</v>
+      </c>
+      <c r="BH217">
+        <v>0</v>
+      </c>
+      <c r="BI217">
+        <v>1.28</v>
+      </c>
+      <c r="BJ217">
+        <v>3.31</v>
+      </c>
+      <c r="BK217">
+        <v>1.54</v>
+      </c>
+      <c r="BL217">
+        <v>2.39</v>
+      </c>
+      <c r="BM217">
+        <v>1.89</v>
+      </c>
+      <c r="BN217">
+        <v>1.91</v>
+      </c>
+      <c r="BO217">
+        <v>2.34</v>
+      </c>
+      <c r="BP217">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,24 @@
     <t>['45', '47', '80', '90+6']</t>
   </si>
   <si>
+    <t>['31', '62']</t>
+  </si>
+  <si>
+    <t>['24', '57']</t>
+  </si>
+  <si>
+    <t>['59', '63', '85', '90+8']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['52', '68', '70']</t>
+  </si>
+  <si>
+    <t>['26', '33']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -922,9 +940,6 @@
     <t>['41']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['18', '79']</t>
   </si>
   <si>
@@ -1046,6 +1061,21 @@
   </si>
   <si>
     <t>['5', '13']</t>
+  </si>
+  <si>
+    <t>['53', '66', '79']</t>
+  </si>
+  <si>
+    <t>['14', '15', '73']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['27', '33', '35', '45+1', '66']</t>
+  </si>
+  <si>
+    <t>['8', '41']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2156,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ4">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2490,7 +2520,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2568,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
         <v>0.93</v>
@@ -2902,7 +2932,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2983,7 +3013,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3520,7 +3550,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3598,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ11">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3726,7 +3756,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3804,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
         <v>1.71</v>
@@ -4013,7 +4043,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4138,7 +4168,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4216,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4344,7 +4374,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4422,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ15">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4550,7 +4580,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4628,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ16">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4756,7 +4786,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4837,7 +4867,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -5246,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5374,7 +5404,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5452,10 +5482,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ20">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5658,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21">
         <v>1.07</v>
@@ -5786,7 +5816,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5867,7 +5897,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5992,7 +6022,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6073,7 +6103,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -6276,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
         <v>0.64</v>
@@ -6485,7 +6515,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6610,7 +6640,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6688,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ26">
         <v>1.14</v>
@@ -6894,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ27">
         <v>1.29</v>
@@ -7306,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
         <v>1.71</v>
@@ -7515,7 +7545,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ30">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7718,10 +7748,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ31">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR31">
         <v>0.9399999999999999</v>
@@ -7846,7 +7876,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7927,7 +7957,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -8052,7 +8082,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8130,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8339,7 +8369,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8464,7 +8494,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8542,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35">
         <v>1.29</v>
@@ -8670,7 +8700,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8876,7 +8906,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -8954,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
         <v>0.93</v>
@@ -9082,7 +9112,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9288,7 +9318,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9366,10 +9396,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ39">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR39">
         <v>1.23</v>
@@ -9572,10 +9602,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9700,7 +9730,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9781,7 +9811,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR41">
         <v>1.32</v>
@@ -9984,7 +10014,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42">
         <v>1.14</v>
@@ -10190,10 +10220,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -10318,7 +10348,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10399,7 +10429,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ44">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1.46</v>
@@ -10524,7 +10554,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10605,7 +10635,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ45">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -11220,7 +11250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ48">
         <v>1.07</v>
@@ -11348,7 +11378,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11554,7 +11584,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11635,7 +11665,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ50">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11760,7 +11790,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12044,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ52">
         <v>0.64</v>
@@ -12250,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53">
         <v>0.93</v>
@@ -12378,7 +12408,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12584,7 +12614,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12662,10 +12692,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12790,7 +12820,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12871,7 +12901,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ56">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13074,10 +13104,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ57">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13202,7 +13232,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13280,10 +13310,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13408,7 +13438,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13486,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ59">
         <v>1.07</v>
@@ -13614,7 +13644,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13692,10 +13722,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13820,7 +13850,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13901,7 +13931,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -14107,7 +14137,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ62">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14310,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63">
         <v>1.07</v>
@@ -14722,10 +14752,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ65">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.61</v>
@@ -14850,7 +14880,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -15056,7 +15086,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15134,7 +15164,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ67">
         <v>1.14</v>
@@ -15340,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ68">
         <v>0.93</v>
@@ -15468,7 +15498,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15549,7 +15579,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ69">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15674,7 +15704,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15755,7 +15785,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ70">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.57</v>
@@ -15961,7 +15991,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.04</v>
@@ -16086,7 +16116,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16164,7 +16194,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -16292,7 +16322,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16498,7 +16528,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16576,10 +16606,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ74">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR74">
         <v>1.68</v>
@@ -16704,7 +16734,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16782,10 +16812,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16988,7 +17018,7 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ76">
         <v>1.07</v>
@@ -17116,7 +17146,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17194,7 +17224,7 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17322,7 +17352,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17400,10 +17430,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ78">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17528,7 +17558,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17606,10 +17636,10 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ79">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR79">
         <v>1.11</v>
@@ -17815,7 +17845,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ80">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR80">
         <v>2.06</v>
@@ -18021,7 +18051,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ81">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18430,7 +18460,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ83">
         <v>1.29</v>
@@ -18558,7 +18588,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18636,7 +18666,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>1.14</v>
@@ -18845,7 +18875,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ85">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19051,7 +19081,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ86">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19382,7 +19412,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19588,7 +19618,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19794,7 +19824,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19872,10 +19902,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -20000,7 +20030,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20078,10 +20108,10 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ91">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
         <v>1.52</v>
@@ -20206,7 +20236,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20284,10 +20314,10 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ92">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR92">
         <v>1.66</v>
@@ -20412,7 +20442,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20490,10 +20520,10 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ93">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20618,7 +20648,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20696,10 +20726,10 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ94">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -20902,10 +20932,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -21030,7 +21060,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21108,10 +21138,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21314,10 +21344,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR97">
         <v>1.64</v>
@@ -21854,7 +21884,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22962,10 +22992,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ105">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR105">
         <v>1.18</v>
@@ -23090,7 +23120,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23168,10 +23198,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR106">
         <v>1.24</v>
@@ -23374,7 +23404,7 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ107">
         <v>0.64</v>
@@ -23580,7 +23610,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108">
         <v>1.07</v>
@@ -23708,7 +23738,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23789,7 +23819,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ109">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.28</v>
@@ -23992,7 +24022,7 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ110">
         <v>1.07</v>
@@ -24120,7 +24150,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24201,7 +24231,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ111">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -24407,7 +24437,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ112">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24532,7 +24562,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24944,7 +24974,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25025,7 +25055,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ115">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR115">
         <v>1.03</v>
@@ -25150,7 +25180,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25228,7 +25258,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25356,7 +25386,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25437,7 +25467,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ117">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25562,7 +25592,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25640,10 +25670,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25768,7 +25798,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25846,7 +25876,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ119">
         <v>1.29</v>
@@ -25974,7 +26004,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26180,7 +26210,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26258,10 +26288,10 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26467,7 +26497,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26592,7 +26622,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26798,7 +26828,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -27004,7 +27034,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27082,7 +27112,7 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
         <v>1.71</v>
@@ -27210,7 +27240,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27288,10 +27318,10 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ126">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -27416,7 +27446,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27494,10 +27524,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27622,7 +27652,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27700,10 +27730,10 @@
         <v>2.38</v>
       </c>
       <c r="AP128">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ128">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27828,7 +27858,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27906,10 +27936,10 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ129">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28112,7 +28142,7 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>1.14</v>
@@ -28321,7 +28351,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ131">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28730,10 +28760,10 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28858,7 +28888,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29270,7 +29300,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -29476,7 +29506,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29760,7 +29790,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ138">
         <v>1.71</v>
@@ -29966,7 +29996,7 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ139">
         <v>1.14</v>
@@ -30175,7 +30205,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ140">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30300,7 +30330,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30506,7 +30536,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30587,7 +30617,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ142">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30712,7 +30742,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30793,7 +30823,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR143">
         <v>1.5</v>
@@ -30918,7 +30948,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30996,7 +31026,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ144">
         <v>1.07</v>
@@ -31202,10 +31232,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ145">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR145">
         <v>1.41</v>
@@ -31411,7 +31441,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ146">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR146">
         <v>1.54</v>
@@ -31536,7 +31566,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31614,10 +31644,10 @@
         <v>1.88</v>
       </c>
       <c r="AP147">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ147">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31823,7 +31853,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ148">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31948,7 +31978,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32026,7 +32056,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32154,7 +32184,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32232,7 +32262,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
         <v>0.64</v>
@@ -32438,7 +32468,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ151">
         <v>1.5</v>
@@ -32853,7 +32883,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ153">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -33056,7 +33086,7 @@
         <v>1.89</v>
       </c>
       <c r="AP154">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ154">
         <v>1.71</v>
@@ -33184,7 +33214,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33262,10 +33292,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ155">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR155">
         <v>1.39</v>
@@ -33390,7 +33420,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33468,10 +33498,10 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ156">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33880,7 +33910,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ158">
         <v>1.14</v>
@@ -34089,7 +34119,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ159">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR159">
         <v>1.59</v>
@@ -34214,7 +34244,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34295,7 +34325,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ160">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34420,7 +34450,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34626,7 +34656,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34910,10 +34940,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ163">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR163">
         <v>1.57</v>
@@ -35116,10 +35146,10 @@
         <v>2.5</v>
       </c>
       <c r="AP164">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ164">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35322,7 +35352,7 @@
         <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ165">
         <v>0.93</v>
@@ -35528,10 +35558,10 @@
         <v>2.2</v>
       </c>
       <c r="AP166">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ166">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35656,7 +35686,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35734,7 +35764,7 @@
         <v>1.5</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ167">
         <v>1.29</v>
@@ -35862,7 +35892,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35943,7 +35973,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ168">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR168">
         <v>1.17</v>
@@ -36149,7 +36179,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ169">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR169">
         <v>1.51</v>
@@ -36274,7 +36304,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36352,10 +36382,10 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR170">
         <v>1.17</v>
@@ -36480,7 +36510,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36558,10 +36588,10 @@
         <v>1.7</v>
       </c>
       <c r="AP171">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36686,7 +36716,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36764,7 +36794,7 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ172">
         <v>1.07</v>
@@ -36892,7 +36922,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -37304,7 +37334,7 @@
         <v>86</v>
       </c>
       <c r="P175" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37382,7 +37412,7 @@
         <v>0.7</v>
       </c>
       <c r="AP175">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ175">
         <v>1.07</v>
@@ -37510,7 +37540,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37591,7 +37621,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ176">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR176">
         <v>1.28</v>
@@ -37797,7 +37827,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ177">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR177">
         <v>1.52</v>
@@ -38003,7 +38033,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ178">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR178">
         <v>1.52</v>
@@ -38128,7 +38158,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38334,7 +38364,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38415,7 +38445,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ180">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR180">
         <v>1.65</v>
@@ -38618,7 +38648,7 @@
         <v>1.36</v>
       </c>
       <c r="AP181">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ181">
         <v>1.29</v>
@@ -38746,7 +38776,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39030,10 +39060,10 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ183">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR183">
         <v>1.72</v>
@@ -39158,7 +39188,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39236,7 +39266,7 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ184">
         <v>0.64</v>
@@ -39570,7 +39600,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39648,10 +39678,10 @@
         <v>1.27</v>
       </c>
       <c r="AP186">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ186">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -39857,7 +39887,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ187">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -39982,7 +40012,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40060,10 +40090,10 @@
         <v>0.64</v>
       </c>
       <c r="AP188">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ188">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR188">
         <v>1.47</v>
@@ -40266,7 +40296,7 @@
         <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ189">
         <v>1.07</v>
@@ -40394,7 +40424,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40472,7 +40502,7 @@
         <v>1.36</v>
       </c>
       <c r="AP190">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ190">
         <v>1.5</v>
@@ -40600,7 +40630,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40681,7 +40711,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ191">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR191">
         <v>1.32</v>
@@ -40806,7 +40836,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40884,7 +40914,7 @@
         <v>0.91</v>
       </c>
       <c r="AP192">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ192">
         <v>1.07</v>
@@ -41012,7 +41042,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41093,7 +41123,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ193">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR193">
         <v>1.8</v>
@@ -41218,7 +41248,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41296,7 +41326,7 @@
         <v>1.75</v>
       </c>
       <c r="AP194">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ194">
         <v>1.71</v>
@@ -41424,7 +41454,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41708,7 +41738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP196">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ196">
         <v>0.64</v>
@@ -42042,7 +42072,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42123,7 +42153,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ198">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR198">
         <v>1.27</v>
@@ -42248,7 +42278,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42535,7 +42565,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ200">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR200">
         <v>1.52</v>
@@ -42660,7 +42690,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42866,7 +42896,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42944,10 +42974,10 @@
         <v>1.58</v>
       </c>
       <c r="AP202">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AQ202">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR202">
         <v>1.5</v>
@@ -43072,7 +43102,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43150,10 +43180,10 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ203">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR203">
         <v>1.38</v>
@@ -43278,7 +43308,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -43359,7 +43389,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ204">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR204">
         <v>1.53</v>
@@ -43562,10 +43592,10 @@
         <v>1.42</v>
       </c>
       <c r="AP205">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ205">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR205">
         <v>1.57</v>
@@ -43768,7 +43798,7 @@
         <v>0.92</v>
       </c>
       <c r="AP206">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ206">
         <v>1.07</v>
@@ -43977,7 +44007,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ207">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR207">
         <v>1.78</v>
@@ -44180,10 +44210,10 @@
         <v>1.83</v>
       </c>
       <c r="AP208">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ208">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR208">
         <v>1.31</v>
@@ -44308,7 +44338,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44386,7 +44416,7 @@
         <v>1.5</v>
       </c>
       <c r="AP209">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ209">
         <v>1.5</v>
@@ -44720,7 +44750,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -45132,7 +45162,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q213">
         <v>4.5</v>
@@ -45338,7 +45368,7 @@
         <v>228</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>2.6</v>
@@ -45544,7 +45574,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -45750,7 +45780,7 @@
         <v>230</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q216">
         <v>3.1</v>
@@ -45956,7 +45986,7 @@
         <v>231</v>
       </c>
       <c r="P217" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46113,6 +46143,1654 @@
       </c>
       <c r="BP217">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>6676168</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F218">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s">
+        <v>85</v>
+      </c>
+      <c r="H218" t="s">
+        <v>77</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>3</v>
+      </c>
+      <c r="N218">
+        <v>5</v>
+      </c>
+      <c r="O218" t="s">
+        <v>232</v>
+      </c>
+      <c r="P218" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q218">
+        <v>3.4</v>
+      </c>
+      <c r="R218">
+        <v>2.2</v>
+      </c>
+      <c r="S218">
+        <v>2.75</v>
+      </c>
+      <c r="T218">
+        <v>1.32</v>
+      </c>
+      <c r="U218">
+        <v>3.1</v>
+      </c>
+      <c r="V218">
+        <v>2.6</v>
+      </c>
+      <c r="W218">
+        <v>1.42</v>
+      </c>
+      <c r="X218">
+        <v>5.8</v>
+      </c>
+      <c r="Y218">
+        <v>1.1</v>
+      </c>
+      <c r="Z218">
+        <v>2.9</v>
+      </c>
+      <c r="AA218">
+        <v>3.5</v>
+      </c>
+      <c r="AB218">
+        <v>2.25</v>
+      </c>
+      <c r="AC218">
+        <v>1.05</v>
+      </c>
+      <c r="AD218">
+        <v>8</v>
+      </c>
+      <c r="AE218">
+        <v>1.22</v>
+      </c>
+      <c r="AF218">
+        <v>3.7</v>
+      </c>
+      <c r="AG218">
+        <v>1.8</v>
+      </c>
+      <c r="AH218">
+        <v>2</v>
+      </c>
+      <c r="AI218">
+        <v>1.73</v>
+      </c>
+      <c r="AJ218">
+        <v>2</v>
+      </c>
+      <c r="AK218">
+        <v>1.62</v>
+      </c>
+      <c r="AL218">
+        <v>1.28</v>
+      </c>
+      <c r="AM218">
+        <v>1.3</v>
+      </c>
+      <c r="AN218">
+        <v>2.08</v>
+      </c>
+      <c r="AO218">
+        <v>1.46</v>
+      </c>
+      <c r="AP218">
+        <v>1.93</v>
+      </c>
+      <c r="AQ218">
+        <v>1.57</v>
+      </c>
+      <c r="AR218">
+        <v>1.31</v>
+      </c>
+      <c r="AS218">
+        <v>1.4</v>
+      </c>
+      <c r="AT218">
+        <v>2.71</v>
+      </c>
+      <c r="AU218">
+        <v>5</v>
+      </c>
+      <c r="AV218">
+        <v>6</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>1</v>
+      </c>
+      <c r="AY218">
+        <v>10</v>
+      </c>
+      <c r="AZ218">
+        <v>7</v>
+      </c>
+      <c r="BA218">
+        <v>4</v>
+      </c>
+      <c r="BB218">
+        <v>3</v>
+      </c>
+      <c r="BC218">
+        <v>7</v>
+      </c>
+      <c r="BD218">
+        <v>2.13</v>
+      </c>
+      <c r="BE218">
+        <v>8.9</v>
+      </c>
+      <c r="BF218">
+        <v>1.91</v>
+      </c>
+      <c r="BG218">
+        <v>1.18</v>
+      </c>
+      <c r="BH218">
+        <v>4.05</v>
+      </c>
+      <c r="BI218">
+        <v>1.41</v>
+      </c>
+      <c r="BJ218">
+        <v>2.7</v>
+      </c>
+      <c r="BK218">
+        <v>2.2</v>
+      </c>
+      <c r="BL218">
+        <v>2.1</v>
+      </c>
+      <c r="BM218">
+        <v>2.12</v>
+      </c>
+      <c r="BN218">
+        <v>1.7</v>
+      </c>
+      <c r="BO218">
+        <v>2.8</v>
+      </c>
+      <c r="BP218">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>6676169</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F219">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>72</v>
+      </c>
+      <c r="H219" t="s">
+        <v>75</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>2</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
+      <c r="O219" t="s">
+        <v>138</v>
+      </c>
+      <c r="P219" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q219">
+        <v>3.75</v>
+      </c>
+      <c r="R219">
+        <v>2.25</v>
+      </c>
+      <c r="S219">
+        <v>2.5</v>
+      </c>
+      <c r="T219">
+        <v>1.32</v>
+      </c>
+      <c r="U219">
+        <v>3.28</v>
+      </c>
+      <c r="V219">
+        <v>2.62</v>
+      </c>
+      <c r="W219">
+        <v>1.47</v>
+      </c>
+      <c r="X219">
+        <v>5.75</v>
+      </c>
+      <c r="Y219">
+        <v>1.1</v>
+      </c>
+      <c r="Z219">
+        <v>3.4</v>
+      </c>
+      <c r="AA219">
+        <v>3.7</v>
+      </c>
+      <c r="AB219">
+        <v>1.95</v>
+      </c>
+      <c r="AC219">
+        <v>1.02</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.22</v>
+      </c>
+      <c r="AF219">
+        <v>3.8</v>
+      </c>
+      <c r="AG219">
+        <v>1.7</v>
+      </c>
+      <c r="AH219">
+        <v>2.1</v>
+      </c>
+      <c r="AI219">
+        <v>1.67</v>
+      </c>
+      <c r="AJ219">
+        <v>2.1</v>
+      </c>
+      <c r="AK219">
+        <v>1.91</v>
+      </c>
+      <c r="AL219">
+        <v>1.29</v>
+      </c>
+      <c r="AM219">
+        <v>1.25</v>
+      </c>
+      <c r="AN219">
+        <v>1.69</v>
+      </c>
+      <c r="AO219">
+        <v>1.15</v>
+      </c>
+      <c r="AP219">
+        <v>1.57</v>
+      </c>
+      <c r="AQ219">
+        <v>1.29</v>
+      </c>
+      <c r="AR219">
+        <v>1.41</v>
+      </c>
+      <c r="AS219">
+        <v>1.51</v>
+      </c>
+      <c r="AT219">
+        <v>2.92</v>
+      </c>
+      <c r="AU219">
+        <v>3</v>
+      </c>
+      <c r="AV219">
+        <v>6</v>
+      </c>
+      <c r="AW219">
+        <v>7</v>
+      </c>
+      <c r="AX219">
+        <v>5</v>
+      </c>
+      <c r="AY219">
+        <v>10</v>
+      </c>
+      <c r="AZ219">
+        <v>11</v>
+      </c>
+      <c r="BA219">
+        <v>4</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>7</v>
+      </c>
+      <c r="BD219">
+        <v>2.51</v>
+      </c>
+      <c r="BE219">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF219">
+        <v>1.67</v>
+      </c>
+      <c r="BG219">
+        <v>0</v>
+      </c>
+      <c r="BH219">
+        <v>0</v>
+      </c>
+      <c r="BI219">
+        <v>1.33</v>
+      </c>
+      <c r="BJ219">
+        <v>3.04</v>
+      </c>
+      <c r="BK219">
+        <v>2</v>
+      </c>
+      <c r="BL219">
+        <v>2.13</v>
+      </c>
+      <c r="BM219">
+        <v>2.1</v>
+      </c>
+      <c r="BN219">
+        <v>1.71</v>
+      </c>
+      <c r="BO219">
+        <v>2.62</v>
+      </c>
+      <c r="BP219">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>6676170</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F220">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>83</v>
+      </c>
+      <c r="H220" t="s">
+        <v>70</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220" t="s">
+        <v>189</v>
+      </c>
+      <c r="P220" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q220">
+        <v>3.75</v>
+      </c>
+      <c r="R220">
+        <v>2.6</v>
+      </c>
+      <c r="S220">
+        <v>2.2</v>
+      </c>
+      <c r="T220">
+        <v>1.23</v>
+      </c>
+      <c r="U220">
+        <v>3.9</v>
+      </c>
+      <c r="V220">
+        <v>2.08</v>
+      </c>
+      <c r="W220">
+        <v>1.7</v>
+      </c>
+      <c r="X220">
+        <v>4.45</v>
+      </c>
+      <c r="Y220">
+        <v>1.18</v>
+      </c>
+      <c r="Z220">
+        <v>3.8</v>
+      </c>
+      <c r="AA220">
+        <v>4.1</v>
+      </c>
+      <c r="AB220">
+        <v>1.75</v>
+      </c>
+      <c r="AC220">
+        <v>1.01</v>
+      </c>
+      <c r="AD220">
+        <v>3.35</v>
+      </c>
+      <c r="AE220">
+        <v>1.1</v>
+      </c>
+      <c r="AF220">
+        <v>5.5</v>
+      </c>
+      <c r="AG220">
+        <v>1.4</v>
+      </c>
+      <c r="AH220">
+        <v>2.75</v>
+      </c>
+      <c r="AI220">
+        <v>1.44</v>
+      </c>
+      <c r="AJ220">
+        <v>2.63</v>
+      </c>
+      <c r="AK220">
+        <v>1.89</v>
+      </c>
+      <c r="AL220">
+        <v>1.22</v>
+      </c>
+      <c r="AM220">
+        <v>1.28</v>
+      </c>
+      <c r="AN220">
+        <v>0.38</v>
+      </c>
+      <c r="AO220">
+        <v>1.38</v>
+      </c>
+      <c r="AP220">
+        <v>0.43</v>
+      </c>
+      <c r="AQ220">
+        <v>1.36</v>
+      </c>
+      <c r="AR220">
+        <v>1.51</v>
+      </c>
+      <c r="AS220">
+        <v>1.6</v>
+      </c>
+      <c r="AT220">
+        <v>3.11</v>
+      </c>
+      <c r="AU220">
+        <v>3</v>
+      </c>
+      <c r="AV220">
+        <v>3</v>
+      </c>
+      <c r="AW220">
+        <v>3</v>
+      </c>
+      <c r="AX220">
+        <v>6</v>
+      </c>
+      <c r="AY220">
+        <v>6</v>
+      </c>
+      <c r="AZ220">
+        <v>9</v>
+      </c>
+      <c r="BA220">
+        <v>3</v>
+      </c>
+      <c r="BB220">
+        <v>8</v>
+      </c>
+      <c r="BC220">
+        <v>11</v>
+      </c>
+      <c r="BD220">
+        <v>2.34</v>
+      </c>
+      <c r="BE220">
+        <v>9.4</v>
+      </c>
+      <c r="BF220">
+        <v>1.75</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>1.25</v>
+      </c>
+      <c r="BJ220">
+        <v>3.42</v>
+      </c>
+      <c r="BK220">
+        <v>1.83</v>
+      </c>
+      <c r="BL220">
+        <v>2.48</v>
+      </c>
+      <c r="BM220">
+        <v>1.84</v>
+      </c>
+      <c r="BN220">
+        <v>1.95</v>
+      </c>
+      <c r="BO220">
+        <v>2.28</v>
+      </c>
+      <c r="BP220">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>6676171</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F221">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" t="s">
+        <v>73</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>4</v>
+      </c>
+      <c r="K221">
+        <v>5</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>7</v>
+      </c>
+      <c r="O221" t="s">
+        <v>233</v>
+      </c>
+      <c r="P221" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q221">
+        <v>4.33</v>
+      </c>
+      <c r="R221">
+        <v>2.3</v>
+      </c>
+      <c r="S221">
+        <v>2.2</v>
+      </c>
+      <c r="T221">
+        <v>1.32</v>
+      </c>
+      <c r="U221">
+        <v>3.1</v>
+      </c>
+      <c r="V221">
+        <v>2.4</v>
+      </c>
+      <c r="W221">
+        <v>1.5</v>
+      </c>
+      <c r="X221">
+        <v>5.3</v>
+      </c>
+      <c r="Y221">
+        <v>1.12</v>
+      </c>
+      <c r="Z221">
+        <v>4.2</v>
+      </c>
+      <c r="AA221">
+        <v>4</v>
+      </c>
+      <c r="AB221">
+        <v>1.7</v>
+      </c>
+      <c r="AC221">
+        <v>1.04</v>
+      </c>
+      <c r="AD221">
+        <v>12</v>
+      </c>
+      <c r="AE221">
+        <v>1.18</v>
+      </c>
+      <c r="AF221">
+        <v>4.2</v>
+      </c>
+      <c r="AG221">
+        <v>1.65</v>
+      </c>
+      <c r="AH221">
+        <v>2.2</v>
+      </c>
+      <c r="AI221">
+        <v>1.67</v>
+      </c>
+      <c r="AJ221">
+        <v>2.1</v>
+      </c>
+      <c r="AK221">
+        <v>2.1</v>
+      </c>
+      <c r="AL221">
+        <v>1.22</v>
+      </c>
+      <c r="AM221">
+        <v>1.15</v>
+      </c>
+      <c r="AN221">
+        <v>1.38</v>
+      </c>
+      <c r="AO221">
+        <v>2.38</v>
+      </c>
+      <c r="AP221">
+        <v>1.29</v>
+      </c>
+      <c r="AQ221">
+        <v>2.43</v>
+      </c>
+      <c r="AR221">
+        <v>1.24</v>
+      </c>
+      <c r="AS221">
+        <v>1.52</v>
+      </c>
+      <c r="AT221">
+        <v>2.76</v>
+      </c>
+      <c r="AU221">
+        <v>6</v>
+      </c>
+      <c r="AV221">
+        <v>8</v>
+      </c>
+      <c r="AW221">
+        <v>7</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>13</v>
+      </c>
+      <c r="AZ221">
+        <v>13</v>
+      </c>
+      <c r="BA221">
+        <v>6</v>
+      </c>
+      <c r="BB221">
+        <v>3</v>
+      </c>
+      <c r="BC221">
+        <v>9</v>
+      </c>
+      <c r="BD221">
+        <v>3.35</v>
+      </c>
+      <c r="BE221">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF221">
+        <v>1.43</v>
+      </c>
+      <c r="BG221">
+        <v>1.2</v>
+      </c>
+      <c r="BH221">
+        <v>3.84</v>
+      </c>
+      <c r="BI221">
+        <v>1.44</v>
+      </c>
+      <c r="BJ221">
+        <v>2.6</v>
+      </c>
+      <c r="BK221">
+        <v>1.77</v>
+      </c>
+      <c r="BL221">
+        <v>2.03</v>
+      </c>
+      <c r="BM221">
+        <v>2.19</v>
+      </c>
+      <c r="BN221">
+        <v>1.65</v>
+      </c>
+      <c r="BO221">
+        <v>3</v>
+      </c>
+      <c r="BP221">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>6676172</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F222">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>84</v>
+      </c>
+      <c r="H222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>6</v>
+      </c>
+      <c r="O222" t="s">
+        <v>234</v>
+      </c>
+      <c r="P222" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q222">
+        <v>2.3</v>
+      </c>
+      <c r="R222">
+        <v>2.3</v>
+      </c>
+      <c r="S222">
+        <v>4.33</v>
+      </c>
+      <c r="T222">
+        <v>1.33</v>
+      </c>
+      <c r="U222">
+        <v>3.15</v>
+      </c>
+      <c r="V222">
+        <v>2.51</v>
+      </c>
+      <c r="W222">
+        <v>1.49</v>
+      </c>
+      <c r="X222">
+        <v>6</v>
+      </c>
+      <c r="Y222">
+        <v>1.11</v>
+      </c>
+      <c r="Z222">
+        <v>1.75</v>
+      </c>
+      <c r="AA222">
+        <v>3.8</v>
+      </c>
+      <c r="AB222">
+        <v>4.1</v>
+      </c>
+      <c r="AC222">
+        <v>1.01</v>
+      </c>
+      <c r="AD222">
+        <v>10.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.2</v>
+      </c>
+      <c r="AF222">
+        <v>3.9</v>
+      </c>
+      <c r="AG222">
+        <v>1.67</v>
+      </c>
+      <c r="AH222">
+        <v>2.15</v>
+      </c>
+      <c r="AI222">
+        <v>1.67</v>
+      </c>
+      <c r="AJ222">
+        <v>2.1</v>
+      </c>
+      <c r="AK222">
+        <v>1.22</v>
+      </c>
+      <c r="AL222">
+        <v>1.25</v>
+      </c>
+      <c r="AM222">
+        <v>1.97</v>
+      </c>
+      <c r="AN222">
+        <v>1.85</v>
+      </c>
+      <c r="AO222">
+        <v>1.46</v>
+      </c>
+      <c r="AP222">
+        <v>1.93</v>
+      </c>
+      <c r="AQ222">
+        <v>1.36</v>
+      </c>
+      <c r="AR222">
+        <v>1.32</v>
+      </c>
+      <c r="AS222">
+        <v>1.14</v>
+      </c>
+      <c r="AT222">
+        <v>2.46</v>
+      </c>
+      <c r="AU222">
+        <v>8</v>
+      </c>
+      <c r="AV222">
+        <v>4</v>
+      </c>
+      <c r="AW222">
+        <v>5</v>
+      </c>
+      <c r="AX222">
+        <v>4</v>
+      </c>
+      <c r="AY222">
+        <v>13</v>
+      </c>
+      <c r="AZ222">
+        <v>8</v>
+      </c>
+      <c r="BA222">
+        <v>6</v>
+      </c>
+      <c r="BB222">
+        <v>5</v>
+      </c>
+      <c r="BC222">
+        <v>11</v>
+      </c>
+      <c r="BD222">
+        <v>1.43</v>
+      </c>
+      <c r="BE222">
+        <v>10</v>
+      </c>
+      <c r="BF222">
+        <v>3.26</v>
+      </c>
+      <c r="BG222">
+        <v>0</v>
+      </c>
+      <c r="BH222">
+        <v>0</v>
+      </c>
+      <c r="BI222">
+        <v>1.29</v>
+      </c>
+      <c r="BJ222">
+        <v>3.29</v>
+      </c>
+      <c r="BK222">
+        <v>1.83</v>
+      </c>
+      <c r="BL222">
+        <v>2.33</v>
+      </c>
+      <c r="BM222">
+        <v>1.95</v>
+      </c>
+      <c r="BN222">
+        <v>1.85</v>
+      </c>
+      <c r="BO222">
+        <v>2.47</v>
+      </c>
+      <c r="BP222">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>6676174</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F223">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>82</v>
+      </c>
+      <c r="H223" t="s">
+        <v>76</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" t="s">
+        <v>235</v>
+      </c>
+      <c r="P223" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q223">
+        <v>1.5</v>
+      </c>
+      <c r="R223">
+        <v>3.2</v>
+      </c>
+      <c r="S223">
+        <v>8</v>
+      </c>
+      <c r="T223">
+        <v>1.15</v>
+      </c>
+      <c r="U223">
+        <v>5.05</v>
+      </c>
+      <c r="V223">
+        <v>1.78</v>
+      </c>
+      <c r="W223">
+        <v>1.97</v>
+      </c>
+      <c r="X223">
+        <v>3.4</v>
+      </c>
+      <c r="Y223">
+        <v>1.29</v>
+      </c>
+      <c r="Z223">
+        <v>1.18</v>
+      </c>
+      <c r="AA223">
+        <v>8</v>
+      </c>
+      <c r="AB223">
+        <v>10</v>
+      </c>
+      <c r="AC223">
+        <v>1.01</v>
+      </c>
+      <c r="AD223">
+        <v>3.55</v>
+      </c>
+      <c r="AE223">
+        <v>1.04</v>
+      </c>
+      <c r="AF223">
+        <v>7.8</v>
+      </c>
+      <c r="AG223">
+        <v>1.22</v>
+      </c>
+      <c r="AH223">
+        <v>4</v>
+      </c>
+      <c r="AI223">
+        <v>1.67</v>
+      </c>
+      <c r="AJ223">
+        <v>2.1</v>
+      </c>
+      <c r="AK223">
+        <v>1.01</v>
+      </c>
+      <c r="AL223">
+        <v>1.06</v>
+      </c>
+      <c r="AM223">
+        <v>5.05</v>
+      </c>
+      <c r="AN223">
+        <v>2.23</v>
+      </c>
+      <c r="AO223">
+        <v>0.77</v>
+      </c>
+      <c r="AP223">
+        <v>2.29</v>
+      </c>
+      <c r="AQ223">
+        <v>0.71</v>
+      </c>
+      <c r="AR223">
+        <v>1.8</v>
+      </c>
+      <c r="AS223">
+        <v>1.53</v>
+      </c>
+      <c r="AT223">
+        <v>3.33</v>
+      </c>
+      <c r="AU223">
+        <v>2</v>
+      </c>
+      <c r="AV223">
+        <v>2</v>
+      </c>
+      <c r="AW223">
+        <v>8</v>
+      </c>
+      <c r="AX223">
+        <v>5</v>
+      </c>
+      <c r="AY223">
+        <v>10</v>
+      </c>
+      <c r="AZ223">
+        <v>7</v>
+      </c>
+      <c r="BA223">
+        <v>4</v>
+      </c>
+      <c r="BB223">
+        <v>7</v>
+      </c>
+      <c r="BC223">
+        <v>11</v>
+      </c>
+      <c r="BD223">
+        <v>1.08</v>
+      </c>
+      <c r="BE223">
+        <v>14.75</v>
+      </c>
+      <c r="BF223">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BG223">
+        <v>0</v>
+      </c>
+      <c r="BH223">
+        <v>0</v>
+      </c>
+      <c r="BI223">
+        <v>1.34</v>
+      </c>
+      <c r="BJ223">
+        <v>2.88</v>
+      </c>
+      <c r="BK223">
+        <v>2.38</v>
+      </c>
+      <c r="BL223">
+        <v>2.19</v>
+      </c>
+      <c r="BM223">
+        <v>2.06</v>
+      </c>
+      <c r="BN223">
+        <v>1.73</v>
+      </c>
+      <c r="BO223">
+        <v>2.6</v>
+      </c>
+      <c r="BP223">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>6676175</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F224">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s">
+        <v>79</v>
+      </c>
+      <c r="H224" t="s">
+        <v>78</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224" t="s">
+        <v>236</v>
+      </c>
+      <c r="P224" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q224">
+        <v>3</v>
+      </c>
+      <c r="R224">
+        <v>2.3</v>
+      </c>
+      <c r="S224">
+        <v>2.88</v>
+      </c>
+      <c r="T224">
+        <v>1.29</v>
+      </c>
+      <c r="U224">
+        <v>3.3</v>
+      </c>
+      <c r="V224">
+        <v>2.38</v>
+      </c>
+      <c r="W224">
+        <v>1.53</v>
+      </c>
+      <c r="X224">
+        <v>5.25</v>
+      </c>
+      <c r="Y224">
+        <v>1.12</v>
+      </c>
+      <c r="Z224">
+        <v>2.6</v>
+      </c>
+      <c r="AA224">
+        <v>3.6</v>
+      </c>
+      <c r="AB224">
+        <v>2.45</v>
+      </c>
+      <c r="AC224">
+        <v>1.01</v>
+      </c>
+      <c r="AD224">
+        <v>11</v>
+      </c>
+      <c r="AE224">
+        <v>1.18</v>
+      </c>
+      <c r="AF224">
+        <v>4.33</v>
+      </c>
+      <c r="AG224">
+        <v>1.6</v>
+      </c>
+      <c r="AH224">
+        <v>2.3</v>
+      </c>
+      <c r="AI224">
+        <v>1.53</v>
+      </c>
+      <c r="AJ224">
+        <v>2.38</v>
+      </c>
+      <c r="AK224">
+        <v>1.7</v>
+      </c>
+      <c r="AL224">
+        <v>1.29</v>
+      </c>
+      <c r="AM224">
+        <v>1.36</v>
+      </c>
+      <c r="AN224">
+        <v>0.92</v>
+      </c>
+      <c r="AO224">
+        <v>1.38</v>
+      </c>
+      <c r="AP224">
+        <v>1.07</v>
+      </c>
+      <c r="AQ224">
+        <v>1.29</v>
+      </c>
+      <c r="AR224">
+        <v>1.39</v>
+      </c>
+      <c r="AS224">
+        <v>1.5</v>
+      </c>
+      <c r="AT224">
+        <v>2.89</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>8</v>
+      </c>
+      <c r="AW224">
+        <v>2</v>
+      </c>
+      <c r="AX224">
+        <v>3</v>
+      </c>
+      <c r="AY224">
+        <v>7</v>
+      </c>
+      <c r="AZ224">
+        <v>11</v>
+      </c>
+      <c r="BA224">
+        <v>6</v>
+      </c>
+      <c r="BB224">
+        <v>7</v>
+      </c>
+      <c r="BC224">
+        <v>13</v>
+      </c>
+      <c r="BD224">
+        <v>2.38</v>
+      </c>
+      <c r="BE224">
+        <v>9.1</v>
+      </c>
+      <c r="BF224">
+        <v>1.74</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>0</v>
+      </c>
+      <c r="BI224">
+        <v>1.26</v>
+      </c>
+      <c r="BJ224">
+        <v>3.34</v>
+      </c>
+      <c r="BK224">
+        <v>1.91</v>
+      </c>
+      <c r="BL224">
+        <v>2.45</v>
+      </c>
+      <c r="BM224">
+        <v>1.85</v>
+      </c>
+      <c r="BN224">
+        <v>1.94</v>
+      </c>
+      <c r="BO224">
+        <v>2.3</v>
+      </c>
+      <c r="BP224">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>6676176</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45429.54861111111</v>
+      </c>
+      <c r="F225">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>74</v>
+      </c>
+      <c r="H225" t="s">
+        <v>71</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>2</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>237</v>
+      </c>
+      <c r="P225" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q225">
+        <v>1.91</v>
+      </c>
+      <c r="R225">
+        <v>2.38</v>
+      </c>
+      <c r="S225">
+        <v>6.5</v>
+      </c>
+      <c r="T225">
+        <v>1.3</v>
+      </c>
+      <c r="U225">
+        <v>3.2</v>
+      </c>
+      <c r="V225">
+        <v>2.4</v>
+      </c>
+      <c r="W225">
+        <v>1.5</v>
+      </c>
+      <c r="X225">
+        <v>5.5</v>
+      </c>
+      <c r="Y225">
+        <v>1.11</v>
+      </c>
+      <c r="Z225">
+        <v>1.42</v>
+      </c>
+      <c r="AA225">
+        <v>4.5</v>
+      </c>
+      <c r="AB225">
+        <v>6.5</v>
+      </c>
+      <c r="AC225">
+        <v>1.02</v>
+      </c>
+      <c r="AD225">
+        <v>10</v>
+      </c>
+      <c r="AE225">
+        <v>1.22</v>
+      </c>
+      <c r="AF225">
+        <v>3.8</v>
+      </c>
+      <c r="AG225">
+        <v>1.7</v>
+      </c>
+      <c r="AH225">
+        <v>2.1</v>
+      </c>
+      <c r="AI225">
+        <v>1.91</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.1</v>
+      </c>
+      <c r="AL225">
+        <v>1.18</v>
+      </c>
+      <c r="AM225">
+        <v>2.9</v>
+      </c>
+      <c r="AN225">
+        <v>1.62</v>
+      </c>
+      <c r="AO225">
+        <v>1.69</v>
+      </c>
+      <c r="AP225">
+        <v>1.71</v>
+      </c>
+      <c r="AQ225">
+        <v>1.57</v>
+      </c>
+      <c r="AR225">
+        <v>1.59</v>
+      </c>
+      <c r="AS225">
+        <v>1.15</v>
+      </c>
+      <c r="AT225">
+        <v>2.74</v>
+      </c>
+      <c r="AU225">
+        <v>0</v>
+      </c>
+      <c r="AV225">
+        <v>4</v>
+      </c>
+      <c r="AW225">
+        <v>4</v>
+      </c>
+      <c r="AX225">
+        <v>2</v>
+      </c>
+      <c r="AY225">
+        <v>4</v>
+      </c>
+      <c r="AZ225">
+        <v>6</v>
+      </c>
+      <c r="BA225">
+        <v>6</v>
+      </c>
+      <c r="BB225">
+        <v>4</v>
+      </c>
+      <c r="BC225">
+        <v>10</v>
+      </c>
+      <c r="BD225">
+        <v>1.11</v>
+      </c>
+      <c r="BE225">
+        <v>14.25</v>
+      </c>
+      <c r="BF225">
+        <v>7.9</v>
+      </c>
+      <c r="BG225">
+        <v>1.39</v>
+      </c>
+      <c r="BH225">
+        <v>2.67</v>
+      </c>
+      <c r="BI225">
+        <v>1.54</v>
+      </c>
+      <c r="BJ225">
+        <v>2.39</v>
+      </c>
+      <c r="BK225">
+        <v>1.94</v>
+      </c>
+      <c r="BL225">
+        <v>1.85</v>
+      </c>
+      <c r="BM225">
+        <v>2.49</v>
+      </c>
+      <c r="BN225">
+        <v>1.5</v>
+      </c>
+      <c r="BO225">
+        <v>3.34</v>
+      </c>
+      <c r="BP225">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1066,13 +1066,10 @@
     <t>['53', '66', '79']</t>
   </si>
   <si>
-    <t>['14', '15', '73']</t>
+    <t>['14', '16', '73']</t>
   </si>
   <si>
-    <t>['43']</t>
-  </si>
-  <si>
-    <t>['27', '33', '35', '45+1', '66']</t>
+    <t>['27', '33', '36', '45+1', '66']</t>
   </si>
   <si>
     <t>['8', '41']</t>
@@ -46604,7 +46601,7 @@
         <v>189</v>
       </c>
       <c r="P220" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="Q220">
         <v>3.75</v>
@@ -46810,7 +46807,7 @@
         <v>233</v>
       </c>
       <c r="P221" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47016,7 +47013,7 @@
         <v>234</v>
       </c>
       <c r="P222" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q222">
         <v>2.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="360">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,18 @@
     <t>['26', '33']</t>
   </si>
   <si>
+    <t>['38', '45']</t>
+  </si>
+  <si>
+    <t>['17', '56']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['84', '90+1']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -875,9 +887,6 @@
   </si>
   <si>
     <t>['45', '60']</t>
-  </si>
-  <si>
-    <t>['27']</t>
   </si>
   <si>
     <t>['11', '22']</t>
@@ -1073,6 +1082,18 @@
   </si>
   <si>
     <t>['8', '41']</t>
+  </si>
+  <si>
+    <t>['11', '90+5']</t>
+  </si>
+  <si>
+    <t>['3', '19', '30', '79']</t>
+  </si>
+  <si>
+    <t>['9', '61', '90+3']</t>
+  </si>
+  <si>
+    <t>['78', '82', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1980,7 +2001,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2183,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ4">
         <v>1.36</v>
@@ -2517,7 +2538,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2801,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2929,7 +2950,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3007,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ8">
         <v>1.29</v>
@@ -3213,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3419,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ10">
         <v>1.07</v>
@@ -3547,7 +3568,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3625,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3753,7 +3774,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3834,7 +3855,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4037,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ13">
         <v>1.57</v>
@@ -4165,7 +4186,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4371,7 +4392,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4449,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ15">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4577,7 +4598,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4783,7 +4804,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -4861,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>1.62</v>
@@ -5067,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ18">
         <v>0.93</v>
@@ -5276,7 +5297,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR19">
         <v>1.61</v>
@@ -5401,7 +5422,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5482,7 +5503,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ20">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5685,7 +5706,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ21">
         <v>1.07</v>
@@ -5813,7 +5834,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -6019,7 +6040,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6097,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ23">
         <v>1.57</v>
@@ -6512,7 +6533,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR25">
         <v>1.33</v>
@@ -6637,7 +6658,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6715,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR26">
         <v>1.66</v>
@@ -6924,7 +6945,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -7127,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ28">
         <v>1.07</v>
@@ -7336,7 +7357,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.62</v>
@@ -7745,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ31">
         <v>1.29</v>
@@ -7873,7 +7894,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7951,7 +7972,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ32">
         <v>1.29</v>
@@ -8079,7 +8100,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8160,7 +8181,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ33">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR33">
         <v>1.71</v>
@@ -8363,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ34">
         <v>1.57</v>
@@ -8491,7 +8512,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8572,7 +8593,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.78</v>
@@ -8697,7 +8718,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8775,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ36">
         <v>0.64</v>
@@ -8903,7 +8924,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9109,7 +9130,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9190,7 +9211,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.36</v>
@@ -9315,7 +9336,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9393,10 +9414,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR39">
         <v>1.23</v>
@@ -9599,10 +9620,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9727,7 +9748,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9805,7 +9826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ41">
         <v>1.36</v>
@@ -10014,7 +10035,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10217,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -10345,7 +10366,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10423,7 +10444,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ44">
         <v>0.71</v>
@@ -10551,7 +10572,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10629,10 +10650,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.76</v>
@@ -10838,7 +10859,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR46">
         <v>2.25</v>
@@ -11375,7 +11396,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11453,10 +11474,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR49">
         <v>0.89</v>
@@ -11581,7 +11602,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11659,7 +11680,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
         <v>1.29</v>
@@ -11787,7 +11808,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11865,10 +11886,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -12071,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
         <v>0.64</v>
@@ -12277,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
         <v>0.93</v>
@@ -12405,7 +12426,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12486,7 +12507,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR54">
         <v>1.27</v>
@@ -12611,7 +12632,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12692,7 +12713,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12817,7 +12838,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12895,10 +12916,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ56">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR56">
         <v>1.31</v>
@@ -13229,7 +13250,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13435,7 +13456,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13513,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ59">
         <v>1.07</v>
@@ -13641,7 +13662,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13847,7 +13868,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13925,7 +13946,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ61">
         <v>1.29</v>
@@ -14134,7 +14155,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -14546,7 +14567,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14877,7 +14898,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14958,7 +14979,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -15083,7 +15104,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15161,10 +15182,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
+        <v>1.2</v>
+      </c>
+      <c r="AQ67">
         <v>1.07</v>
-      </c>
-      <c r="AQ67">
-        <v>1.14</v>
       </c>
       <c r="AR67">
         <v>1.13</v>
@@ -15495,7 +15516,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15573,10 +15594,10 @@
         <v>2.25</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15701,7 +15722,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15779,10 +15800,10 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR70">
         <v>1.57</v>
@@ -15985,7 +16006,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ71">
         <v>1.29</v>
@@ -16113,7 +16134,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16191,10 +16212,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>1.55</v>
@@ -16319,7 +16340,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16397,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ73">
         <v>0.64</v>
@@ -16525,7 +16546,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16731,7 +16752,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -17143,7 +17164,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17221,10 +17242,10 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR77">
         <v>1.52</v>
@@ -17349,7 +17370,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17555,7 +17576,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17633,7 +17654,7 @@
         <v>0.5</v>
       </c>
       <c r="AP79">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ79">
         <v>0.71</v>
@@ -17842,7 +17863,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ80">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR80">
         <v>2.06</v>
@@ -18251,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ82">
         <v>0.64</v>
@@ -18460,7 +18481,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ83">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18585,7 +18606,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18663,10 +18684,10 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ84">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18869,10 +18890,10 @@
         <v>2.4</v>
       </c>
       <c r="AP85">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ85">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR85">
         <v>1.63</v>
@@ -19075,10 +19096,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ86">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR86">
         <v>1.3</v>
@@ -19409,7 +19430,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19487,7 +19508,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ88">
         <v>1.07</v>
@@ -19615,7 +19636,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19693,10 +19714,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19821,7 +19842,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19899,7 +19920,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1.57</v>
@@ -20027,7 +20048,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20233,7 +20254,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20314,7 +20335,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ92">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR92">
         <v>1.66</v>
@@ -20439,7 +20460,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20517,7 +20538,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ93">
         <v>1.36</v>
@@ -20645,7 +20666,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20723,7 +20744,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
         <v>0.71</v>
@@ -20932,7 +20953,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.1</v>
@@ -21057,7 +21078,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21138,7 +21159,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21547,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ98">
         <v>0.93</v>
@@ -21753,7 +21774,7 @@
         <v>0.8</v>
       </c>
       <c r="AP99">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ99">
         <v>1.07</v>
@@ -21881,7 +21902,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -22165,10 +22186,10 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22371,7 +22392,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ102">
         <v>1.07</v>
@@ -22580,7 +22601,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ103">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22786,7 +22807,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ104">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR104">
         <v>2.01</v>
@@ -23117,7 +23138,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23735,7 +23756,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -24147,7 +24168,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24559,7 +24580,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24637,7 +24658,7 @@
         <v>0.43</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ113">
         <v>0.93</v>
@@ -24843,10 +24864,10 @@
         <v>1.43</v>
       </c>
       <c r="AP114">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR114">
         <v>1.61</v>
@@ -24971,7 +24992,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25049,10 +25070,10 @@
         <v>2.29</v>
       </c>
       <c r="AP115">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ115">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR115">
         <v>1.03</v>
@@ -25177,7 +25198,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25255,10 +25276,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25383,7 +25404,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25461,10 +25482,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ117">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25589,7 +25610,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25667,10 +25688,10 @@
         <v>0.67</v>
       </c>
       <c r="AP118">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.69</v>
@@ -25795,7 +25816,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25873,10 +25894,10 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR119">
         <v>1.39</v>
@@ -26001,7 +26022,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26079,10 +26100,10 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ120">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26207,7 +26228,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26491,7 +26512,7 @@
         <v>0.71</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -26619,7 +26640,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26697,7 +26718,7 @@
         <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ123">
         <v>1.07</v>
@@ -26825,7 +26846,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -26903,10 +26924,10 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR124">
         <v>1.37</v>
@@ -27031,7 +27052,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27112,7 +27133,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ125">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR125">
         <v>1.49</v>
@@ -27237,7 +27258,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27443,7 +27464,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27521,10 +27542,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ127">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR127">
         <v>1.32</v>
@@ -27649,7 +27670,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27727,10 +27748,10 @@
         <v>2.38</v>
       </c>
       <c r="AP128">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ128">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27855,7 +27876,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27936,7 +27957,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ129">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR129">
         <v>1.22</v>
@@ -28142,7 +28163,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR130">
         <v>1.57</v>
@@ -28345,7 +28366,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ131">
         <v>1.36</v>
@@ -28757,7 +28778,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
         <v>1.29</v>
@@ -28885,7 +28906,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -29375,10 +29396,10 @@
         <v>1.63</v>
       </c>
       <c r="AP136">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29503,7 +29524,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29581,10 +29602,10 @@
         <v>1.5</v>
       </c>
       <c r="AP137">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29787,10 +29808,10 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ138">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29996,7 +30017,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ139">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR139">
         <v>1.66</v>
@@ -30199,7 +30220,7 @@
         <v>0.63</v>
       </c>
       <c r="AP140">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ140">
         <v>0.71</v>
@@ -30327,7 +30348,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30408,7 +30429,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR141">
         <v>1.9</v>
@@ -30533,7 +30554,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30611,10 +30632,10 @@
         <v>2.11</v>
       </c>
       <c r="AP142">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ142">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30739,7 +30760,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30945,7 +30966,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31023,7 +31044,7 @@
         <v>0.88</v>
       </c>
       <c r="AP144">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144">
         <v>1.07</v>
@@ -31435,7 +31456,7 @@
         <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ146">
         <v>1.36</v>
@@ -31563,7 +31584,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31641,7 +31662,7 @@
         <v>1.88</v>
       </c>
       <c r="AP147">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
         <v>1.57</v>
@@ -31850,7 +31871,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ148">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR148">
         <v>1.3</v>
@@ -31975,7 +31996,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32181,7 +32202,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32468,7 +32489,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR151">
         <v>1.62</v>
@@ -32671,7 +32692,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ152">
         <v>1.07</v>
@@ -32877,10 +32898,10 @@
         <v>2.44</v>
       </c>
       <c r="AP153">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ153">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR153">
         <v>1.24</v>
@@ -33086,7 +33107,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ154">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR154">
         <v>1.36</v>
@@ -33211,7 +33232,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33289,7 +33310,7 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ155">
         <v>1.29</v>
@@ -33417,7 +33438,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33498,7 +33519,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ156">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR156">
         <v>1.7</v>
@@ -33910,7 +33931,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ158">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR158">
         <v>1.36</v>
@@ -34113,7 +34134,7 @@
         <v>1.89</v>
       </c>
       <c r="AP159">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ159">
         <v>1.29</v>
@@ -34241,7 +34262,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34319,7 +34340,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ160">
         <v>0.71</v>
@@ -34447,7 +34468,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34653,7 +34674,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34731,7 +34752,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ162">
         <v>0.64</v>
@@ -35146,7 +35167,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ164">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR164">
         <v>1.79</v>
@@ -35349,7 +35370,7 @@
         <v>0.9</v>
       </c>
       <c r="AP165">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ165">
         <v>0.93</v>
@@ -35555,10 +35576,10 @@
         <v>2.2</v>
       </c>
       <c r="AP166">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR166">
         <v>1.45</v>
@@ -35683,7 +35704,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35764,7 +35785,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ167">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR167">
         <v>1.18</v>
@@ -35889,7 +35910,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35967,7 +35988,7 @@
         <v>0.9</v>
       </c>
       <c r="AP168">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ168">
         <v>1.29</v>
@@ -36301,7 +36322,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36382,7 +36403,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ170">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR170">
         <v>1.17</v>
@@ -36507,7 +36528,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36713,7 +36734,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36919,7 +36940,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -36997,10 +37018,10 @@
         <v>1.2</v>
       </c>
       <c r="AP173">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR173">
         <v>1.24</v>
@@ -37206,7 +37227,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ174">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR174">
         <v>1.88</v>
@@ -37409,7 +37430,7 @@
         <v>0.7</v>
       </c>
       <c r="AP175">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ175">
         <v>1.07</v>
@@ -37537,7 +37558,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37821,7 +37842,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ177">
         <v>1.57</v>
@@ -38030,7 +38051,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ178">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR178">
         <v>1.52</v>
@@ -38155,7 +38176,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38233,10 +38254,10 @@
         <v>0.91</v>
       </c>
       <c r="AP179">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ179">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR179">
         <v>1.19</v>
@@ -38361,7 +38382,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38439,7 +38460,7 @@
         <v>1.09</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ180">
         <v>1.29</v>
@@ -38645,10 +38666,10 @@
         <v>1.36</v>
       </c>
       <c r="AP181">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ181">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR181">
         <v>1.41</v>
@@ -38773,7 +38794,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -38851,10 +38872,10 @@
         <v>1.64</v>
       </c>
       <c r="AP182">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ182">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR182">
         <v>1.56</v>
@@ -39060,7 +39081,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ183">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR183">
         <v>1.72</v>
@@ -39185,7 +39206,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39263,7 +39284,7 @@
         <v>0.73</v>
       </c>
       <c r="AP184">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ184">
         <v>0.64</v>
@@ -39469,7 +39490,7 @@
         <v>0.82</v>
       </c>
       <c r="AP185">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ185">
         <v>0.93</v>
@@ -39597,7 +39618,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39678,7 +39699,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ186">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -39881,7 +39902,7 @@
         <v>1.45</v>
       </c>
       <c r="AP187">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ187">
         <v>1.36</v>
@@ -40009,7 +40030,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40087,7 +40108,7 @@
         <v>0.64</v>
       </c>
       <c r="AP188">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ188">
         <v>0.71</v>
@@ -40421,7 +40442,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40502,7 +40523,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ190">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR190">
         <v>1.37</v>
@@ -40627,7 +40648,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40833,7 +40854,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -41039,7 +41060,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41245,7 +41266,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41323,10 +41344,10 @@
         <v>1.75</v>
       </c>
       <c r="AP194">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ194">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR194">
         <v>1.42</v>
@@ -41451,7 +41472,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41529,7 +41550,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ195">
         <v>0.93</v>
@@ -41941,10 +41962,10 @@
         <v>1.25</v>
       </c>
       <c r="AP197">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ197">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR197">
         <v>1.49</v>
@@ -42069,7 +42090,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42150,7 +42171,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ198">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR198">
         <v>1.27</v>
@@ -42275,7 +42296,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42353,7 +42374,7 @@
         <v>0.92</v>
       </c>
       <c r="AP199">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ199">
         <v>1.07</v>
@@ -42559,10 +42580,10 @@
         <v>1.42</v>
       </c>
       <c r="AP200">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ200">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR200">
         <v>1.52</v>
@@ -42687,7 +42708,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42765,10 +42786,10 @@
         <v>0.83</v>
       </c>
       <c r="AP201">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ201">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -42893,7 +42914,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42971,7 +42992,7 @@
         <v>1.58</v>
       </c>
       <c r="AP202">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ202">
         <v>1.57</v>
@@ -43099,7 +43120,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43177,7 +43198,7 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ203">
         <v>1.36</v>
@@ -43305,7 +43326,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -44210,7 +44231,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ208">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR208">
         <v>1.31</v>
@@ -44335,7 +44356,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44416,7 +44437,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR209">
         <v>1.35</v>
@@ -44619,10 +44640,10 @@
         <v>1.85</v>
       </c>
       <c r="AP210">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AQ210">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AR210">
         <v>1.5</v>
@@ -44747,7 +44768,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44828,7 +44849,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ211">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR211">
         <v>1.25</v>
@@ -45034,7 +45055,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ212">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR212">
         <v>1.6</v>
@@ -45159,7 +45180,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q213">
         <v>4.5</v>
@@ -45237,10 +45258,10 @@
         <v>1.38</v>
       </c>
       <c r="AP213">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ213">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR213">
         <v>1.61</v>
@@ -45365,7 +45386,7 @@
         <v>228</v>
       </c>
       <c r="P214" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>2.6</v>
@@ -45443,7 +45464,7 @@
         <v>1.08</v>
       </c>
       <c r="AP214">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ214">
         <v>1.07</v>
@@ -45571,7 +45592,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -45777,7 +45798,7 @@
         <v>230</v>
       </c>
       <c r="P216" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q216">
         <v>3.1</v>
@@ -45855,7 +45876,7 @@
         <v>0.92</v>
       </c>
       <c r="AP216">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AQ216">
         <v>1.07</v>
@@ -45983,7 +46004,7 @@
         <v>231</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46061,7 +46082,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ217">
         <v>0.64</v>
@@ -46189,7 +46210,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46395,7 +46416,7 @@
         <v>138</v>
       </c>
       <c r="P219" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46473,7 +46494,7 @@
         <v>1.15</v>
       </c>
       <c r="AP219">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ219">
         <v>1.29</v>
@@ -46679,10 +46700,10 @@
         <v>1.38</v>
       </c>
       <c r="AP220">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AQ220">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR220">
         <v>1.51</v>
@@ -46807,7 +46828,7 @@
         <v>233</v>
       </c>
       <c r="P221" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -46888,7 +46909,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ221">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR221">
         <v>1.24</v>
@@ -47013,7 +47034,7 @@
         <v>234</v>
       </c>
       <c r="P222" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q222">
         <v>2.3</v>
@@ -47425,7 +47446,7 @@
         <v>236</v>
       </c>
       <c r="P224" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47503,7 +47524,7 @@
         <v>1.38</v>
       </c>
       <c r="AP224">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ224">
         <v>1.29</v>
@@ -47712,7 +47733,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ225">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR225">
         <v>1.59</v>
@@ -47788,6 +47809,1654 @@
       </c>
       <c r="BP225">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>6676185</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F226">
+        <v>29</v>
+      </c>
+      <c r="G226" t="s">
+        <v>78</v>
+      </c>
+      <c r="H226" t="s">
+        <v>71</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>238</v>
+      </c>
+      <c r="P226" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q226">
+        <v>2.1</v>
+      </c>
+      <c r="R226">
+        <v>2.3</v>
+      </c>
+      <c r="S226">
+        <v>4.75</v>
+      </c>
+      <c r="T226">
+        <v>1.32</v>
+      </c>
+      <c r="U226">
+        <v>3.22</v>
+      </c>
+      <c r="V226">
+        <v>2.48</v>
+      </c>
+      <c r="W226">
+        <v>1.5</v>
+      </c>
+      <c r="X226">
+        <v>5.85</v>
+      </c>
+      <c r="Y226">
+        <v>1.11</v>
+      </c>
+      <c r="Z226">
+        <v>1.62</v>
+      </c>
+      <c r="AA226">
+        <v>4.33</v>
+      </c>
+      <c r="AB226">
+        <v>4.5</v>
+      </c>
+      <c r="AC226">
+        <v>1.01</v>
+      </c>
+      <c r="AD226">
+        <v>4.4</v>
+      </c>
+      <c r="AE226">
+        <v>1.22</v>
+      </c>
+      <c r="AF226">
+        <v>4.3</v>
+      </c>
+      <c r="AG226">
+        <v>1.67</v>
+      </c>
+      <c r="AH226">
+        <v>2.15</v>
+      </c>
+      <c r="AI226">
+        <v>1.73</v>
+      </c>
+      <c r="AJ226">
+        <v>2</v>
+      </c>
+      <c r="AK226">
+        <v>1.16</v>
+      </c>
+      <c r="AL226">
+        <v>1.25</v>
+      </c>
+      <c r="AM226">
+        <v>2.52</v>
+      </c>
+      <c r="AN226">
+        <v>1.29</v>
+      </c>
+      <c r="AO226">
+        <v>1.57</v>
+      </c>
+      <c r="AP226">
+        <v>1.27</v>
+      </c>
+      <c r="AQ226">
+        <v>1.53</v>
+      </c>
+      <c r="AR226">
+        <v>1.56</v>
+      </c>
+      <c r="AS226">
+        <v>1.14</v>
+      </c>
+      <c r="AT226">
+        <v>2.7</v>
+      </c>
+      <c r="AU226">
+        <v>4</v>
+      </c>
+      <c r="AV226">
+        <v>4</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>5</v>
+      </c>
+      <c r="AY226">
+        <v>9</v>
+      </c>
+      <c r="AZ226">
+        <v>9</v>
+      </c>
+      <c r="BA226">
+        <v>2</v>
+      </c>
+      <c r="BB226">
+        <v>6</v>
+      </c>
+      <c r="BC226">
+        <v>8</v>
+      </c>
+      <c r="BD226">
+        <v>1.28</v>
+      </c>
+      <c r="BE226">
+        <v>11</v>
+      </c>
+      <c r="BF226">
+        <v>4.25</v>
+      </c>
+      <c r="BG226">
+        <v>1.19</v>
+      </c>
+      <c r="BH226">
+        <v>4.5</v>
+      </c>
+      <c r="BI226">
+        <v>1.33</v>
+      </c>
+      <c r="BJ226">
+        <v>2.93</v>
+      </c>
+      <c r="BK226">
+        <v>2</v>
+      </c>
+      <c r="BL226">
+        <v>2.16</v>
+      </c>
+      <c r="BM226">
+        <v>1.99</v>
+      </c>
+      <c r="BN226">
+        <v>1.73</v>
+      </c>
+      <c r="BO226">
+        <v>2.57</v>
+      </c>
+      <c r="BP226">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>6676184</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F227">
+        <v>29</v>
+      </c>
+      <c r="G227" t="s">
+        <v>76</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>239</v>
+      </c>
+      <c r="P227" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q227">
+        <v>3.25</v>
+      </c>
+      <c r="R227">
+        <v>2.6</v>
+      </c>
+      <c r="S227">
+        <v>2.4</v>
+      </c>
+      <c r="T227">
+        <v>1.22</v>
+      </c>
+      <c r="U227">
+        <v>3.8</v>
+      </c>
+      <c r="V227">
+        <v>2.07</v>
+      </c>
+      <c r="W227">
+        <v>1.75</v>
+      </c>
+      <c r="X227">
+        <v>4.3</v>
+      </c>
+      <c r="Y227">
+        <v>1.2</v>
+      </c>
+      <c r="Z227">
+        <v>3.25</v>
+      </c>
+      <c r="AA227">
+        <v>4</v>
+      </c>
+      <c r="AB227">
+        <v>1.95</v>
+      </c>
+      <c r="AC227">
+        <v>1.01</v>
+      </c>
+      <c r="AD227">
+        <v>6</v>
+      </c>
+      <c r="AE227">
+        <v>1.09</v>
+      </c>
+      <c r="AF227">
+        <v>3.95</v>
+      </c>
+      <c r="AG227">
+        <v>1.33</v>
+      </c>
+      <c r="AH227">
+        <v>3.25</v>
+      </c>
+      <c r="AI227">
+        <v>1.36</v>
+      </c>
+      <c r="AJ227">
+        <v>3</v>
+      </c>
+      <c r="AK227">
+        <v>1.64</v>
+      </c>
+      <c r="AL227">
+        <v>1.17</v>
+      </c>
+      <c r="AM227">
+        <v>1.37</v>
+      </c>
+      <c r="AN227">
+        <v>0.71</v>
+      </c>
+      <c r="AO227">
+        <v>1.14</v>
+      </c>
+      <c r="AP227">
+        <v>0.87</v>
+      </c>
+      <c r="AQ227">
+        <v>1.07</v>
+      </c>
+      <c r="AR227">
+        <v>1.28</v>
+      </c>
+      <c r="AS227">
+        <v>1.21</v>
+      </c>
+      <c r="AT227">
+        <v>2.49</v>
+      </c>
+      <c r="AU227">
+        <v>8</v>
+      </c>
+      <c r="AV227">
+        <v>6</v>
+      </c>
+      <c r="AW227">
+        <v>7</v>
+      </c>
+      <c r="AX227">
+        <v>1</v>
+      </c>
+      <c r="AY227">
+        <v>15</v>
+      </c>
+      <c r="AZ227">
+        <v>7</v>
+      </c>
+      <c r="BA227">
+        <v>3</v>
+      </c>
+      <c r="BB227">
+        <v>5</v>
+      </c>
+      <c r="BC227">
+        <v>8</v>
+      </c>
+      <c r="BD227">
+        <v>2.08</v>
+      </c>
+      <c r="BE227">
+        <v>8.9</v>
+      </c>
+      <c r="BF227">
+        <v>1.95</v>
+      </c>
+      <c r="BG227">
+        <v>1.19</v>
+      </c>
+      <c r="BH227">
+        <v>4.1</v>
+      </c>
+      <c r="BI227">
+        <v>1.33</v>
+      </c>
+      <c r="BJ227">
+        <v>2.93</v>
+      </c>
+      <c r="BK227">
+        <v>2.25</v>
+      </c>
+      <c r="BL227">
+        <v>2.23</v>
+      </c>
+      <c r="BM227">
+        <v>2</v>
+      </c>
+      <c r="BN227">
+        <v>1.79</v>
+      </c>
+      <c r="BO227">
+        <v>2.51</v>
+      </c>
+      <c r="BP227">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>6676183</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>72</v>
+      </c>
+      <c r="H228" t="s">
+        <v>82</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>3</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>4</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>86</v>
+      </c>
+      <c r="P228" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q228">
+        <v>5.5</v>
+      </c>
+      <c r="R228">
+        <v>2.5</v>
+      </c>
+      <c r="S228">
+        <v>1.91</v>
+      </c>
+      <c r="T228">
+        <v>1.29</v>
+      </c>
+      <c r="U228">
+        <v>3.4</v>
+      </c>
+      <c r="V228">
+        <v>2.2</v>
+      </c>
+      <c r="W228">
+        <v>1.6</v>
+      </c>
+      <c r="X228">
+        <v>4.8</v>
+      </c>
+      <c r="Y228">
+        <v>1.15</v>
+      </c>
+      <c r="Z228">
+        <v>5.5</v>
+      </c>
+      <c r="AA228">
+        <v>5</v>
+      </c>
+      <c r="AB228">
+        <v>1.44</v>
+      </c>
+      <c r="AC228">
+        <v>1.02</v>
+      </c>
+      <c r="AD228">
+        <v>10</v>
+      </c>
+      <c r="AE228">
+        <v>1.01</v>
+      </c>
+      <c r="AF228">
+        <v>2.56</v>
+      </c>
+      <c r="AG228">
+        <v>1.5</v>
+      </c>
+      <c r="AH228">
+        <v>2.5</v>
+      </c>
+      <c r="AI228">
+        <v>1.73</v>
+      </c>
+      <c r="AJ228">
+        <v>2</v>
+      </c>
+      <c r="AK228">
+        <v>2.84</v>
+      </c>
+      <c r="AL228">
+        <v>1.19</v>
+      </c>
+      <c r="AM228">
+        <v>1.17</v>
+      </c>
+      <c r="AN228">
+        <v>1.57</v>
+      </c>
+      <c r="AO228">
+        <v>1.5</v>
+      </c>
+      <c r="AP228">
+        <v>1.47</v>
+      </c>
+      <c r="AQ228">
+        <v>1.6</v>
+      </c>
+      <c r="AR228">
+        <v>1.39</v>
+      </c>
+      <c r="AS228">
+        <v>1.57</v>
+      </c>
+      <c r="AT228">
+        <v>2.96</v>
+      </c>
+      <c r="AU228">
+        <v>5</v>
+      </c>
+      <c r="AV228">
+        <v>5</v>
+      </c>
+      <c r="AW228">
+        <v>2</v>
+      </c>
+      <c r="AX228">
+        <v>8</v>
+      </c>
+      <c r="AY228">
+        <v>7</v>
+      </c>
+      <c r="AZ228">
+        <v>13</v>
+      </c>
+      <c r="BA228">
+        <v>3</v>
+      </c>
+      <c r="BB228">
+        <v>6</v>
+      </c>
+      <c r="BC228">
+        <v>9</v>
+      </c>
+      <c r="BD228">
+        <v>3.92</v>
+      </c>
+      <c r="BE228">
+        <v>10.25</v>
+      </c>
+      <c r="BF228">
+        <v>1.33</v>
+      </c>
+      <c r="BG228">
+        <v>1.19</v>
+      </c>
+      <c r="BH228">
+        <v>3.95</v>
+      </c>
+      <c r="BI228">
+        <v>1.38</v>
+      </c>
+      <c r="BJ228">
+        <v>2.71</v>
+      </c>
+      <c r="BK228">
+        <v>1.73</v>
+      </c>
+      <c r="BL228">
+        <v>2.07</v>
+      </c>
+      <c r="BM228">
+        <v>2.14</v>
+      </c>
+      <c r="BN228">
+        <v>1.68</v>
+      </c>
+      <c r="BO228">
+        <v>2.75</v>
+      </c>
+      <c r="BP228">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>6676182</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>83</v>
+      </c>
+      <c r="H229" t="s">
+        <v>85</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>2</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>240</v>
+      </c>
+      <c r="P229" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q229">
+        <v>2.88</v>
+      </c>
+      <c r="R229">
+        <v>2.3</v>
+      </c>
+      <c r="S229">
+        <v>3</v>
+      </c>
+      <c r="T229">
+        <v>1.33</v>
+      </c>
+      <c r="U229">
+        <v>3.1</v>
+      </c>
+      <c r="V229">
+        <v>2.47</v>
+      </c>
+      <c r="W229">
+        <v>1.5</v>
+      </c>
+      <c r="X229">
+        <v>5.3</v>
+      </c>
+      <c r="Y229">
+        <v>1.12</v>
+      </c>
+      <c r="Z229">
+        <v>2.5</v>
+      </c>
+      <c r="AA229">
+        <v>3.4</v>
+      </c>
+      <c r="AB229">
+        <v>2.63</v>
+      </c>
+      <c r="AC229">
+        <v>1.01</v>
+      </c>
+      <c r="AD229">
+        <v>11</v>
+      </c>
+      <c r="AE229">
+        <v>1.01</v>
+      </c>
+      <c r="AF229">
+        <v>2.18</v>
+      </c>
+      <c r="AG229">
+        <v>1.6</v>
+      </c>
+      <c r="AH229">
+        <v>2.3</v>
+      </c>
+      <c r="AI229">
+        <v>1.53</v>
+      </c>
+      <c r="AJ229">
+        <v>2.38</v>
+      </c>
+      <c r="AK229">
+        <v>1.47</v>
+      </c>
+      <c r="AL229">
+        <v>1.29</v>
+      </c>
+      <c r="AM229">
+        <v>1.53</v>
+      </c>
+      <c r="AN229">
+        <v>0.43</v>
+      </c>
+      <c r="AO229">
+        <v>0.93</v>
+      </c>
+      <c r="AP229">
+        <v>0.47</v>
+      </c>
+      <c r="AQ229">
+        <v>0.93</v>
+      </c>
+      <c r="AR229">
+        <v>1.47</v>
+      </c>
+      <c r="AS229">
+        <v>1.34</v>
+      </c>
+      <c r="AT229">
+        <v>2.81</v>
+      </c>
+      <c r="AU229">
+        <v>6</v>
+      </c>
+      <c r="AV229">
+        <v>4</v>
+      </c>
+      <c r="AW229">
+        <v>17</v>
+      </c>
+      <c r="AX229">
+        <v>7</v>
+      </c>
+      <c r="AY229">
+        <v>23</v>
+      </c>
+      <c r="AZ229">
+        <v>11</v>
+      </c>
+      <c r="BA229">
+        <v>9</v>
+      </c>
+      <c r="BB229">
+        <v>1</v>
+      </c>
+      <c r="BC229">
+        <v>10</v>
+      </c>
+      <c r="BD229">
+        <v>1.8</v>
+      </c>
+      <c r="BE229">
+        <v>9</v>
+      </c>
+      <c r="BF229">
+        <v>2.28</v>
+      </c>
+      <c r="BG229">
+        <v>1.2</v>
+      </c>
+      <c r="BH229">
+        <v>4.35</v>
+      </c>
+      <c r="BI229">
+        <v>1.34</v>
+      </c>
+      <c r="BJ229">
+        <v>2.88</v>
+      </c>
+      <c r="BK229">
+        <v>2.1</v>
+      </c>
+      <c r="BL229">
+        <v>2.17</v>
+      </c>
+      <c r="BM229">
+        <v>2.07</v>
+      </c>
+      <c r="BN229">
+        <v>1.74</v>
+      </c>
+      <c r="BO229">
+        <v>2.6</v>
+      </c>
+      <c r="BP229">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>6676179</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>75</v>
+      </c>
+      <c r="H230" t="s">
+        <v>84</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>86</v>
+      </c>
+      <c r="P230" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q230">
+        <v>2.5</v>
+      </c>
+      <c r="R230">
+        <v>2.2</v>
+      </c>
+      <c r="S230">
+        <v>4</v>
+      </c>
+      <c r="T230">
+        <v>1.35</v>
+      </c>
+      <c r="U230">
+        <v>3.15</v>
+      </c>
+      <c r="V230">
+        <v>2.74</v>
+      </c>
+      <c r="W230">
+        <v>1.44</v>
+      </c>
+      <c r="X230">
+        <v>5.8</v>
+      </c>
+      <c r="Y230">
+        <v>1.1</v>
+      </c>
+      <c r="Z230">
+        <v>1.91</v>
+      </c>
+      <c r="AA230">
+        <v>3.4</v>
+      </c>
+      <c r="AB230">
+        <v>3.8</v>
+      </c>
+      <c r="AC230">
+        <v>1.04</v>
+      </c>
+      <c r="AD230">
+        <v>9</v>
+      </c>
+      <c r="AE230">
+        <v>1.25</v>
+      </c>
+      <c r="AF230">
+        <v>3.85</v>
+      </c>
+      <c r="AG230">
+        <v>1.8</v>
+      </c>
+      <c r="AH230">
+        <v>2</v>
+      </c>
+      <c r="AI230">
+        <v>1.67</v>
+      </c>
+      <c r="AJ230">
+        <v>2.1</v>
+      </c>
+      <c r="AK230">
+        <v>1.3</v>
+      </c>
+      <c r="AL230">
+        <v>1.3</v>
+      </c>
+      <c r="AM230">
+        <v>1.84</v>
+      </c>
+      <c r="AN230">
+        <v>2.07</v>
+      </c>
+      <c r="AO230">
+        <v>1.29</v>
+      </c>
+      <c r="AP230">
+        <v>1.93</v>
+      </c>
+      <c r="AQ230">
+        <v>1.4</v>
+      </c>
+      <c r="AR230">
+        <v>1.48</v>
+      </c>
+      <c r="AS230">
+        <v>1.49</v>
+      </c>
+      <c r="AT230">
+        <v>2.97</v>
+      </c>
+      <c r="AU230">
+        <v>7</v>
+      </c>
+      <c r="AV230">
+        <v>7</v>
+      </c>
+      <c r="AW230">
+        <v>7</v>
+      </c>
+      <c r="AX230">
+        <v>4</v>
+      </c>
+      <c r="AY230">
+        <v>14</v>
+      </c>
+      <c r="AZ230">
+        <v>11</v>
+      </c>
+      <c r="BA230">
+        <v>8</v>
+      </c>
+      <c r="BB230">
+        <v>3</v>
+      </c>
+      <c r="BC230">
+        <v>11</v>
+      </c>
+      <c r="BD230">
+        <v>1.63</v>
+      </c>
+      <c r="BE230">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF230">
+        <v>2.61</v>
+      </c>
+      <c r="BG230">
+        <v>1.21</v>
+      </c>
+      <c r="BH230">
+        <v>4.2</v>
+      </c>
+      <c r="BI230">
+        <v>1.35</v>
+      </c>
+      <c r="BJ230">
+        <v>2.84</v>
+      </c>
+      <c r="BK230">
+        <v>2.1</v>
+      </c>
+      <c r="BL230">
+        <v>2.16</v>
+      </c>
+      <c r="BM230">
+        <v>2.08</v>
+      </c>
+      <c r="BN230">
+        <v>1.72</v>
+      </c>
+      <c r="BO230">
+        <v>2.67</v>
+      </c>
+      <c r="BP230">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>6676178</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>81</v>
+      </c>
+      <c r="H231" t="s">
+        <v>70</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>3</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>212</v>
+      </c>
+      <c r="P231" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q231">
+        <v>3.4</v>
+      </c>
+      <c r="R231">
+        <v>2.38</v>
+      </c>
+      <c r="S231">
+        <v>2.5</v>
+      </c>
+      <c r="T231">
+        <v>1.3</v>
+      </c>
+      <c r="U231">
+        <v>3.2</v>
+      </c>
+      <c r="V231">
+        <v>2.47</v>
+      </c>
+      <c r="W231">
+        <v>1.52</v>
+      </c>
+      <c r="X231">
+        <v>5.3</v>
+      </c>
+      <c r="Y231">
+        <v>1.12</v>
+      </c>
+      <c r="Z231">
+        <v>3.2</v>
+      </c>
+      <c r="AA231">
+        <v>3.75</v>
+      </c>
+      <c r="AB231">
+        <v>2.05</v>
+      </c>
+      <c r="AC231">
+        <v>1.03</v>
+      </c>
+      <c r="AD231">
+        <v>10</v>
+      </c>
+      <c r="AE231">
+        <v>1.01</v>
+      </c>
+      <c r="AF231">
+        <v>2.1</v>
+      </c>
+      <c r="AG231">
+        <v>1.53</v>
+      </c>
+      <c r="AH231">
+        <v>2.38</v>
+      </c>
+      <c r="AI231">
+        <v>1.53</v>
+      </c>
+      <c r="AJ231">
+        <v>2.38</v>
+      </c>
+      <c r="AK231">
+        <v>1.86</v>
+      </c>
+      <c r="AL231">
+        <v>1.29</v>
+      </c>
+      <c r="AM231">
+        <v>1.31</v>
+      </c>
+      <c r="AN231">
+        <v>1.14</v>
+      </c>
+      <c r="AO231">
+        <v>1.36</v>
+      </c>
+      <c r="AP231">
+        <v>1.07</v>
+      </c>
+      <c r="AQ231">
+        <v>1.47</v>
+      </c>
+      <c r="AR231">
+        <v>1.23</v>
+      </c>
+      <c r="AS231">
+        <v>1.59</v>
+      </c>
+      <c r="AT231">
+        <v>2.82</v>
+      </c>
+      <c r="AU231">
+        <v>0</v>
+      </c>
+      <c r="AV231">
+        <v>4</v>
+      </c>
+      <c r="AW231">
+        <v>7</v>
+      </c>
+      <c r="AX231">
+        <v>5</v>
+      </c>
+      <c r="AY231">
+        <v>7</v>
+      </c>
+      <c r="AZ231">
+        <v>9</v>
+      </c>
+      <c r="BA231">
+        <v>5</v>
+      </c>
+      <c r="BB231">
+        <v>13</v>
+      </c>
+      <c r="BC231">
+        <v>18</v>
+      </c>
+      <c r="BD231">
+        <v>2.64</v>
+      </c>
+      <c r="BE231">
+        <v>9.5</v>
+      </c>
+      <c r="BF231">
+        <v>1.61</v>
+      </c>
+      <c r="BG231">
+        <v>1.16</v>
+      </c>
+      <c r="BH231">
+        <v>4.9</v>
+      </c>
+      <c r="BI231">
+        <v>1.28</v>
+      </c>
+      <c r="BJ231">
+        <v>3.18</v>
+      </c>
+      <c r="BK231">
+        <v>2</v>
+      </c>
+      <c r="BL231">
+        <v>2.27</v>
+      </c>
+      <c r="BM231">
+        <v>1.96</v>
+      </c>
+      <c r="BN231">
+        <v>1.83</v>
+      </c>
+      <c r="BO231">
+        <v>2.46</v>
+      </c>
+      <c r="BP231">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>6676177</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>79</v>
+      </c>
+      <c r="H232" t="s">
+        <v>74</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>241</v>
+      </c>
+      <c r="P232" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q232">
+        <v>3.4</v>
+      </c>
+      <c r="R232">
+        <v>2.25</v>
+      </c>
+      <c r="S232">
+        <v>2.75</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3.32</v>
+      </c>
+      <c r="V232">
+        <v>2.64</v>
+      </c>
+      <c r="W232">
+        <v>1.48</v>
+      </c>
+      <c r="X232">
+        <v>5.75</v>
+      </c>
+      <c r="Y232">
+        <v>1.1</v>
+      </c>
+      <c r="Z232">
+        <v>3</v>
+      </c>
+      <c r="AA232">
+        <v>3.8</v>
+      </c>
+      <c r="AB232">
+        <v>2.1</v>
+      </c>
+      <c r="AC232">
+        <v>1.04</v>
+      </c>
+      <c r="AD232">
+        <v>10.5</v>
+      </c>
+      <c r="AE232">
+        <v>1.25</v>
+      </c>
+      <c r="AF232">
+        <v>4</v>
+      </c>
+      <c r="AG232">
+        <v>1.7</v>
+      </c>
+      <c r="AH232">
+        <v>2.1</v>
+      </c>
+      <c r="AI232">
+        <v>1.67</v>
+      </c>
+      <c r="AJ232">
+        <v>2.1</v>
+      </c>
+      <c r="AK232">
+        <v>2.12</v>
+      </c>
+      <c r="AL232">
+        <v>1.29</v>
+      </c>
+      <c r="AM232">
+        <v>1.25</v>
+      </c>
+      <c r="AN232">
+        <v>1.07</v>
+      </c>
+      <c r="AO232">
+        <v>1.71</v>
+      </c>
+      <c r="AP232">
+        <v>1.2</v>
+      </c>
+      <c r="AQ232">
+        <v>1.6</v>
+      </c>
+      <c r="AR232">
+        <v>1.39</v>
+      </c>
+      <c r="AS232">
+        <v>1.39</v>
+      </c>
+      <c r="AT232">
+        <v>2.78</v>
+      </c>
+      <c r="AU232">
+        <v>2</v>
+      </c>
+      <c r="AV232">
+        <v>2</v>
+      </c>
+      <c r="AW232">
+        <v>5</v>
+      </c>
+      <c r="AX232">
+        <v>8</v>
+      </c>
+      <c r="AY232">
+        <v>7</v>
+      </c>
+      <c r="AZ232">
+        <v>10</v>
+      </c>
+      <c r="BA232">
+        <v>2</v>
+      </c>
+      <c r="BB232">
+        <v>10</v>
+      </c>
+      <c r="BC232">
+        <v>12</v>
+      </c>
+      <c r="BD232">
+        <v>2.74</v>
+      </c>
+      <c r="BE232">
+        <v>9</v>
+      </c>
+      <c r="BF232">
+        <v>1.59</v>
+      </c>
+      <c r="BG232">
+        <v>1.23</v>
+      </c>
+      <c r="BH232">
+        <v>3.56</v>
+      </c>
+      <c r="BI232">
+        <v>1.49</v>
+      </c>
+      <c r="BJ232">
+        <v>2.51</v>
+      </c>
+      <c r="BK232">
+        <v>2.38</v>
+      </c>
+      <c r="BL232">
+        <v>1.97</v>
+      </c>
+      <c r="BM232">
+        <v>2.26</v>
+      </c>
+      <c r="BN232">
+        <v>1.61</v>
+      </c>
+      <c r="BO232">
+        <v>3.04</v>
+      </c>
+      <c r="BP232">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>6676181</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45432.45833333334</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>77</v>
+      </c>
+      <c r="H233" t="s">
+        <v>73</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233" t="s">
+        <v>86</v>
+      </c>
+      <c r="P233" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q233">
+        <v>3.25</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>2.88</v>
+      </c>
+      <c r="T233">
+        <v>1.36</v>
+      </c>
+      <c r="U233">
+        <v>3.05</v>
+      </c>
+      <c r="V233">
+        <v>2.82</v>
+      </c>
+      <c r="W233">
+        <v>1.41</v>
+      </c>
+      <c r="X233">
+        <v>6.5</v>
+      </c>
+      <c r="Y233">
+        <v>1.08</v>
+      </c>
+      <c r="Z233">
+        <v>2.9</v>
+      </c>
+      <c r="AA233">
+        <v>3.4</v>
+      </c>
+      <c r="AB233">
+        <v>2.35</v>
+      </c>
+      <c r="AC233">
+        <v>1.03</v>
+      </c>
+      <c r="AD233">
+        <v>9</v>
+      </c>
+      <c r="AE233">
+        <v>1.31</v>
+      </c>
+      <c r="AF233">
+        <v>3.3</v>
+      </c>
+      <c r="AG233">
+        <v>1.85</v>
+      </c>
+      <c r="AH233">
+        <v>1.95</v>
+      </c>
+      <c r="AI233">
+        <v>1.67</v>
+      </c>
+      <c r="AJ233">
+        <v>2.1</v>
+      </c>
+      <c r="AK233">
+        <v>1.94</v>
+      </c>
+      <c r="AL233">
+        <v>1.34</v>
+      </c>
+      <c r="AM233">
+        <v>1.31</v>
+      </c>
+      <c r="AN233">
+        <v>1.79</v>
+      </c>
+      <c r="AO233">
+        <v>2.43</v>
+      </c>
+      <c r="AP233">
+        <v>1.73</v>
+      </c>
+      <c r="AQ233">
+        <v>2.33</v>
+      </c>
+      <c r="AR233">
+        <v>1.51</v>
+      </c>
+      <c r="AS233">
+        <v>1.54</v>
+      </c>
+      <c r="AT233">
+        <v>3.05</v>
+      </c>
+      <c r="AU233">
+        <v>7</v>
+      </c>
+      <c r="AV233">
+        <v>3</v>
+      </c>
+      <c r="AW233">
+        <v>15</v>
+      </c>
+      <c r="AX233">
+        <v>2</v>
+      </c>
+      <c r="AY233">
+        <v>22</v>
+      </c>
+      <c r="AZ233">
+        <v>5</v>
+      </c>
+      <c r="BA233">
+        <v>3</v>
+      </c>
+      <c r="BB233">
+        <v>3</v>
+      </c>
+      <c r="BC233">
+        <v>6</v>
+      </c>
+      <c r="BD233">
+        <v>2.19</v>
+      </c>
+      <c r="BE233">
+        <v>9</v>
+      </c>
+      <c r="BF233">
+        <v>1.86</v>
+      </c>
+      <c r="BG233">
+        <v>1.19</v>
+      </c>
+      <c r="BH233">
+        <v>4.4</v>
+      </c>
+      <c r="BI233">
+        <v>1.33</v>
+      </c>
+      <c r="BJ233">
+        <v>2.91</v>
+      </c>
+      <c r="BK233">
+        <v>2.1</v>
+      </c>
+      <c r="BL233">
+        <v>2.19</v>
+      </c>
+      <c r="BM233">
+        <v>2.04</v>
+      </c>
+      <c r="BN233">
+        <v>1.76</v>
+      </c>
+      <c r="BO233">
+        <v>2.6</v>
+      </c>
+      <c r="BP233">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -48981,19 +48981,19 @@
         <v>2.82</v>
       </c>
       <c r="AU231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV231">
         <v>4</v>
       </c>
       <c r="AW231">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX231">
         <v>5</v>
       </c>
       <c r="AY231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ231">
         <v>9</v>
@@ -49187,7 +49187,7 @@
         <v>2.78</v>
       </c>
       <c r="AU232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV232">
         <v>2</v>
@@ -49199,7 +49199,7 @@
         <v>8</v>
       </c>
       <c r="AY232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ232">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Austria 2. Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,21 @@
     <t>['84', '90+1']</t>
   </si>
   <si>
+    <t>['5', '37']</t>
+  </si>
+  <si>
+    <t>['37', '42', '46', '90+1']</t>
+  </si>
+  <si>
+    <t>['28', '56']</t>
+  </si>
+  <si>
+    <t>['26', '30', '37', '71']</t>
+  </si>
+  <si>
+    <t>['22', '31', '33', '54']</t>
+  </si>
+  <si>
     <t>['14', '37']</t>
   </si>
   <si>
@@ -1094,6 +1109,18 @@
   </si>
   <si>
     <t>['78', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['49', '84', '90']</t>
+  </si>
+  <si>
+    <t>['8', '57']</t>
+  </si>
+  <si>
+    <t>['45+1', '55']</t>
+  </si>
+  <si>
+    <t>['67', '73', '89']</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1792,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1998,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -2207,7 +2234,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2410,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ5">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2538,7 +2565,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q6">
         <v>2.6</v>
@@ -2616,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0.93</v>
@@ -2950,7 +2977,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -3031,7 +3058,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3443,7 +3470,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3568,7 +3595,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3774,7 +3801,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>2.75</v>
@@ -3852,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12">
         <v>1.6</v>
@@ -4061,7 +4088,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4186,7 +4213,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4264,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4392,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>2.4</v>
@@ -4598,7 +4625,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q16">
         <v>2.4</v>
@@ -4676,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4804,7 +4831,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q17">
         <v>2</v>
@@ -5294,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ19">
         <v>1.6</v>
@@ -5422,7 +5449,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5500,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>2.33</v>
@@ -5709,7 +5736,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ21">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5834,7 +5861,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>2.5</v>
@@ -5912,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ22">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -6040,7 +6067,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6121,7 +6148,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ23">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR23">
         <v>0.95</v>
@@ -6324,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
         <v>2.33</v>
@@ -6530,7 +6557,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>1.53</v>
@@ -6658,7 +6685,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6942,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27">
         <v>1.4</v>
@@ -7151,7 +7178,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7354,7 +7381,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -7560,10 +7587,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7769,7 +7796,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>0.9399999999999999</v>
@@ -7894,7 +7921,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7975,7 +8002,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.13</v>
@@ -8100,7 +8127,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8178,7 +8205,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
         <v>1.47</v>
@@ -8387,7 +8414,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR34">
         <v>1.36</v>
@@ -8512,7 +8539,7 @@
         <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8590,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
         <v>1.4</v>
@@ -8718,7 +8745,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>2.3</v>
@@ -8799,7 +8826,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ36">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR36">
         <v>1.34</v>
@@ -8924,7 +8951,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>2.4</v>
@@ -9002,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
         <v>0.93</v>
@@ -9130,7 +9157,7 @@
         <v>117</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>3.4</v>
@@ -9208,7 +9235,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -9336,7 +9363,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>2.75</v>
@@ -9748,7 +9775,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9829,7 +9856,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ41">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
         <v>1.32</v>
@@ -10032,7 +10059,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.07</v>
@@ -10241,7 +10268,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -10366,7 +10393,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10447,7 +10474,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.46</v>
@@ -10572,7 +10599,7 @@
         <v>122</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>2.38</v>
@@ -10856,7 +10883,7 @@
         <v>0.67</v>
       </c>
       <c r="AP46">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ46">
         <v>1.6</v>
@@ -11062,10 +11089,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ47">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.52</v>
@@ -11268,10 +11295,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.46</v>
@@ -11396,7 +11423,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11602,7 +11629,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q50">
         <v>2.63</v>
@@ -11683,7 +11710,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11808,7 +11835,7 @@
         <v>92</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -12095,7 +12122,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.24</v>
@@ -12426,7 +12453,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>2.75</v>
@@ -12504,7 +12531,7 @@
         <v>0.33</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1.07</v>
@@ -12632,7 +12659,7 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>3.75</v>
@@ -12710,7 +12737,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55">
         <v>2.33</v>
@@ -12838,7 +12865,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -13122,10 +13149,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
         <v>1.44</v>
@@ -13250,7 +13277,7 @@
         <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q58">
         <v>3.25</v>
@@ -13328,10 +13355,10 @@
         <v>0.67</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ58">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13456,7 +13483,7 @@
         <v>105</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q59">
         <v>3.2</v>
@@ -13537,7 +13564,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ59">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.3</v>
@@ -13662,7 +13689,7 @@
         <v>133</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13740,10 +13767,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13868,7 +13895,7 @@
         <v>134</v>
       </c>
       <c r="P61" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>3.5</v>
@@ -13949,7 +13976,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ61">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.68</v>
@@ -14152,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ62">
         <v>1.47</v>
@@ -14358,10 +14385,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -14564,7 +14591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ64">
         <v>1.6</v>
@@ -14770,10 +14797,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.61</v>
@@ -14898,7 +14925,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>2.88</v>
@@ -14976,7 +15003,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>1.6</v>
@@ -15104,7 +15131,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15388,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
         <v>0.93</v>
@@ -15516,7 +15543,7 @@
         <v>128</v>
       </c>
       <c r="P69" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>2.88</v>
@@ -15722,7 +15749,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -16009,7 +16036,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ71">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR71">
         <v>1.04</v>
@@ -16134,7 +16161,7 @@
         <v>142</v>
       </c>
       <c r="P72" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -16340,7 +16367,7 @@
         <v>143</v>
       </c>
       <c r="P73" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>2.63</v>
@@ -16421,7 +16448,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ73">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR73">
         <v>1.26</v>
@@ -16546,7 +16573,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.6</v>
@@ -16624,10 +16651,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR74">
         <v>1.68</v>
@@ -16752,7 +16779,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -16830,10 +16857,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -17036,10 +17063,10 @@
         <v>0.75</v>
       </c>
       <c r="AP76">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17164,7 +17191,7 @@
         <v>146</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>4.75</v>
@@ -17370,7 +17397,7 @@
         <v>147</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17448,10 +17475,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17576,7 +17603,7 @@
         <v>148</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17657,7 +17684,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.11</v>
@@ -17860,7 +17887,7 @@
         <v>2.4</v>
       </c>
       <c r="AP80">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ80">
         <v>1.53</v>
@@ -18066,10 +18093,10 @@
         <v>0.5</v>
       </c>
       <c r="AP81">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR81">
         <v>1.34</v>
@@ -18275,7 +18302,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ82">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR82">
         <v>1.55</v>
@@ -18478,7 +18505,7 @@
         <v>1.8</v>
       </c>
       <c r="AP83">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ83">
         <v>1.4</v>
@@ -18606,7 +18633,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -19302,7 +19329,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ87">
         <v>0.93</v>
@@ -19430,7 +19457,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q88">
         <v>2.4</v>
@@ -19511,7 +19538,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ88">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.11</v>
@@ -19636,7 +19663,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -19842,7 +19869,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>4.33</v>
@@ -19923,7 +19950,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR90">
         <v>1.3</v>
@@ -20048,7 +20075,7 @@
         <v>156</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20126,10 +20153,10 @@
         <v>0.6</v>
       </c>
       <c r="AP91">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.52</v>
@@ -20254,7 +20281,7 @@
         <v>111</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20332,7 +20359,7 @@
         <v>2.17</v>
       </c>
       <c r="AP92">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
         <v>2.33</v>
@@ -20460,7 +20487,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20541,7 +20568,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ93">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20666,7 +20693,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q94">
         <v>2.25</v>
@@ -20747,7 +20774,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.62</v>
@@ -20950,7 +20977,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.47</v>
@@ -21156,7 +21183,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ96">
         <v>1.53</v>
@@ -21362,10 +21389,10 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ97">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR97">
         <v>1.64</v>
@@ -21777,7 +21804,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ99">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.57</v>
@@ -21902,7 +21929,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q100">
         <v>2.3</v>
@@ -21980,10 +22007,10 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR100">
         <v>1.36</v>
@@ -22395,7 +22422,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ102">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22598,7 +22625,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ103">
         <v>1.6</v>
@@ -22804,7 +22831,7 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ104">
         <v>1.07</v>
@@ -23010,10 +23037,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR105">
         <v>1.18</v>
@@ -23138,7 +23165,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q106">
         <v>2.05</v>
@@ -23216,10 +23243,10 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
         <v>1.24</v>
@@ -23422,10 +23449,10 @@
         <v>0.29</v>
       </c>
       <c r="AP107">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ107">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23628,10 +23655,10 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ108">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23756,7 +23783,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q109">
         <v>4.5</v>
@@ -23834,10 +23861,10 @@
         <v>1.83</v>
       </c>
       <c r="AP109">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR109">
         <v>1.28</v>
@@ -24040,10 +24067,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24168,7 +24195,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q111">
         <v>2.38</v>
@@ -24246,10 +24273,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ111">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR111">
         <v>2.1</v>
@@ -24452,10 +24479,10 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24580,7 +24607,7 @@
         <v>86</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -24992,7 +25019,7 @@
         <v>172</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>4.33</v>
@@ -25198,7 +25225,7 @@
         <v>86</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>6.5</v>
@@ -25404,7 +25431,7 @@
         <v>173</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25610,7 +25637,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25816,7 +25843,7 @@
         <v>138</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -26022,7 +26049,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>4.33</v>
@@ -26228,7 +26255,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -26306,10 +26333,10 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR121">
         <v>1.24</v>
@@ -26515,7 +26542,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26640,7 +26667,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q123">
         <v>2.63</v>
@@ -26721,7 +26748,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ123">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26846,7 +26873,7 @@
         <v>86</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -27052,7 +27079,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>3.75</v>
@@ -27130,7 +27157,7 @@
         <v>1.57</v>
       </c>
       <c r="AP125">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>1.6</v>
@@ -27258,7 +27285,7 @@
         <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>2.2</v>
@@ -27336,10 +27363,10 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ126">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR126">
         <v>1.72</v>
@@ -27464,7 +27491,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -27670,7 +27697,7 @@
         <v>112</v>
       </c>
       <c r="P128" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -27876,7 +27903,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27954,7 +27981,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1.53</v>
@@ -28160,7 +28187,7 @@
         <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ130">
         <v>1.07</v>
@@ -28369,7 +28396,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ131">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.59</v>
@@ -28572,7 +28599,7 @@
         <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
         <v>0.93</v>
@@ -28781,7 +28808,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ133">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR133">
         <v>1.62</v>
@@ -28906,7 +28933,7 @@
         <v>86</v>
       </c>
       <c r="P134" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28984,10 +29011,10 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ134">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR134">
         <v>1.31</v>
@@ -29190,10 +29217,10 @@
         <v>0.57</v>
       </c>
       <c r="AP135">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ135">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.96</v>
@@ -29524,7 +29551,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30014,7 +30041,7 @@
         <v>1.11</v>
       </c>
       <c r="AP139">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ139">
         <v>1.07</v>
@@ -30223,7 +30250,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR140">
         <v>1.57</v>
@@ -30348,7 +30375,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30426,7 +30453,7 @@
         <v>1.56</v>
       </c>
       <c r="AP141">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ141">
         <v>1.4</v>
@@ -30554,7 +30581,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>3.1</v>
@@ -30760,7 +30787,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>3.6</v>
@@ -30838,10 +30865,10 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ143">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR143">
         <v>1.5</v>
@@ -30966,7 +30993,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31047,7 +31074,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ144">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.29</v>
@@ -31250,10 +31277,10 @@
         <v>0.75</v>
       </c>
       <c r="AP145">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ145">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR145">
         <v>1.41</v>
@@ -31459,7 +31486,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ146">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR146">
         <v>1.54</v>
@@ -31584,7 +31611,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31665,7 +31692,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR147">
         <v>1.51</v>
@@ -31868,7 +31895,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ148">
         <v>1.47</v>
@@ -31996,7 +32023,7 @@
         <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>2.5</v>
@@ -32074,7 +32101,7 @@
         <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32202,7 +32229,7 @@
         <v>86</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32280,10 +32307,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ150">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR150">
         <v>1.19</v>
@@ -32486,7 +32513,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ151">
         <v>1.6</v>
@@ -32695,7 +32722,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ152">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.58</v>
@@ -33104,7 +33131,7 @@
         <v>1.89</v>
       </c>
       <c r="AP154">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>1.6</v>
@@ -33232,7 +33259,7 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q155">
         <v>3.6</v>
@@ -33313,7 +33340,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ155">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR155">
         <v>1.39</v>
@@ -33438,7 +33465,7 @@
         <v>193</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33516,7 +33543,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
         <v>1.47</v>
@@ -33722,10 +33749,10 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ157">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.88</v>
@@ -33928,7 +33955,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ158">
         <v>1.07</v>
@@ -34137,7 +34164,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ159">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR159">
         <v>1.59</v>
@@ -34262,7 +34289,7 @@
         <v>197</v>
       </c>
       <c r="P160" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q160">
         <v>2.3</v>
@@ -34343,7 +34370,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34468,7 +34495,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q161">
         <v>2.3</v>
@@ -34546,10 +34573,10 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.26</v>
@@ -34674,7 +34701,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>2.1</v>
@@ -34755,7 +34782,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ162">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR162">
         <v>1.67</v>
@@ -34958,10 +34985,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ163">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR163">
         <v>1.57</v>
@@ -35164,7 +35191,7 @@
         <v>2.5</v>
       </c>
       <c r="AP164">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ164">
         <v>2.33</v>
@@ -35704,7 +35731,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35782,7 +35809,7 @@
         <v>1.5</v>
       </c>
       <c r="AP167">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167">
         <v>1.4</v>
@@ -35910,7 +35937,7 @@
         <v>203</v>
       </c>
       <c r="P168" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35991,7 +36018,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ168">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR168">
         <v>1.17</v>
@@ -36194,10 +36221,10 @@
         <v>1.67</v>
       </c>
       <c r="AP169">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ169">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR169">
         <v>1.51</v>
@@ -36322,7 +36349,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q170">
         <v>4.33</v>
@@ -36400,7 +36427,7 @@
         <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ170">
         <v>1.47</v>
@@ -36528,7 +36555,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36606,10 +36633,10 @@
         <v>1.7</v>
       </c>
       <c r="AP171">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36734,7 +36761,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q172">
         <v>2.88</v>
@@ -36812,10 +36839,10 @@
         <v>1.1</v>
       </c>
       <c r="AP172">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ172">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.41</v>
@@ -36940,7 +36967,7 @@
         <v>101</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>4.75</v>
@@ -37224,7 +37251,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ174">
         <v>1.6</v>
@@ -37433,7 +37460,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ175">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.4</v>
@@ -37558,7 +37585,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37636,10 +37663,10 @@
         <v>0.6</v>
       </c>
       <c r="AP176">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ176">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR176">
         <v>1.28</v>
@@ -37845,7 +37872,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ177">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR177">
         <v>1.52</v>
@@ -38048,7 +38075,7 @@
         <v>2.55</v>
       </c>
       <c r="AP178">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ178">
         <v>2.33</v>
@@ -38176,7 +38203,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38382,7 +38409,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>3.2</v>
@@ -38463,7 +38490,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ180">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR180">
         <v>1.65</v>
@@ -38794,7 +38821,7 @@
         <v>86</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>3.5</v>
@@ -39078,7 +39105,7 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ183">
         <v>1.53</v>
@@ -39206,7 +39233,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>2.88</v>
@@ -39287,7 +39314,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ184">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR184">
         <v>1.46</v>
@@ -39618,7 +39645,7 @@
         <v>112</v>
       </c>
       <c r="P186" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>2.75</v>
@@ -39696,7 +39723,7 @@
         <v>1.27</v>
       </c>
       <c r="AP186">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ186">
         <v>1.47</v>
@@ -39905,7 +39932,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ187">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR187">
         <v>1.48</v>
@@ -40030,7 +40057,7 @@
         <v>100</v>
       </c>
       <c r="P188" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>2.5</v>
@@ -40111,7 +40138,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ188">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR188">
         <v>1.47</v>
@@ -40314,10 +40341,10 @@
         <v>1</v>
       </c>
       <c r="AP189">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR189">
         <v>1.36</v>
@@ -40442,7 +40469,7 @@
         <v>86</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>5.5</v>
@@ -40520,7 +40547,7 @@
         <v>1.36</v>
       </c>
       <c r="AP190">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ190">
         <v>1.6</v>
@@ -40648,7 +40675,7 @@
         <v>86</v>
       </c>
       <c r="P191" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -40726,10 +40753,10 @@
         <v>1.45</v>
       </c>
       <c r="AP191">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ191">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR191">
         <v>1.32</v>
@@ -40854,7 +40881,7 @@
         <v>217</v>
       </c>
       <c r="P192" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -40932,10 +40959,10 @@
         <v>0.91</v>
       </c>
       <c r="AP192">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ192">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.19</v>
@@ -41060,7 +41087,7 @@
         <v>218</v>
       </c>
       <c r="P193" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q193">
         <v>2.5</v>
@@ -41138,10 +41165,10 @@
         <v>1.55</v>
       </c>
       <c r="AP193">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ193">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR193">
         <v>1.8</v>
@@ -41266,7 +41293,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q194">
         <v>4.33</v>
@@ -41472,7 +41499,7 @@
         <v>173</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -41756,10 +41783,10 @@
         <v>0.75</v>
       </c>
       <c r="AP196">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ196">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR196">
         <v>1.78</v>
@@ -42090,7 +42117,7 @@
         <v>86</v>
       </c>
       <c r="P198" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q198">
         <v>5.5</v>
@@ -42168,7 +42195,7 @@
         <v>2.33</v>
       </c>
       <c r="AP198">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ198">
         <v>2.33</v>
@@ -42296,7 +42323,7 @@
         <v>221</v>
       </c>
       <c r="P199" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -42377,7 +42404,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ199">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.26</v>
@@ -42708,7 +42735,7 @@
         <v>131</v>
       </c>
       <c r="P201" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q201">
         <v>2</v>
@@ -42914,7 +42941,7 @@
         <v>222</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -42995,7 +43022,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ202">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR202">
         <v>1.5</v>
@@ -43120,7 +43147,7 @@
         <v>154</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43201,7 +43228,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ203">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR203">
         <v>1.38</v>
@@ -43326,7 +43353,7 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q204">
         <v>1.8</v>
@@ -43404,10 +43431,10 @@
         <v>0.83</v>
       </c>
       <c r="AP204">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ204">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR204">
         <v>1.53</v>
@@ -43610,10 +43637,10 @@
         <v>1.42</v>
       </c>
       <c r="AP205">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ205">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR205">
         <v>1.57</v>
@@ -43816,10 +43843,10 @@
         <v>0.92</v>
       </c>
       <c r="AP206">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ206">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR206">
         <v>1.22</v>
@@ -44022,10 +44049,10 @@
         <v>1.25</v>
       </c>
       <c r="AP207">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ207">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR207">
         <v>1.78</v>
@@ -44228,7 +44255,7 @@
         <v>1.83</v>
       </c>
       <c r="AP208">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ208">
         <v>1.53</v>
@@ -44356,7 +44383,7 @@
         <v>226</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q209">
         <v>4.5</v>
@@ -44434,7 +44461,7 @@
         <v>1.5</v>
       </c>
       <c r="AP209">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ209">
         <v>1.6</v>
@@ -44768,7 +44795,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44846,7 +44873,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AQ211">
         <v>1.07</v>
@@ -45052,7 +45079,7 @@
         <v>1.15</v>
       </c>
       <c r="AP212">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ212">
         <v>1.4</v>
@@ -45180,7 +45207,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q213">
         <v>4.5</v>
@@ -45386,7 +45413,7 @@
         <v>228</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q214">
         <v>2.6</v>
@@ -45467,7 +45494,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ214">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR214">
         <v>1.5</v>
@@ -45592,7 +45619,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -45670,7 +45697,7 @@
         <v>0.92</v>
       </c>
       <c r="AP215">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ215">
         <v>0.93</v>
@@ -45798,7 +45825,7 @@
         <v>230</v>
       </c>
       <c r="P216" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q216">
         <v>3.1</v>
@@ -45879,7 +45906,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ216">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR216">
         <v>1.27</v>
@@ -46004,7 +46031,7 @@
         <v>231</v>
       </c>
       <c r="P217" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46085,7 +46112,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ217">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AR217">
         <v>1.23</v>
@@ -46210,7 +46237,7 @@
         <v>232</v>
       </c>
       <c r="P218" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46288,10 +46315,10 @@
         <v>1.46</v>
       </c>
       <c r="AP218">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ218">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR218">
         <v>1.31</v>
@@ -46416,7 +46443,7 @@
         <v>138</v>
       </c>
       <c r="P219" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q219">
         <v>3.75</v>
@@ -46497,7 +46524,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ219">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR219">
         <v>1.41</v>
@@ -46828,7 +46855,7 @@
         <v>233</v>
       </c>
       <c r="P221" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -46906,7 +46933,7 @@
         <v>2.38</v>
       </c>
       <c r="AP221">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ221">
         <v>2.33</v>
@@ -47034,7 +47061,7 @@
         <v>234</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q222">
         <v>2.3</v>
@@ -47112,10 +47139,10 @@
         <v>1.46</v>
       </c>
       <c r="AP222">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ222">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR222">
         <v>1.32</v>
@@ -47318,10 +47345,10 @@
         <v>0.77</v>
       </c>
       <c r="AP223">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ223">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR223">
         <v>1.8</v>
@@ -47446,7 +47473,7 @@
         <v>236</v>
       </c>
       <c r="P224" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -47527,7 +47554,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ224">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR224">
         <v>1.39</v>
@@ -47730,7 +47757,7 @@
         <v>1.69</v>
       </c>
       <c r="AP225">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ225">
         <v>1.53</v>
@@ -47858,7 +47885,7 @@
         <v>238</v>
       </c>
       <c r="P226" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q226">
         <v>2.1</v>
@@ -48270,7 +48297,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q228">
         <v>5.5</v>
@@ -48682,7 +48709,7 @@
         <v>86</v>
       </c>
       <c r="P230" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q230">
         <v>2.5</v>
@@ -48888,7 +48915,7 @@
         <v>212</v>
       </c>
       <c r="P231" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q231">
         <v>3.4</v>
@@ -49457,6 +49484,1654 @@
       </c>
       <c r="BP233">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>6676194</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>85</v>
+      </c>
+      <c r="H234" t="s">
+        <v>78</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234" t="s">
+        <v>107</v>
+      </c>
+      <c r="P234" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q234">
+        <v>3.1</v>
+      </c>
+      <c r="R234">
+        <v>2.3</v>
+      </c>
+      <c r="S234">
+        <v>2.75</v>
+      </c>
+      <c r="T234">
+        <v>1.29</v>
+      </c>
+      <c r="U234">
+        <v>3.3</v>
+      </c>
+      <c r="V234">
+        <v>2.25</v>
+      </c>
+      <c r="W234">
+        <v>1.57</v>
+      </c>
+      <c r="X234">
+        <v>5</v>
+      </c>
+      <c r="Y234">
+        <v>1.13</v>
+      </c>
+      <c r="Z234">
+        <v>2.75</v>
+      </c>
+      <c r="AA234">
+        <v>3.8</v>
+      </c>
+      <c r="AB234">
+        <v>2.25</v>
+      </c>
+      <c r="AC234">
+        <v>1.01</v>
+      </c>
+      <c r="AD234">
+        <v>12</v>
+      </c>
+      <c r="AE234">
+        <v>1.18</v>
+      </c>
+      <c r="AF234">
+        <v>4.33</v>
+      </c>
+      <c r="AG234">
+        <v>1.57</v>
+      </c>
+      <c r="AH234">
+        <v>2.35</v>
+      </c>
+      <c r="AI234">
+        <v>1.5</v>
+      </c>
+      <c r="AJ234">
+        <v>2.5</v>
+      </c>
+      <c r="AK234">
+        <v>1.61</v>
+      </c>
+      <c r="AL234">
+        <v>1.2</v>
+      </c>
+      <c r="AM234">
+        <v>1.3</v>
+      </c>
+      <c r="AN234">
+        <v>1.93</v>
+      </c>
+      <c r="AO234">
+        <v>1.29</v>
+      </c>
+      <c r="AP234">
+        <v>1.8</v>
+      </c>
+      <c r="AQ234">
+        <v>1.4</v>
+      </c>
+      <c r="AR234">
+        <v>1.31</v>
+      </c>
+      <c r="AS234">
+        <v>1.53</v>
+      </c>
+      <c r="AT234">
+        <v>2.84</v>
+      </c>
+      <c r="AU234">
+        <v>6</v>
+      </c>
+      <c r="AV234">
+        <v>4</v>
+      </c>
+      <c r="AW234">
+        <v>1</v>
+      </c>
+      <c r="AX234">
+        <v>17</v>
+      </c>
+      <c r="AY234">
+        <v>7</v>
+      </c>
+      <c r="AZ234">
+        <v>21</v>
+      </c>
+      <c r="BA234">
+        <v>7</v>
+      </c>
+      <c r="BB234">
+        <v>7</v>
+      </c>
+      <c r="BC234">
+        <v>14</v>
+      </c>
+      <c r="BD234">
+        <v>2.6</v>
+      </c>
+      <c r="BE234">
+        <v>9</v>
+      </c>
+      <c r="BF234">
+        <v>1.64</v>
+      </c>
+      <c r="BG234">
+        <v>1.18</v>
+      </c>
+      <c r="BH234">
+        <v>4.05</v>
+      </c>
+      <c r="BI234">
+        <v>1.36</v>
+      </c>
+      <c r="BJ234">
+        <v>2.78</v>
+      </c>
+      <c r="BK234">
+        <v>2.1</v>
+      </c>
+      <c r="BL234">
+        <v>2.08</v>
+      </c>
+      <c r="BM234">
+        <v>2.07</v>
+      </c>
+      <c r="BN234">
+        <v>1.64</v>
+      </c>
+      <c r="BO234">
+        <v>2.71</v>
+      </c>
+      <c r="BP234">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>6676186</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>80</v>
+      </c>
+      <c r="H235" t="s">
+        <v>77</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>242</v>
+      </c>
+      <c r="P235" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q235">
+        <v>3.1</v>
+      </c>
+      <c r="R235">
+        <v>2.3</v>
+      </c>
+      <c r="S235">
+        <v>2.75</v>
+      </c>
+      <c r="T235">
+        <v>1.3</v>
+      </c>
+      <c r="U235">
+        <v>3.2</v>
+      </c>
+      <c r="V235">
+        <v>2.4</v>
+      </c>
+      <c r="W235">
+        <v>1.5</v>
+      </c>
+      <c r="X235">
+        <v>5.5</v>
+      </c>
+      <c r="Y235">
+        <v>1.11</v>
+      </c>
+      <c r="Z235">
+        <v>2.8</v>
+      </c>
+      <c r="AA235">
+        <v>3.6</v>
+      </c>
+      <c r="AB235">
+        <v>2.3</v>
+      </c>
+      <c r="AC235">
+        <v>1.02</v>
+      </c>
+      <c r="AD235">
+        <v>10</v>
+      </c>
+      <c r="AE235">
+        <v>1.22</v>
+      </c>
+      <c r="AF235">
+        <v>3.8</v>
+      </c>
+      <c r="AG235">
+        <v>1.57</v>
+      </c>
+      <c r="AH235">
+        <v>2.35</v>
+      </c>
+      <c r="AI235">
+        <v>1.5</v>
+      </c>
+      <c r="AJ235">
+        <v>2.5</v>
+      </c>
+      <c r="AK235">
+        <v>1.43</v>
+      </c>
+      <c r="AL235">
+        <v>1.24</v>
+      </c>
+      <c r="AM235">
+        <v>1.4</v>
+      </c>
+      <c r="AN235">
+        <v>1.29</v>
+      </c>
+      <c r="AO235">
+        <v>1.57</v>
+      </c>
+      <c r="AP235">
+        <v>1.27</v>
+      </c>
+      <c r="AQ235">
+        <v>1.53</v>
+      </c>
+      <c r="AR235">
+        <v>1.27</v>
+      </c>
+      <c r="AS235">
+        <v>1.4</v>
+      </c>
+      <c r="AT235">
+        <v>2.67</v>
+      </c>
+      <c r="AU235">
+        <v>2</v>
+      </c>
+      <c r="AV235">
+        <v>3</v>
+      </c>
+      <c r="AW235">
+        <v>1</v>
+      </c>
+      <c r="AX235">
+        <v>7</v>
+      </c>
+      <c r="AY235">
+        <v>3</v>
+      </c>
+      <c r="AZ235">
+        <v>10</v>
+      </c>
+      <c r="BA235">
+        <v>1</v>
+      </c>
+      <c r="BB235">
+        <v>5</v>
+      </c>
+      <c r="BC235">
+        <v>6</v>
+      </c>
+      <c r="BD235">
+        <v>2.2</v>
+      </c>
+      <c r="BE235">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF235">
+        <v>1.86</v>
+      </c>
+      <c r="BG235">
+        <v>1.2</v>
+      </c>
+      <c r="BH235">
+        <v>3.88</v>
+      </c>
+      <c r="BI235">
+        <v>1.39</v>
+      </c>
+      <c r="BJ235">
+        <v>2.67</v>
+      </c>
+      <c r="BK235">
+        <v>2.2</v>
+      </c>
+      <c r="BL235">
+        <v>2.03</v>
+      </c>
+      <c r="BM235">
+        <v>2.14</v>
+      </c>
+      <c r="BN235">
+        <v>1.6</v>
+      </c>
+      <c r="BO235">
+        <v>2.84</v>
+      </c>
+      <c r="BP235">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>6676188</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>71</v>
+      </c>
+      <c r="H236" t="s">
+        <v>75</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>92</v>
+      </c>
+      <c r="P236" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q236">
+        <v>3.25</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>2.75</v>
+      </c>
+      <c r="T236">
+        <v>1.33</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.5</v>
+      </c>
+      <c r="W236">
+        <v>1.48</v>
+      </c>
+      <c r="X236">
+        <v>5.75</v>
+      </c>
+      <c r="Y236">
+        <v>1.1</v>
+      </c>
+      <c r="Z236">
+        <v>2.88</v>
+      </c>
+      <c r="AA236">
+        <v>3.8</v>
+      </c>
+      <c r="AB236">
+        <v>2.2</v>
+      </c>
+      <c r="AC236">
+        <v>1.02</v>
+      </c>
+      <c r="AD236">
+        <v>10</v>
+      </c>
+      <c r="AE236">
+        <v>1.25</v>
+      </c>
+      <c r="AF236">
+        <v>3.6</v>
+      </c>
+      <c r="AG236">
+        <v>1.7</v>
+      </c>
+      <c r="AH236">
+        <v>2.1</v>
+      </c>
+      <c r="AI236">
+        <v>1.62</v>
+      </c>
+      <c r="AJ236">
+        <v>2.2</v>
+      </c>
+      <c r="AK236">
+        <v>1.76</v>
+      </c>
+      <c r="AL236">
+        <v>1.22</v>
+      </c>
+      <c r="AM236">
+        <v>1.2</v>
+      </c>
+      <c r="AN236">
+        <v>0.93</v>
+      </c>
+      <c r="AO236">
+        <v>1.29</v>
+      </c>
+      <c r="AP236">
+        <v>1.07</v>
+      </c>
+      <c r="AQ236">
+        <v>1.2</v>
+      </c>
+      <c r="AR236">
+        <v>1.3</v>
+      </c>
+      <c r="AS236">
+        <v>1.5</v>
+      </c>
+      <c r="AT236">
+        <v>2.8</v>
+      </c>
+      <c r="AU236">
+        <v>3</v>
+      </c>
+      <c r="AV236">
+        <v>2</v>
+      </c>
+      <c r="AW236">
+        <v>3</v>
+      </c>
+      <c r="AX236">
+        <v>6</v>
+      </c>
+      <c r="AY236">
+        <v>6</v>
+      </c>
+      <c r="AZ236">
+        <v>8</v>
+      </c>
+      <c r="BA236">
+        <v>6</v>
+      </c>
+      <c r="BB236">
+        <v>4</v>
+      </c>
+      <c r="BC236">
+        <v>10</v>
+      </c>
+      <c r="BD236">
+        <v>2.64</v>
+      </c>
+      <c r="BE236">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF236">
+        <v>1.63</v>
+      </c>
+      <c r="BG236">
+        <v>1.3</v>
+      </c>
+      <c r="BH236">
+        <v>3.2</v>
+      </c>
+      <c r="BI236">
+        <v>1.54</v>
+      </c>
+      <c r="BJ236">
+        <v>2.33</v>
+      </c>
+      <c r="BK236">
+        <v>1.9</v>
+      </c>
+      <c r="BL236">
+        <v>1.81</v>
+      </c>
+      <c r="BM236">
+        <v>2.4</v>
+      </c>
+      <c r="BN236">
+        <v>1.51</v>
+      </c>
+      <c r="BO236">
+        <v>3.1</v>
+      </c>
+      <c r="BP236">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>6676189</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>82</v>
+      </c>
+      <c r="H237" t="s">
+        <v>79</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
+        <v>224</v>
+      </c>
+      <c r="P237" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q237">
+        <v>1.8</v>
+      </c>
+      <c r="R237">
+        <v>2.75</v>
+      </c>
+      <c r="S237">
+        <v>5.5</v>
+      </c>
+      <c r="T237">
+        <v>1.22</v>
+      </c>
+      <c r="U237">
+        <v>3.8</v>
+      </c>
+      <c r="V237">
+        <v>2.1</v>
+      </c>
+      <c r="W237">
+        <v>1.67</v>
+      </c>
+      <c r="X237">
+        <v>4.33</v>
+      </c>
+      <c r="Y237">
+        <v>1.18</v>
+      </c>
+      <c r="Z237">
+        <v>1.36</v>
+      </c>
+      <c r="AA237">
+        <v>5.25</v>
+      </c>
+      <c r="AB237">
+        <v>7</v>
+      </c>
+      <c r="AC237">
+        <v>1.01</v>
+      </c>
+      <c r="AD237">
+        <v>29</v>
+      </c>
+      <c r="AE237">
+        <v>1.11</v>
+      </c>
+      <c r="AF237">
+        <v>5.5</v>
+      </c>
+      <c r="AG237">
+        <v>1.36</v>
+      </c>
+      <c r="AH237">
+        <v>3</v>
+      </c>
+      <c r="AI237">
+        <v>1.57</v>
+      </c>
+      <c r="AJ237">
+        <v>2.25</v>
+      </c>
+      <c r="AK237">
+        <v>1.12</v>
+      </c>
+      <c r="AL237">
+        <v>1.11</v>
+      </c>
+      <c r="AM237">
+        <v>2.34</v>
+      </c>
+      <c r="AN237">
+        <v>2.29</v>
+      </c>
+      <c r="AO237">
+        <v>1.07</v>
+      </c>
+      <c r="AP237">
+        <v>2.33</v>
+      </c>
+      <c r="AQ237">
+        <v>1</v>
+      </c>
+      <c r="AR237">
+        <v>1.75</v>
+      </c>
+      <c r="AS237">
+        <v>1.04</v>
+      </c>
+      <c r="AT237">
+        <v>2.79</v>
+      </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
+      <c r="AV237">
+        <v>3</v>
+      </c>
+      <c r="AW237">
+        <v>9</v>
+      </c>
+      <c r="AX237">
+        <v>5</v>
+      </c>
+      <c r="AY237">
+        <v>14</v>
+      </c>
+      <c r="AZ237">
+        <v>8</v>
+      </c>
+      <c r="BA237">
+        <v>7</v>
+      </c>
+      <c r="BB237">
+        <v>2</v>
+      </c>
+      <c r="BC237">
+        <v>9</v>
+      </c>
+      <c r="BD237">
+        <v>1.21</v>
+      </c>
+      <c r="BE237">
+        <v>11.25</v>
+      </c>
+      <c r="BF237">
+        <v>5.25</v>
+      </c>
+      <c r="BG237">
+        <v>1.19</v>
+      </c>
+      <c r="BH237">
+        <v>3.9</v>
+      </c>
+      <c r="BI237">
+        <v>1.41</v>
+      </c>
+      <c r="BJ237">
+        <v>2.65</v>
+      </c>
+      <c r="BK237">
+        <v>1.67</v>
+      </c>
+      <c r="BL237">
+        <v>2.07</v>
+      </c>
+      <c r="BM237">
+        <v>2.1</v>
+      </c>
+      <c r="BN237">
+        <v>1.65</v>
+      </c>
+      <c r="BO237">
+        <v>2.65</v>
+      </c>
+      <c r="BP237">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>6676190</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>73</v>
+      </c>
+      <c r="H238" t="s">
+        <v>81</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>6</v>
+      </c>
+      <c r="O238" t="s">
+        <v>243</v>
+      </c>
+      <c r="P238" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q238">
+        <v>1.95</v>
+      </c>
+      <c r="R238">
+        <v>2.6</v>
+      </c>
+      <c r="S238">
+        <v>4.75</v>
+      </c>
+      <c r="T238">
+        <v>1.25</v>
+      </c>
+      <c r="U238">
+        <v>3.6</v>
+      </c>
+      <c r="V238">
+        <v>2.2</v>
+      </c>
+      <c r="W238">
+        <v>1.62</v>
+      </c>
+      <c r="X238">
+        <v>4.75</v>
+      </c>
+      <c r="Y238">
+        <v>1.15</v>
+      </c>
+      <c r="Z238">
+        <v>1.55</v>
+      </c>
+      <c r="AA238">
+        <v>4.5</v>
+      </c>
+      <c r="AB238">
+        <v>4.75</v>
+      </c>
+      <c r="AC238">
+        <v>1.01</v>
+      </c>
+      <c r="AD238">
+        <v>12</v>
+      </c>
+      <c r="AE238">
+        <v>1.15</v>
+      </c>
+      <c r="AF238">
+        <v>4.75</v>
+      </c>
+      <c r="AG238">
+        <v>1.44</v>
+      </c>
+      <c r="AH238">
+        <v>2.63</v>
+      </c>
+      <c r="AI238">
+        <v>1.53</v>
+      </c>
+      <c r="AJ238">
+        <v>2.38</v>
+      </c>
+      <c r="AK238">
+        <v>1.1</v>
+      </c>
+      <c r="AL238">
+        <v>1.14</v>
+      </c>
+      <c r="AM238">
+        <v>2.33</v>
+      </c>
+      <c r="AN238">
+        <v>2.21</v>
+      </c>
+      <c r="AO238">
+        <v>1.36</v>
+      </c>
+      <c r="AP238">
+        <v>2.27</v>
+      </c>
+      <c r="AQ238">
+        <v>1.27</v>
+      </c>
+      <c r="AR238">
+        <v>1.71</v>
+      </c>
+      <c r="AS238">
+        <v>1.13</v>
+      </c>
+      <c r="AT238">
+        <v>2.84</v>
+      </c>
+      <c r="AU238">
+        <v>8</v>
+      </c>
+      <c r="AV238">
+        <v>6</v>
+      </c>
+      <c r="AW238">
+        <v>7</v>
+      </c>
+      <c r="AX238">
+        <v>6</v>
+      </c>
+      <c r="AY238">
+        <v>15</v>
+      </c>
+      <c r="AZ238">
+        <v>12</v>
+      </c>
+      <c r="BA238">
+        <v>4</v>
+      </c>
+      <c r="BB238">
+        <v>5</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.29</v>
+      </c>
+      <c r="BE238">
+        <v>10.5</v>
+      </c>
+      <c r="BF238">
+        <v>4.25</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238">
+        <v>0</v>
+      </c>
+      <c r="BI238">
+        <v>1.31</v>
+      </c>
+      <c r="BJ238">
+        <v>3.04</v>
+      </c>
+      <c r="BK238">
+        <v>2.1</v>
+      </c>
+      <c r="BL238">
+        <v>2.21</v>
+      </c>
+      <c r="BM238">
+        <v>1.95</v>
+      </c>
+      <c r="BN238">
+        <v>1.76</v>
+      </c>
+      <c r="BO238">
+        <v>2.51</v>
+      </c>
+      <c r="BP238">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>6676191</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>74</v>
+      </c>
+      <c r="H239" t="s">
+        <v>76</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>244</v>
+      </c>
+      <c r="P239" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q239">
+        <v>1.8</v>
+      </c>
+      <c r="R239">
+        <v>2.75</v>
+      </c>
+      <c r="S239">
+        <v>5</v>
+      </c>
+      <c r="T239">
+        <v>1.2</v>
+      </c>
+      <c r="U239">
+        <v>4</v>
+      </c>
+      <c r="V239">
+        <v>1.91</v>
+      </c>
+      <c r="W239">
+        <v>1.8</v>
+      </c>
+      <c r="X239">
+        <v>3.8</v>
+      </c>
+      <c r="Y239">
+        <v>1.22</v>
+      </c>
+      <c r="Z239">
+        <v>1.4</v>
+      </c>
+      <c r="AA239">
+        <v>4.75</v>
+      </c>
+      <c r="AB239">
+        <v>6.5</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239">
+        <v>1.09</v>
+      </c>
+      <c r="AF239">
+        <v>6</v>
+      </c>
+      <c r="AG239">
+        <v>1.33</v>
+      </c>
+      <c r="AH239">
+        <v>3.25</v>
+      </c>
+      <c r="AI239">
+        <v>1.5</v>
+      </c>
+      <c r="AJ239">
+        <v>2.5</v>
+      </c>
+      <c r="AK239">
+        <v>1.08</v>
+      </c>
+      <c r="AL239">
+        <v>1.13</v>
+      </c>
+      <c r="AM239">
+        <v>3.4</v>
+      </c>
+      <c r="AN239">
+        <v>1.71</v>
+      </c>
+      <c r="AO239">
+        <v>0.71</v>
+      </c>
+      <c r="AP239">
+        <v>1.8</v>
+      </c>
+      <c r="AQ239">
+        <v>0.67</v>
+      </c>
+      <c r="AR239">
+        <v>1.54</v>
+      </c>
+      <c r="AS239">
+        <v>1.5</v>
+      </c>
+      <c r="AT239">
+        <v>3.04</v>
+      </c>
+      <c r="AU239">
+        <v>5</v>
+      </c>
+      <c r="AV239">
+        <v>4</v>
+      </c>
+      <c r="AW239">
+        <v>14</v>
+      </c>
+      <c r="AX239">
+        <v>3</v>
+      </c>
+      <c r="AY239">
+        <v>19</v>
+      </c>
+      <c r="AZ239">
+        <v>7</v>
+      </c>
+      <c r="BA239">
+        <v>10</v>
+      </c>
+      <c r="BB239">
+        <v>0</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.17</v>
+      </c>
+      <c r="BE239">
+        <v>10.5</v>
+      </c>
+      <c r="BF239">
+        <v>6.66</v>
+      </c>
+      <c r="BG239">
+        <v>0</v>
+      </c>
+      <c r="BH239">
+        <v>0</v>
+      </c>
+      <c r="BI239">
+        <v>1.4</v>
+      </c>
+      <c r="BJ239">
+        <v>2.7</v>
+      </c>
+      <c r="BK239">
+        <v>2.38</v>
+      </c>
+      <c r="BL239">
+        <v>2.07</v>
+      </c>
+      <c r="BM239">
+        <v>2.07</v>
+      </c>
+      <c r="BN239">
+        <v>1.67</v>
+      </c>
+      <c r="BO239">
+        <v>2.6</v>
+      </c>
+      <c r="BP239">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>6676193</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>84</v>
+      </c>
+      <c r="H240" t="s">
+        <v>83</v>
+      </c>
+      <c r="I240">
+        <v>3</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>4</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>5</v>
+      </c>
+      <c r="O240" t="s">
+        <v>245</v>
+      </c>
+      <c r="P240" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q240">
+        <v>2</v>
+      </c>
+      <c r="R240">
+        <v>2.75</v>
+      </c>
+      <c r="S240">
+        <v>4.33</v>
+      </c>
+      <c r="T240">
+        <v>1.25</v>
+      </c>
+      <c r="U240">
+        <v>3.6</v>
+      </c>
+      <c r="V240">
+        <v>2.2</v>
+      </c>
+      <c r="W240">
+        <v>1.62</v>
+      </c>
+      <c r="X240">
+        <v>4.75</v>
+      </c>
+      <c r="Y240">
+        <v>1.15</v>
+      </c>
+      <c r="Z240">
+        <v>1.55</v>
+      </c>
+      <c r="AA240">
+        <v>4.5</v>
+      </c>
+      <c r="AB240">
+        <v>4.5</v>
+      </c>
+      <c r="AC240">
+        <v>1.02</v>
+      </c>
+      <c r="AD240">
+        <v>12</v>
+      </c>
+      <c r="AE240">
+        <v>1.13</v>
+      </c>
+      <c r="AF240">
+        <v>5</v>
+      </c>
+      <c r="AG240">
+        <v>1.3</v>
+      </c>
+      <c r="AH240">
+        <v>3.4</v>
+      </c>
+      <c r="AI240">
+        <v>1.4</v>
+      </c>
+      <c r="AJ240">
+        <v>2.75</v>
+      </c>
+      <c r="AK240">
+        <v>1.17</v>
+      </c>
+      <c r="AL240">
+        <v>1.18</v>
+      </c>
+      <c r="AM240">
+        <v>1.93</v>
+      </c>
+      <c r="AN240">
+        <v>1.93</v>
+      </c>
+      <c r="AO240">
+        <v>0.64</v>
+      </c>
+      <c r="AP240">
+        <v>2</v>
+      </c>
+      <c r="AQ240">
+        <v>0.6</v>
+      </c>
+      <c r="AR240">
+        <v>1.36</v>
+      </c>
+      <c r="AS240">
+        <v>1.17</v>
+      </c>
+      <c r="AT240">
+        <v>2.53</v>
+      </c>
+      <c r="AU240">
+        <v>5</v>
+      </c>
+      <c r="AV240">
+        <v>4</v>
+      </c>
+      <c r="AW240">
+        <v>3</v>
+      </c>
+      <c r="AX240">
+        <v>2</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>6</v>
+      </c>
+      <c r="BA240">
+        <v>1</v>
+      </c>
+      <c r="BB240">
+        <v>10</v>
+      </c>
+      <c r="BC240">
+        <v>11</v>
+      </c>
+      <c r="BD240">
+        <v>1.58</v>
+      </c>
+      <c r="BE240">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF240">
+        <v>2.7</v>
+      </c>
+      <c r="BG240">
+        <v>0</v>
+      </c>
+      <c r="BH240">
+        <v>0</v>
+      </c>
+      <c r="BI240">
+        <v>1.26</v>
+      </c>
+      <c r="BJ240">
+        <v>3.34</v>
+      </c>
+      <c r="BK240">
+        <v>1.46</v>
+      </c>
+      <c r="BL240">
+        <v>2.45</v>
+      </c>
+      <c r="BM240">
+        <v>1.81</v>
+      </c>
+      <c r="BN240">
+        <v>1.89</v>
+      </c>
+      <c r="BO240">
+        <v>2.27</v>
+      </c>
+      <c r="BP240">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>6676195</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45437.52083333334</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>70</v>
+      </c>
+      <c r="H241" t="s">
+        <v>72</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>3</v>
+      </c>
+      <c r="N241">
+        <v>7</v>
+      </c>
+      <c r="O241" t="s">
+        <v>246</v>
+      </c>
+      <c r="P241" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q241">
+        <v>1.91</v>
+      </c>
+      <c r="R241">
+        <v>2.75</v>
+      </c>
+      <c r="S241">
+        <v>4.33</v>
+      </c>
+      <c r="T241">
+        <v>1.2</v>
+      </c>
+      <c r="U241">
+        <v>4.25</v>
+      </c>
+      <c r="V241">
+        <v>1.97</v>
+      </c>
+      <c r="W241">
+        <v>1.78</v>
+      </c>
+      <c r="X241">
+        <v>4</v>
+      </c>
+      <c r="Y241">
+        <v>1.22</v>
+      </c>
+      <c r="Z241">
+        <v>1.5</v>
+      </c>
+      <c r="AA241">
+        <v>4.75</v>
+      </c>
+      <c r="AB241">
+        <v>5</v>
+      </c>
+      <c r="AC241">
+        <v>1.01</v>
+      </c>
+      <c r="AD241">
+        <v>11</v>
+      </c>
+      <c r="AE241">
+        <v>1.09</v>
+      </c>
+      <c r="AF241">
+        <v>6</v>
+      </c>
+      <c r="AG241">
+        <v>1.29</v>
+      </c>
+      <c r="AH241">
+        <v>3.5</v>
+      </c>
+      <c r="AI241">
+        <v>1.4</v>
+      </c>
+      <c r="AJ241">
+        <v>2.75</v>
+      </c>
+      <c r="AK241">
+        <v>1.18</v>
+      </c>
+      <c r="AL241">
+        <v>1.16</v>
+      </c>
+      <c r="AM241">
+        <v>1.97</v>
+      </c>
+      <c r="AN241">
+        <v>1.57</v>
+      </c>
+      <c r="AO241">
+        <v>1.07</v>
+      </c>
+      <c r="AP241">
+        <v>1.67</v>
+      </c>
+      <c r="AQ241">
+        <v>1</v>
+      </c>
+      <c r="AR241">
+        <v>1.6</v>
+      </c>
+      <c r="AS241">
+        <v>1.29</v>
+      </c>
+      <c r="AT241">
+        <v>2.89</v>
+      </c>
+      <c r="AU241">
+        <v>5</v>
+      </c>
+      <c r="AV241">
+        <v>4</v>
+      </c>
+      <c r="AW241">
+        <v>9</v>
+      </c>
+      <c r="AX241">
+        <v>4</v>
+      </c>
+      <c r="AY241">
+        <v>14</v>
+      </c>
+      <c r="AZ241">
+        <v>8</v>
+      </c>
+      <c r="BA241">
+        <v>5</v>
+      </c>
+      <c r="BB241">
+        <v>2</v>
+      </c>
+      <c r="BC241">
+        <v>7</v>
+      </c>
+      <c r="BD241">
+        <v>1.32</v>
+      </c>
+      <c r="BE241">
+        <v>11</v>
+      </c>
+      <c r="BF241">
+        <v>4.04</v>
+      </c>
+      <c r="BG241">
+        <v>0</v>
+      </c>
+      <c r="BH241">
+        <v>0</v>
+      </c>
+      <c r="BI241">
+        <v>1.25</v>
+      </c>
+      <c r="BJ241">
+        <v>3.42</v>
+      </c>
+      <c r="BK241">
+        <v>1.91</v>
+      </c>
+      <c r="BL241">
+        <v>2.45</v>
+      </c>
+      <c r="BM241">
+        <v>1.83</v>
+      </c>
+      <c r="BN241">
+        <v>1.96</v>
+      </c>
+      <c r="BO241">
+        <v>2.25</v>
+      </c>
+      <c r="BP241">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
